--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAE7D78-3998-8943-A583-E9FE39EFCD92}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53B539-87E8-414A-A31B-FFBF818FAAE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9360" yWindow="-31540" windowWidth="25560" windowHeight="31540" activeTab="1" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="-9360" yWindow="-31540" windowWidth="51200" windowHeight="31540" activeTab="3" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
@@ -13453,6 +13453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FCD16A-AA0E-8248-93BE-C922ACA25034}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20167,11 +20168,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605F05A7-F235-5040-8890-379E932ADCBF}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -20190,7 +20191,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="68" hidden="1">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="5" t="s">
         <v>519</v>
       </c>
@@ -20201,7 +20202,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="85" hidden="1">
+    <row r="3" spans="1:9" ht="85">
       <c r="A3" s="5" t="s">
         <v>520</v>
       </c>
@@ -20212,7 +20213,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="119" hidden="1">
+    <row r="4" spans="1:9" ht="119">
       <c r="A4" s="5" t="s">
         <v>521</v>
       </c>
@@ -20223,7 +20224,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>522</v>
       </c>
@@ -20231,7 +20232,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
         <v>523</v>
       </c>
@@ -20239,7 +20240,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>524</v>
       </c>
@@ -20367,7 +20368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1">
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>542</v>
       </c>
@@ -20375,7 +20376,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1">
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>543</v>
       </c>
@@ -20399,7 +20400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>547</v>
       </c>
@@ -20407,7 +20408,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>548</v>
       </c>
@@ -20415,7 +20416,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>549</v>
       </c>
@@ -20423,7 +20424,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1">
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>550</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1">
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>551</v>
       </c>
@@ -20439,7 +20440,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1">
+    <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
         <v>553</v>
       </c>
@@ -20455,7 +20456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
+    <row r="34" spans="1:2">
       <c r="A34" s="8" t="s">
         <v>556</v>
       </c>
@@ -20463,7 +20464,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
@@ -20471,7 +20472,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1">
+    <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
         <v>558</v>
       </c>
@@ -20527,7 +20528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
         <v>565</v>
       </c>
@@ -20559,7 +20560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1">
+    <row r="47" spans="1:2">
       <c r="A47" s="8" t="s">
         <v>569</v>
       </c>
@@ -20567,7 +20568,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1">
+    <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
         <v>555</v>
       </c>
@@ -20575,7 +20576,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1">
+    <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
         <v>570</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1">
+    <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
         <v>571</v>
       </c>
@@ -20591,7 +20592,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
+    <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
         <v>572</v>
       </c>
@@ -20599,7 +20600,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>540</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>574</v>
       </c>
@@ -20615,7 +20616,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>575</v>
       </c>
@@ -20623,7 +20624,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>576</v>
       </c>
@@ -20631,7 +20632,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>577</v>
       </c>
@@ -20639,7 +20640,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>578</v>
       </c>
@@ -20647,7 +20648,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>579</v>
       </c>
@@ -20655,7 +20656,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>580</v>
       </c>
@@ -20663,7 +20664,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>581</v>
       </c>
@@ -20687,7 +20688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17" hidden="1">
+    <row r="63" spans="1:2" ht="17">
       <c r="A63" s="1" t="s">
         <v>1748</v>
       </c>
@@ -20695,7 +20696,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17" hidden="1">
+    <row r="64" spans="1:2" ht="17">
       <c r="A64" s="1" t="s">
         <v>1749</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17" hidden="1">
+    <row r="65" spans="1:2" ht="17">
       <c r="A65" s="1" t="s">
         <v>1750</v>
       </c>
@@ -20711,7 +20712,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17" hidden="1">
+    <row r="66" spans="1:2" ht="17">
       <c r="A66" s="1" t="s">
         <v>1751</v>
       </c>
@@ -20719,7 +20720,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="34" hidden="1">
+    <row r="67" spans="1:2" ht="34">
       <c r="A67" s="1" t="s">
         <v>1752</v>
       </c>
@@ -20727,7 +20728,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>1753</v>
       </c>
@@ -20735,7 +20736,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>1754</v>
       </c>
@@ -20743,7 +20744,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="34" hidden="1">
+    <row r="70" spans="1:2" ht="34">
       <c r="A70" s="1" t="s">
         <v>1760</v>
       </c>
@@ -20751,7 +20752,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="34" hidden="1">
+    <row r="71" spans="1:2" ht="34">
       <c r="A71" s="1" t="s">
         <v>1760</v>
       </c>
@@ -20759,7 +20760,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17" hidden="1">
+    <row r="72" spans="1:2" ht="17">
       <c r="A72" s="1" t="s">
         <v>1761</v>
       </c>
@@ -20768,19 +20769,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B72" xr:uid="{F8E935E9-326E-8944-8BEF-E209CC2F2BC4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="FAWG"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B72" xr:uid="{F8E935E9-326E-8944-8BEF-E209CC2F2BC4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C6FBE5-B699-C54E-8B8C-3FBC64E2A548}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20871,9 +20867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0722FB6E-5A58-3149-BCCA-FA7A6EF37296}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -22236,6 +22233,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0452BB-C268-4F46-BF1E-49C99474CEA9}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:S842"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -55072,6 +55070,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B920BD05-26DB-394D-AE5A-9CFB0FD694E6}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView topLeftCell="A480" workbookViewId="0">
@@ -64029,6 +64028,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0898F59B-444E-D148-9E60-B06AB84DEE91}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64098,6 +64098,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFEB2D9-A281-6B4D-BF51-807B34AB96BE}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Python_Practice\VBA Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5152B958-B6B0-40A2-9202-A33715A4C0FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1513ED37-EB72-B744-9684-071A80D675D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="-120" yWindow="460" windowWidth="38640" windowHeight="20540" activeTab="1" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13260" uniqueCount="1762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13262" uniqueCount="1763">
   <si>
     <t>Name</t>
   </si>
@@ -5332,6 +5332,9 @@
   </si>
   <si>
     <t>[IG][FAWG][Quality]Family@MAP Prevalence Disagreements</t>
+  </si>
+  <si>
+    <t>[FAWG] UFAC Holdout Stratified Experiment</t>
   </si>
 </sst>
 </file>
@@ -6055,11 +6058,11 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -12099,7 +12102,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" ht="17">
       <c r="A243" t="s">
         <v>493</v>
       </c>
@@ -12533,7 +12536,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" ht="17">
       <c r="A265" s="1" t="s">
         <v>308</v>
       </c>
@@ -12549,7 +12552,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" ht="17">
       <c r="A266" s="1" t="s">
         <v>113</v>
       </c>
@@ -12764,18 +12767,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605F05A7-F235-5040-8890-379E932ADCBF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:XFD71"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78.75">
+    <row r="1" spans="1:9" ht="85">
       <c r="A1" t="s">
         <v>517</v>
       </c>
@@ -12786,7 +12789,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="63">
+    <row r="2" spans="1:9" ht="68">
       <c r="A2" s="5" t="s">
         <v>519</v>
       </c>
@@ -12794,14 +12797,14 @@
         <v>525</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(A:A,A2)</f>
+        <f t="shared" ref="C2:C33" si="0">COUNTIF(A:A,A2)</f>
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="63">
+    <row r="3" spans="1:9" ht="85">
       <c r="A3" s="5" t="s">
         <v>520</v>
       </c>
@@ -12809,14 +12812,14 @@
         <v>525</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(A:A,A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="110.25">
+    <row r="4" spans="1:9" ht="119">
       <c r="A4" s="5" t="s">
         <v>521</v>
       </c>
@@ -12824,7 +12827,7 @@
         <v>525</v>
       </c>
       <c r="C4">
-        <f>COUNTIF(A:A,A4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -12839,7 +12842,7 @@
         <v>525</v>
       </c>
       <c r="C5">
-        <f>COUNTIF(A:A,A5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12851,7 +12854,7 @@
         <v>525</v>
       </c>
       <c r="C6">
-        <f>COUNTIF(A:A,A6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12863,7 +12866,7 @@
         <v>525</v>
       </c>
       <c r="C7">
-        <f>COUNTIF(A:A,A7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12875,7 +12878,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f>COUNTIF(A:A,A8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12887,7 +12890,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <f>COUNTIF(A:A,A9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12899,7 +12902,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <f>COUNTIF(A:A,A10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12911,7 +12914,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f>COUNTIF(A:A,A11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12923,7 +12926,7 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <f>COUNTIF(A:A,A12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12935,7 +12938,7 @@
         <v>7</v>
       </c>
       <c r="C13">
-        <f>COUNTIF(A:A,A13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12947,7 +12950,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <f>COUNTIF(A:A,A14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12959,7 +12962,7 @@
         <v>7</v>
       </c>
       <c r="C15">
-        <f>COUNTIF(A:A,A15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12971,7 +12974,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>COUNTIF(A:A,A16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12983,7 +12986,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>COUNTIF(A:A,A17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -12995,7 +12998,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <f>COUNTIF(A:A,A18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13007,7 +13010,7 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <f>COUNTIF(A:A,A19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13019,7 +13022,7 @@
         <v>7</v>
       </c>
       <c r="C20">
-        <f>COUNTIF(A:A,A20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13031,7 +13034,7 @@
         <v>7</v>
       </c>
       <c r="C21">
-        <f>COUNTIF(A:A,A21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13043,7 +13046,7 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <f>COUNTIF(A:A,A22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13055,7 +13058,7 @@
         <v>544</v>
       </c>
       <c r="C23">
-        <f>COUNTIF(A:A,A23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13067,7 +13070,7 @@
         <v>544</v>
       </c>
       <c r="C24">
-        <f>COUNTIF(A:A,A24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13079,7 +13082,7 @@
         <v>7</v>
       </c>
       <c r="C25">
-        <f>COUNTIF(A:A,A25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13091,7 +13094,7 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <f>COUNTIF(A:A,A26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13103,7 +13106,7 @@
         <v>552</v>
       </c>
       <c r="C27">
-        <f>COUNTIF(A:A,A27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13115,7 +13118,7 @@
         <v>552</v>
       </c>
       <c r="C28">
-        <f>COUNTIF(A:A,A28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13127,7 +13130,7 @@
         <v>552</v>
       </c>
       <c r="C29">
-        <f>COUNTIF(A:A,A29)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13139,7 +13142,7 @@
         <v>552</v>
       </c>
       <c r="C30">
-        <f>COUNTIF(A:A,A30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13151,7 +13154,7 @@
         <v>552</v>
       </c>
       <c r="C31">
-        <f>COUNTIF(A:A,A31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13163,7 +13166,7 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <f>COUNTIF(A:A,A32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13175,7 +13178,7 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <f>COUNTIF(A:A,A33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -13187,7 +13190,7 @@
         <v>573</v>
       </c>
       <c r="C34">
-        <f>COUNTIF(A:A,A34)</f>
+        <f t="shared" ref="C34:C65" si="1">COUNTIF(A:A,A34)</f>
         <v>1</v>
       </c>
     </row>
@@ -13199,7 +13202,7 @@
         <v>573</v>
       </c>
       <c r="C35">
-        <f>COUNTIF(A:A,A35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13211,7 +13214,7 @@
         <v>573</v>
       </c>
       <c r="C36">
-        <f>COUNTIF(A:A,A36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13223,7 +13226,7 @@
         <v>7</v>
       </c>
       <c r="C37">
-        <f>COUNTIF(A:A,A37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13235,7 +13238,7 @@
         <v>7</v>
       </c>
       <c r="C38">
-        <f>COUNTIF(A:A,A38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13247,7 +13250,7 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <f>COUNTIF(A:A,A39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13259,7 +13262,7 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <f>COUNTIF(A:A,A40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13271,7 +13274,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <f>COUNTIF(A:A,A41)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13283,7 +13286,7 @@
         <v>7</v>
       </c>
       <c r="C42">
-        <f>COUNTIF(A:A,A42)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13295,7 +13298,7 @@
         <v>1755</v>
       </c>
       <c r="C43">
-        <f>COUNTIF(A:A,A43)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13307,7 +13310,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <f>COUNTIF(A:A,A44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13319,7 +13322,7 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <f>COUNTIF(A:A,A45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13331,7 +13334,7 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <f>COUNTIF(A:A,A46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13343,7 +13346,7 @@
         <v>1755</v>
       </c>
       <c r="C47">
-        <f>COUNTIF(A:A,A47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13355,7 +13358,7 @@
         <v>573</v>
       </c>
       <c r="C48">
-        <f>COUNTIF(A:A,A48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13367,7 +13370,7 @@
         <v>573</v>
       </c>
       <c r="C49">
-        <f>COUNTIF(A:A,A49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13379,7 +13382,7 @@
         <v>573</v>
       </c>
       <c r="C50">
-        <f>COUNTIF(A:A,A50)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13391,7 +13394,7 @@
         <v>573</v>
       </c>
       <c r="C51">
-        <f>COUNTIF(A:A,A51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13403,7 +13406,7 @@
         <v>525</v>
       </c>
       <c r="C52">
-        <f>COUNTIF(A:A,A52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13415,7 +13418,7 @@
         <v>42</v>
       </c>
       <c r="C53">
-        <f>COUNTIF(A:A,A53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13427,7 +13430,7 @@
         <v>525</v>
       </c>
       <c r="C54">
-        <f>COUNTIF(A:A,A54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13439,7 +13442,7 @@
         <v>525</v>
       </c>
       <c r="C55">
-        <f>COUNTIF(A:A,A55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13451,7 +13454,7 @@
         <v>582</v>
       </c>
       <c r="C56">
-        <f>COUNTIF(A:A,A56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13463,7 +13466,7 @@
         <v>582</v>
       </c>
       <c r="C57">
-        <f>COUNTIF(A:A,A57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13475,7 +13478,7 @@
         <v>582</v>
       </c>
       <c r="C58">
-        <f>COUNTIF(A:A,A58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13487,7 +13490,7 @@
         <v>582</v>
       </c>
       <c r="C59">
-        <f>COUNTIF(A:A,A59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -13499,11 +13502,11 @@
         <v>582</v>
       </c>
       <c r="C60">
-        <f>COUNTIF(A:A,A60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" ht="17">
       <c r="A61" s="1" t="s">
         <v>1746</v>
       </c>
@@ -13511,11 +13514,11 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <f>COUNTIF(A:A,A61)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" ht="17">
       <c r="A62" s="1" t="s">
         <v>1747</v>
       </c>
@@ -13523,11 +13526,11 @@
         <v>7</v>
       </c>
       <c r="C62">
-        <f>COUNTIF(A:A,A62)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" ht="17">
       <c r="A63" s="1" t="s">
         <v>1748</v>
       </c>
@@ -13535,11 +13538,11 @@
         <v>582</v>
       </c>
       <c r="C63">
-        <f>COUNTIF(A:A,A63)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" ht="17">
       <c r="A64" s="1" t="s">
         <v>1749</v>
       </c>
@@ -13547,11 +13550,11 @@
         <v>582</v>
       </c>
       <c r="C64">
-        <f>COUNTIF(A:A,A64)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" ht="17">
       <c r="A65" s="1" t="s">
         <v>1750</v>
       </c>
@@ -13559,11 +13562,11 @@
         <v>582</v>
       </c>
       <c r="C65">
-        <f>COUNTIF(A:A,A65)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" ht="17">
       <c r="A66" s="1" t="s">
         <v>1751</v>
       </c>
@@ -13571,11 +13574,11 @@
         <v>582</v>
       </c>
       <c r="C66">
-        <f>COUNTIF(A:A,A66)</f>
+        <f t="shared" ref="C66:C71" si="2">COUNTIF(A:A,A66)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="31.5">
+    <row r="67" spans="1:3" ht="34">
       <c r="A67" s="1" t="s">
         <v>1752</v>
       </c>
@@ -13583,7 +13586,7 @@
         <v>1755</v>
       </c>
       <c r="C67">
-        <f>COUNTIF(A:A,A67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -13595,7 +13598,7 @@
         <v>1755</v>
       </c>
       <c r="C68">
-        <f>COUNTIF(A:A,A68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -13607,11 +13610,11 @@
         <v>1755</v>
       </c>
       <c r="C69">
-        <f>COUNTIF(A:A,A69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="31.5">
+    <row r="70" spans="1:3" ht="34">
       <c r="A70" s="1" t="s">
         <v>1760</v>
       </c>
@@ -13619,11 +13622,11 @@
         <v>582</v>
       </c>
       <c r="C70">
-        <f>COUNTIF(A:A,A70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" ht="17">
       <c r="A71" s="1" t="s">
         <v>1761</v>
       </c>
@@ -13631,8 +13634,16 @@
         <v>1755</v>
       </c>
       <c r="C71">
-        <f>COUNTIF(A:A,A71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17">
+      <c r="A72" s="1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -13650,9 +13661,9 @@
       <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="62.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -13741,12 +13752,12 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -15107,24 +15118,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="33.625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="12" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.625" style="12"/>
-    <col min="10" max="10" width="21.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="8.625" style="12"/>
-    <col min="18" max="18" width="18.375" style="15" customWidth="1"/>
-    <col min="19" max="16384" width="8.625" style="12"/>
+    <col min="9" max="9" width="8.6640625" style="12"/>
+    <col min="10" max="10" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.6640625" style="12"/>
+    <col min="18" max="18" width="18.33203125" style="15" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -15576,7 +15587,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75">
+    <row r="13" spans="1:19" ht="16">
       <c r="A13" s="12" t="s">
         <v>632</v>
       </c>
@@ -15615,7 +15626,7 @@
       </c>
       <c r="R13"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75">
+    <row r="14" spans="1:19" ht="16">
       <c r="A14" s="12" t="s">
         <v>636</v>
       </c>
@@ -15654,7 +15665,7 @@
       </c>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75">
+    <row r="15" spans="1:19" ht="16">
       <c r="A15" s="12" t="s">
         <v>639</v>
       </c>
@@ -15693,7 +15704,7 @@
       </c>
       <c r="R15"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75">
+    <row r="16" spans="1:19" ht="16">
       <c r="A16" s="12" t="s">
         <v>641</v>
       </c>
@@ -15732,7 +15743,7 @@
       </c>
       <c r="R16"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75">
+    <row r="17" spans="1:18" ht="16">
       <c r="A17" s="12" t="s">
         <v>644</v>
       </c>
@@ -15771,7 +15782,7 @@
       </c>
       <c r="R17"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75">
+    <row r="18" spans="1:18" ht="16">
       <c r="A18" s="12" t="s">
         <v>646</v>
       </c>
@@ -15810,7 +15821,7 @@
       </c>
       <c r="R18"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75">
+    <row r="19" spans="1:18" ht="16">
       <c r="A19" s="12" t="s">
         <v>648</v>
       </c>
@@ -15849,7 +15860,7 @@
       </c>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75">
+    <row r="20" spans="1:18" ht="16">
       <c r="A20" s="12" t="s">
         <v>650</v>
       </c>
@@ -15888,7 +15899,7 @@
       </c>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75">
+    <row r="21" spans="1:18" ht="16">
       <c r="A21" s="12" t="s">
         <v>653</v>
       </c>
@@ -15927,7 +15938,7 @@
       </c>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75">
+    <row r="22" spans="1:18" ht="16">
       <c r="A22" s="12" t="s">
         <v>655</v>
       </c>
@@ -15966,7 +15977,7 @@
       </c>
       <c r="R22"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75">
+    <row r="23" spans="1:18" ht="16">
       <c r="A23" s="12" t="s">
         <v>659</v>
       </c>
@@ -16005,7 +16016,7 @@
       </c>
       <c r="R23"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75">
+    <row r="24" spans="1:18" ht="16">
       <c r="A24" s="12" t="s">
         <v>662</v>
       </c>
@@ -16044,7 +16055,7 @@
       </c>
       <c r="R24"/>
     </row>
-    <row r="25" spans="1:18" ht="15.75">
+    <row r="25" spans="1:18" ht="16">
       <c r="A25" s="12" t="s">
         <v>664</v>
       </c>
@@ -16083,7 +16094,7 @@
       </c>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75">
+    <row r="26" spans="1:18" ht="16">
       <c r="A26" s="12" t="s">
         <v>666</v>
       </c>
@@ -16122,7 +16133,7 @@
       </c>
       <c r="R26"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75">
+    <row r="27" spans="1:18" ht="16">
       <c r="A27" s="12" t="s">
         <v>668</v>
       </c>
@@ -16161,7 +16172,7 @@
       </c>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75">
+    <row r="28" spans="1:18" ht="16">
       <c r="A28" s="12" t="s">
         <v>670</v>
       </c>
@@ -16200,7 +16211,7 @@
       </c>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75">
+    <row r="29" spans="1:18" ht="16">
       <c r="A29" s="12" t="s">
         <v>672</v>
       </c>
@@ -16239,7 +16250,7 @@
       </c>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75">
+    <row r="30" spans="1:18" ht="16">
       <c r="A30" s="12" t="s">
         <v>674</v>
       </c>
@@ -16278,7 +16289,7 @@
       </c>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75">
+    <row r="31" spans="1:18" ht="16">
       <c r="A31" s="12" t="s">
         <v>678</v>
       </c>
@@ -16317,7 +16328,7 @@
       </c>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75">
+    <row r="32" spans="1:18" ht="16">
       <c r="A32" s="12" t="s">
         <v>680</v>
       </c>
@@ -16356,7 +16367,7 @@
       </c>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75">
+    <row r="33" spans="1:18" ht="16">
       <c r="A33" s="12" t="s">
         <v>682</v>
       </c>
@@ -16395,7 +16406,7 @@
       </c>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75">
+    <row r="34" spans="1:18" ht="16">
       <c r="A34" s="12" t="s">
         <v>684</v>
       </c>
@@ -16434,7 +16445,7 @@
       </c>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75">
+    <row r="35" spans="1:18" ht="16">
       <c r="A35" s="12" t="s">
         <v>686</v>
       </c>
@@ -16473,7 +16484,7 @@
       </c>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75">
+    <row r="36" spans="1:18" ht="16">
       <c r="A36" s="12" t="s">
         <v>689</v>
       </c>
@@ -16512,7 +16523,7 @@
       </c>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75">
+    <row r="37" spans="1:18" ht="16">
       <c r="A37" s="12" t="s">
         <v>691</v>
       </c>
@@ -16551,7 +16562,7 @@
       </c>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75">
+    <row r="38" spans="1:18" ht="16">
       <c r="A38" s="12" t="s">
         <v>693</v>
       </c>
@@ -16590,7 +16601,7 @@
       </c>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75">
+    <row r="39" spans="1:18" ht="16">
       <c r="A39" s="12" t="s">
         <v>695</v>
       </c>
@@ -16629,7 +16640,7 @@
       </c>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75">
+    <row r="40" spans="1:18" ht="16">
       <c r="A40" s="12" t="s">
         <v>697</v>
       </c>
@@ -16668,7 +16679,7 @@
       </c>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75">
+    <row r="41" spans="1:18" ht="16">
       <c r="A41" s="12" t="s">
         <v>699</v>
       </c>
@@ -16707,7 +16718,7 @@
       </c>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75">
+    <row r="42" spans="1:18" ht="16">
       <c r="A42" s="12" t="s">
         <v>701</v>
       </c>
@@ -16746,7 +16757,7 @@
       </c>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" ht="15.75">
+    <row r="43" spans="1:18" ht="16">
       <c r="A43" s="12" t="s">
         <v>703</v>
       </c>
@@ -16785,7 +16796,7 @@
       </c>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" ht="15.75">
+    <row r="44" spans="1:18" ht="16">
       <c r="A44" s="12" t="s">
         <v>705</v>
       </c>
@@ -16824,7 +16835,7 @@
       </c>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75">
+    <row r="45" spans="1:18" ht="16">
       <c r="A45" s="12" t="s">
         <v>707</v>
       </c>
@@ -16863,7 +16874,7 @@
       </c>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75">
+    <row r="46" spans="1:18" ht="16">
       <c r="A46" s="12" t="s">
         <v>709</v>
       </c>
@@ -16902,7 +16913,7 @@
       </c>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75">
+    <row r="47" spans="1:18" ht="16">
       <c r="A47" s="12" t="s">
         <v>711</v>
       </c>
@@ -16941,7 +16952,7 @@
       </c>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75">
+    <row r="48" spans="1:18" ht="16">
       <c r="A48" s="12" t="s">
         <v>713</v>
       </c>
@@ -16980,7 +16991,7 @@
       </c>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75">
+    <row r="49" spans="1:18" ht="16">
       <c r="A49" s="12" t="s">
         <v>715</v>
       </c>
@@ -17019,7 +17030,7 @@
       </c>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75">
+    <row r="50" spans="1:18" ht="16">
       <c r="A50" s="12" t="s">
         <v>717</v>
       </c>
@@ -17058,7 +17069,7 @@
       </c>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75">
+    <row r="51" spans="1:18" ht="16">
       <c r="A51" s="12" t="s">
         <v>719</v>
       </c>
@@ -17097,7 +17108,7 @@
       </c>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75">
+    <row r="52" spans="1:18" ht="16">
       <c r="A52" s="12" t="s">
         <v>721</v>
       </c>
@@ -17136,7 +17147,7 @@
       </c>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75">
+    <row r="53" spans="1:18" ht="16">
       <c r="A53" s="12" t="s">
         <v>723</v>
       </c>
@@ -17175,7 +17186,7 @@
       </c>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75">
+    <row r="54" spans="1:18" ht="16">
       <c r="A54" s="12" t="s">
         <v>725</v>
       </c>
@@ -17214,7 +17225,7 @@
       </c>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" ht="15.75">
+    <row r="55" spans="1:18" ht="16">
       <c r="A55" s="12" t="s">
         <v>727</v>
       </c>
@@ -17253,7 +17264,7 @@
       </c>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75">
+    <row r="56" spans="1:18" ht="16">
       <c r="A56" s="12" t="s">
         <v>688</v>
       </c>
@@ -17292,7 +17303,7 @@
       </c>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75">
+    <row r="57" spans="1:18" ht="16">
       <c r="A57" s="12" t="s">
         <v>730</v>
       </c>
@@ -17331,7 +17342,7 @@
       </c>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" ht="15.75">
+    <row r="58" spans="1:18" ht="16">
       <c r="A58" s="12" t="s">
         <v>732</v>
       </c>
@@ -17370,7 +17381,7 @@
       </c>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75">
+    <row r="59" spans="1:18" ht="16">
       <c r="A59" s="12" t="s">
         <v>734</v>
       </c>
@@ -17409,7 +17420,7 @@
       </c>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75">
+    <row r="60" spans="1:18" ht="16">
       <c r="A60" s="12" t="s">
         <v>736</v>
       </c>
@@ -17448,7 +17459,7 @@
       </c>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" ht="15.75">
+    <row r="61" spans="1:18" ht="16">
       <c r="A61" s="12" t="s">
         <v>738</v>
       </c>
@@ -17487,7 +17498,7 @@
       </c>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75">
+    <row r="62" spans="1:18" ht="16">
       <c r="A62" s="12" t="s">
         <v>740</v>
       </c>
@@ -17526,7 +17537,7 @@
       </c>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75">
+    <row r="63" spans="1:18" ht="16">
       <c r="A63" s="12" t="s">
         <v>742</v>
       </c>
@@ -17565,7 +17576,7 @@
       </c>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75">
+    <row r="64" spans="1:18" ht="16">
       <c r="A64" s="12" t="s">
         <v>744</v>
       </c>
@@ -17604,7 +17615,7 @@
       </c>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" ht="15.75">
+    <row r="65" spans="1:18" ht="16">
       <c r="A65" s="12" t="s">
         <v>746</v>
       </c>
@@ -17643,7 +17654,7 @@
       </c>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" ht="15.75">
+    <row r="66" spans="1:18" ht="16">
       <c r="A66" s="12" t="s">
         <v>748</v>
       </c>
@@ -17682,7 +17693,7 @@
       </c>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75">
+    <row r="67" spans="1:18" ht="16">
       <c r="A67" s="12" t="s">
         <v>750</v>
       </c>
@@ -17721,7 +17732,7 @@
       </c>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75">
+    <row r="68" spans="1:18" ht="16">
       <c r="A68" s="12" t="s">
         <v>752</v>
       </c>
@@ -17760,7 +17771,7 @@
       </c>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75">
+    <row r="69" spans="1:18" ht="16">
       <c r="A69" s="12" t="s">
         <v>754</v>
       </c>
@@ -17799,7 +17810,7 @@
       </c>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" ht="15.75">
+    <row r="70" spans="1:18" ht="16">
       <c r="A70" s="12" t="s">
         <v>756</v>
       </c>
@@ -17838,7 +17849,7 @@
       </c>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" ht="15.75">
+    <row r="71" spans="1:18" ht="16">
       <c r="A71" s="12" t="s">
         <v>758</v>
       </c>
@@ -17877,7 +17888,7 @@
       </c>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" ht="15.75">
+    <row r="72" spans="1:18" ht="16">
       <c r="A72" s="12" t="s">
         <v>760</v>
       </c>
@@ -17916,7 +17927,7 @@
       </c>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" ht="15.75">
+    <row r="73" spans="1:18" ht="16">
       <c r="A73" s="12" t="s">
         <v>764</v>
       </c>
@@ -17955,7 +17966,7 @@
       </c>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" ht="15.75">
+    <row r="74" spans="1:18" ht="16">
       <c r="A74" s="12" t="s">
         <v>766</v>
       </c>
@@ -17992,7 +18003,7 @@
       </c>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" ht="15.75">
+    <row r="75" spans="1:18" ht="16">
       <c r="A75" s="12" t="s">
         <v>767</v>
       </c>
@@ -18031,7 +18042,7 @@
       </c>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" ht="15.75">
+    <row r="76" spans="1:18" ht="16">
       <c r="A76" s="12" t="s">
         <v>769</v>
       </c>
@@ -18070,7 +18081,7 @@
       </c>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" ht="15.75">
+    <row r="77" spans="1:18" ht="16">
       <c r="A77" s="12" t="s">
         <v>771</v>
       </c>
@@ -18109,7 +18120,7 @@
       </c>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" ht="15.75">
+    <row r="78" spans="1:18" ht="16">
       <c r="A78" s="12" t="s">
         <v>773</v>
       </c>
@@ -18146,7 +18157,7 @@
       </c>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" ht="15.75">
+    <row r="79" spans="1:18" ht="16">
       <c r="A79" s="12" t="s">
         <v>774</v>
       </c>
@@ -18185,7 +18196,7 @@
       </c>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" ht="15.75">
+    <row r="80" spans="1:18" ht="16">
       <c r="A80" s="12" t="s">
         <v>776</v>
       </c>
@@ -18224,7 +18235,7 @@
       </c>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" ht="15.75">
+    <row r="81" spans="1:18" ht="16">
       <c r="A81" s="12" t="s">
         <v>661</v>
       </c>
@@ -18263,7 +18274,7 @@
       </c>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" ht="15.75">
+    <row r="82" spans="1:18" ht="16">
       <c r="A82" s="12" t="s">
         <v>779</v>
       </c>
@@ -18302,7 +18313,7 @@
       </c>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" ht="15.75">
+    <row r="83" spans="1:18" ht="16">
       <c r="A83" s="12" t="s">
         <v>781</v>
       </c>
@@ -18341,7 +18352,7 @@
       </c>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" ht="15.75">
+    <row r="84" spans="1:18" ht="16">
       <c r="A84" s="12" t="s">
         <v>783</v>
       </c>
@@ -18380,7 +18391,7 @@
       </c>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" ht="15.75">
+    <row r="85" spans="1:18" ht="16">
       <c r="A85" s="12" t="s">
         <v>785</v>
       </c>
@@ -18419,7 +18430,7 @@
       </c>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" ht="15.75">
+    <row r="86" spans="1:18" ht="16">
       <c r="A86" s="12" t="s">
         <v>787</v>
       </c>
@@ -18458,7 +18469,7 @@
       </c>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" ht="15.75">
+    <row r="87" spans="1:18" ht="16">
       <c r="A87" s="12" t="s">
         <v>789</v>
       </c>
@@ -18497,7 +18508,7 @@
       </c>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" ht="15.75">
+    <row r="88" spans="1:18" ht="16">
       <c r="A88" s="12" t="s">
         <v>791</v>
       </c>
@@ -18536,7 +18547,7 @@
       </c>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" ht="15.75">
+    <row r="89" spans="1:18" ht="16">
       <c r="A89" s="12" t="s">
         <v>793</v>
       </c>
@@ -18575,7 +18586,7 @@
       </c>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" ht="15.75">
+    <row r="90" spans="1:18" ht="16">
       <c r="A90" s="12" t="s">
         <v>795</v>
       </c>
@@ -18614,7 +18625,7 @@
       </c>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18" ht="15.75">
+    <row r="91" spans="1:18" ht="16">
       <c r="A91" s="12" t="s">
         <v>797</v>
       </c>
@@ -18653,7 +18664,7 @@
       </c>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" ht="15.75">
+    <row r="92" spans="1:18" ht="16">
       <c r="A92" s="12" t="s">
         <v>799</v>
       </c>
@@ -18692,7 +18703,7 @@
       </c>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" ht="15.75">
+    <row r="93" spans="1:18" ht="16">
       <c r="A93" s="12" t="s">
         <v>801</v>
       </c>
@@ -18731,7 +18742,7 @@
       </c>
       <c r="R93"/>
     </row>
-    <row r="94" spans="1:18" ht="15.75">
+    <row r="94" spans="1:18" ht="16">
       <c r="A94" s="12" t="s">
         <v>803</v>
       </c>
@@ -18770,7 +18781,7 @@
       </c>
       <c r="R94"/>
     </row>
-    <row r="95" spans="1:18" ht="15.75">
+    <row r="95" spans="1:18" ht="16">
       <c r="A95" s="12" t="s">
         <v>805</v>
       </c>
@@ -18809,7 +18820,7 @@
       </c>
       <c r="R95"/>
     </row>
-    <row r="96" spans="1:18" ht="15.75">
+    <row r="96" spans="1:18" ht="16">
       <c r="A96" s="12" t="s">
         <v>807</v>
       </c>
@@ -18848,7 +18859,7 @@
       </c>
       <c r="R96"/>
     </row>
-    <row r="97" spans="1:18" ht="15.75">
+    <row r="97" spans="1:18" ht="16">
       <c r="A97" s="12" t="s">
         <v>809</v>
       </c>
@@ -18887,7 +18898,7 @@
       </c>
       <c r="R97"/>
     </row>
-    <row r="98" spans="1:18" ht="15.75">
+    <row r="98" spans="1:18" ht="16">
       <c r="A98" s="12" t="s">
         <v>811</v>
       </c>
@@ -18926,7 +18937,7 @@
       </c>
       <c r="R98"/>
     </row>
-    <row r="99" spans="1:18" ht="15.75">
+    <row r="99" spans="1:18" ht="16">
       <c r="A99" s="12" t="s">
         <v>813</v>
       </c>
@@ -18965,7 +18976,7 @@
       </c>
       <c r="R99"/>
     </row>
-    <row r="100" spans="1:18" ht="15.75">
+    <row r="100" spans="1:18" ht="16">
       <c r="A100" s="12" t="s">
         <v>815</v>
       </c>
@@ -19004,7 +19015,7 @@
       </c>
       <c r="R100"/>
     </row>
-    <row r="101" spans="1:18" ht="15.75">
+    <row r="101" spans="1:18" ht="16">
       <c r="A101" s="12" t="s">
         <v>817</v>
       </c>
@@ -19043,7 +19054,7 @@
       </c>
       <c r="R101"/>
     </row>
-    <row r="102" spans="1:18" ht="15.75">
+    <row r="102" spans="1:18" ht="16">
       <c r="A102" s="12" t="s">
         <v>819</v>
       </c>
@@ -19082,7 +19093,7 @@
       </c>
       <c r="R102"/>
     </row>
-    <row r="103" spans="1:18" ht="15.75">
+    <row r="103" spans="1:18" ht="16">
       <c r="A103" s="12" t="s">
         <v>821</v>
       </c>
@@ -19121,7 +19132,7 @@
       </c>
       <c r="R103"/>
     </row>
-    <row r="104" spans="1:18" ht="15.75">
+    <row r="104" spans="1:18" ht="16">
       <c r="A104" s="12" t="s">
         <v>823</v>
       </c>
@@ -19160,7 +19171,7 @@
       </c>
       <c r="R104"/>
     </row>
-    <row r="105" spans="1:18" ht="15.75">
+    <row r="105" spans="1:18" ht="16">
       <c r="A105" s="12" t="s">
         <v>825</v>
       </c>
@@ -19199,7 +19210,7 @@
       </c>
       <c r="R105"/>
     </row>
-    <row r="106" spans="1:18" ht="15.75">
+    <row r="106" spans="1:18" ht="16">
       <c r="A106" s="12" t="s">
         <v>827</v>
       </c>
@@ -19238,7 +19249,7 @@
       </c>
       <c r="R106"/>
     </row>
-    <row r="107" spans="1:18" ht="15.75">
+    <row r="107" spans="1:18" ht="16">
       <c r="A107" s="12" t="s">
         <v>829</v>
       </c>
@@ -19277,7 +19288,7 @@
       </c>
       <c r="R107"/>
     </row>
-    <row r="108" spans="1:18" ht="15.75">
+    <row r="108" spans="1:18" ht="16">
       <c r="A108" s="12" t="s">
         <v>831</v>
       </c>
@@ -19316,7 +19327,7 @@
       </c>
       <c r="R108"/>
     </row>
-    <row r="109" spans="1:18" ht="15.75">
+    <row r="109" spans="1:18" ht="16">
       <c r="A109" s="12" t="s">
         <v>833</v>
       </c>
@@ -19355,7 +19366,7 @@
       </c>
       <c r="R109"/>
     </row>
-    <row r="110" spans="1:18" ht="15.75">
+    <row r="110" spans="1:18" ht="16">
       <c r="A110" s="12" t="s">
         <v>835</v>
       </c>
@@ -19394,7 +19405,7 @@
       </c>
       <c r="R110"/>
     </row>
-    <row r="111" spans="1:18" ht="15.75">
+    <row r="111" spans="1:18" ht="16">
       <c r="A111" s="12" t="s">
         <v>837</v>
       </c>
@@ -19433,7 +19444,7 @@
       </c>
       <c r="R111"/>
     </row>
-    <row r="112" spans="1:18" ht="15.75">
+    <row r="112" spans="1:18" ht="16">
       <c r="A112" s="12" t="s">
         <v>839</v>
       </c>
@@ -19472,7 +19483,7 @@
       </c>
       <c r="R112"/>
     </row>
-    <row r="113" spans="1:18" ht="15.75">
+    <row r="113" spans="1:18" ht="16">
       <c r="A113" s="12" t="s">
         <v>841</v>
       </c>
@@ -19511,7 +19522,7 @@
       </c>
       <c r="R113"/>
     </row>
-    <row r="114" spans="1:18" ht="15.75">
+    <row r="114" spans="1:18" ht="16">
       <c r="A114" s="12" t="s">
         <v>843</v>
       </c>
@@ -19550,7 +19561,7 @@
       </c>
       <c r="R114"/>
     </row>
-    <row r="115" spans="1:18" ht="15.75">
+    <row r="115" spans="1:18" ht="16">
       <c r="A115" s="12" t="s">
         <v>845</v>
       </c>
@@ -19589,7 +19600,7 @@
       </c>
       <c r="R115"/>
     </row>
-    <row r="116" spans="1:18" ht="15.75">
+    <row r="116" spans="1:18" ht="16">
       <c r="A116" s="12" t="s">
         <v>847</v>
       </c>
@@ -19626,7 +19637,7 @@
       </c>
       <c r="R116"/>
     </row>
-    <row r="117" spans="1:18" ht="15.75">
+    <row r="117" spans="1:18" ht="16">
       <c r="A117" s="12" t="s">
         <v>848</v>
       </c>
@@ -19663,7 +19674,7 @@
       </c>
       <c r="R117"/>
     </row>
-    <row r="118" spans="1:18" ht="15.75">
+    <row r="118" spans="1:18" ht="16">
       <c r="A118" s="12" t="s">
         <v>849</v>
       </c>
@@ -19700,7 +19711,7 @@
       </c>
       <c r="R118"/>
     </row>
-    <row r="119" spans="1:18" ht="15.75">
+    <row r="119" spans="1:18" ht="16">
       <c r="A119" s="12" t="s">
         <v>850</v>
       </c>
@@ -19737,7 +19748,7 @@
       </c>
       <c r="R119"/>
     </row>
-    <row r="120" spans="1:18" ht="15.75">
+    <row r="120" spans="1:18" ht="16">
       <c r="A120" s="12" t="s">
         <v>851</v>
       </c>
@@ -19774,7 +19785,7 @@
       </c>
       <c r="R120"/>
     </row>
-    <row r="121" spans="1:18" ht="15.75">
+    <row r="121" spans="1:18" ht="16">
       <c r="A121" s="12" t="s">
         <v>852</v>
       </c>
@@ -19811,7 +19822,7 @@
       </c>
       <c r="R121"/>
     </row>
-    <row r="122" spans="1:18" ht="15.75">
+    <row r="122" spans="1:18" ht="16">
       <c r="A122" s="12" t="s">
         <v>853</v>
       </c>
@@ -19848,7 +19859,7 @@
       </c>
       <c r="R122"/>
     </row>
-    <row r="123" spans="1:18" ht="15.75">
+    <row r="123" spans="1:18" ht="16">
       <c r="A123" s="12" t="s">
         <v>854</v>
       </c>
@@ -19885,7 +19896,7 @@
       </c>
       <c r="R123"/>
     </row>
-    <row r="124" spans="1:18" ht="15.75">
+    <row r="124" spans="1:18" ht="16">
       <c r="A124" s="12" t="s">
         <v>855</v>
       </c>
@@ -19922,7 +19933,7 @@
       </c>
       <c r="R124"/>
     </row>
-    <row r="125" spans="1:18" ht="15.75">
+    <row r="125" spans="1:18" ht="16">
       <c r="A125" s="12" t="s">
         <v>856</v>
       </c>
@@ -19959,7 +19970,7 @@
       </c>
       <c r="R125"/>
     </row>
-    <row r="126" spans="1:18" ht="15.75">
+    <row r="126" spans="1:18" ht="16">
       <c r="A126" s="12" t="s">
         <v>857</v>
       </c>
@@ -19996,7 +20007,7 @@
       </c>
       <c r="R126"/>
     </row>
-    <row r="127" spans="1:18" ht="15.75">
+    <row r="127" spans="1:18" ht="16">
       <c r="A127" s="12" t="s">
         <v>858</v>
       </c>
@@ -20033,7 +20044,7 @@
       </c>
       <c r="R127"/>
     </row>
-    <row r="128" spans="1:18" ht="15.75">
+    <row r="128" spans="1:18" ht="16">
       <c r="A128" s="12" t="s">
         <v>859</v>
       </c>
@@ -20070,7 +20081,7 @@
       </c>
       <c r="R128"/>
     </row>
-    <row r="129" spans="1:18" ht="15.75">
+    <row r="129" spans="1:18" ht="16">
       <c r="A129" s="12" t="s">
         <v>860</v>
       </c>
@@ -20107,7 +20118,7 @@
       </c>
       <c r="R129"/>
     </row>
-    <row r="130" spans="1:18" ht="15.75">
+    <row r="130" spans="1:18" ht="16">
       <c r="A130" s="12" t="s">
         <v>861</v>
       </c>
@@ -20146,7 +20157,7 @@
       </c>
       <c r="R130"/>
     </row>
-    <row r="131" spans="1:18" ht="15.75">
+    <row r="131" spans="1:18" ht="16">
       <c r="A131" s="12" t="s">
         <v>863</v>
       </c>
@@ -20185,7 +20196,7 @@
       </c>
       <c r="R131"/>
     </row>
-    <row r="132" spans="1:18" ht="15.75">
+    <row r="132" spans="1:18" ht="16">
       <c r="A132" s="12" t="s">
         <v>865</v>
       </c>
@@ -20224,7 +20235,7 @@
       </c>
       <c r="R132"/>
     </row>
-    <row r="133" spans="1:18" ht="15.75">
+    <row r="133" spans="1:18" ht="16">
       <c r="A133" s="12" t="s">
         <v>867</v>
       </c>
@@ -20263,7 +20274,7 @@
       </c>
       <c r="R133"/>
     </row>
-    <row r="134" spans="1:18" ht="15.75">
+    <row r="134" spans="1:18" ht="16">
       <c r="A134" s="12" t="s">
         <v>869</v>
       </c>
@@ -20302,7 +20313,7 @@
       </c>
       <c r="R134"/>
     </row>
-    <row r="135" spans="1:18" ht="15.75">
+    <row r="135" spans="1:18" ht="16">
       <c r="A135" s="12" t="s">
         <v>871</v>
       </c>
@@ -20341,7 +20352,7 @@
       </c>
       <c r="R135"/>
     </row>
-    <row r="136" spans="1:18" ht="15.75">
+    <row r="136" spans="1:18" ht="16">
       <c r="A136" s="12" t="s">
         <v>873</v>
       </c>
@@ -20380,7 +20391,7 @@
       </c>
       <c r="R136"/>
     </row>
-    <row r="137" spans="1:18" ht="15.75">
+    <row r="137" spans="1:18" ht="16">
       <c r="A137" s="12" t="s">
         <v>875</v>
       </c>
@@ -20419,7 +20430,7 @@
       </c>
       <c r="R137"/>
     </row>
-    <row r="138" spans="1:18" ht="15.75">
+    <row r="138" spans="1:18" ht="16">
       <c r="A138" s="12" t="s">
         <v>877</v>
       </c>
@@ -20458,7 +20469,7 @@
       </c>
       <c r="R138"/>
     </row>
-    <row r="139" spans="1:18" ht="15.75">
+    <row r="139" spans="1:18" ht="16">
       <c r="A139" s="12" t="s">
         <v>879</v>
       </c>
@@ -20497,7 +20508,7 @@
       </c>
       <c r="R139"/>
     </row>
-    <row r="140" spans="1:18" ht="15.75">
+    <row r="140" spans="1:18" ht="16">
       <c r="A140" s="12" t="s">
         <v>881</v>
       </c>
@@ -20536,7 +20547,7 @@
       </c>
       <c r="R140"/>
     </row>
-    <row r="141" spans="1:18" ht="15.75">
+    <row r="141" spans="1:18" ht="16">
       <c r="A141" s="12" t="s">
         <v>881</v>
       </c>
@@ -20575,7 +20586,7 @@
       </c>
       <c r="R141"/>
     </row>
-    <row r="142" spans="1:18" ht="15.75">
+    <row r="142" spans="1:18" ht="16">
       <c r="A142" s="12" t="s">
         <v>884</v>
       </c>
@@ -20614,7 +20625,7 @@
       </c>
       <c r="R142"/>
     </row>
-    <row r="143" spans="1:18" ht="15.75">
+    <row r="143" spans="1:18" ht="16">
       <c r="A143" s="12" t="s">
         <v>885</v>
       </c>
@@ -20653,7 +20664,7 @@
       </c>
       <c r="R143"/>
     </row>
-    <row r="144" spans="1:18" ht="15.75">
+    <row r="144" spans="1:18" ht="16">
       <c r="A144" s="12" t="s">
         <v>638</v>
       </c>
@@ -20689,7 +20700,7 @@
       </c>
       <c r="R144"/>
     </row>
-    <row r="145" spans="1:18" ht="15.75">
+    <row r="145" spans="1:18" ht="16">
       <c r="A145" s="12" t="s">
         <v>887</v>
       </c>
@@ -20725,7 +20736,7 @@
       </c>
       <c r="R145"/>
     </row>
-    <row r="146" spans="1:18" ht="15.75">
+    <row r="146" spans="1:18" ht="16">
       <c r="A146" s="12" t="s">
         <v>889</v>
       </c>
@@ -20761,7 +20772,7 @@
       </c>
       <c r="R146"/>
     </row>
-    <row r="147" spans="1:18" ht="15.75">
+    <row r="147" spans="1:18" ht="16">
       <c r="A147" s="12" t="s">
         <v>891</v>
       </c>
@@ -20797,7 +20808,7 @@
       </c>
       <c r="R147"/>
     </row>
-    <row r="148" spans="1:18" ht="15.75">
+    <row r="148" spans="1:18" ht="16">
       <c r="A148" s="12" t="s">
         <v>893</v>
       </c>
@@ -20833,7 +20844,7 @@
       </c>
       <c r="R148"/>
     </row>
-    <row r="149" spans="1:18" ht="15.75">
+    <row r="149" spans="1:18" ht="16">
       <c r="A149" s="12" t="s">
         <v>895</v>
       </c>
@@ -20869,7 +20880,7 @@
       </c>
       <c r="R149"/>
     </row>
-    <row r="150" spans="1:18" ht="15.75">
+    <row r="150" spans="1:18" ht="16">
       <c r="A150" s="12" t="s">
         <v>897</v>
       </c>
@@ -20908,7 +20919,7 @@
       </c>
       <c r="R150"/>
     </row>
-    <row r="151" spans="1:18" ht="15.75">
+    <row r="151" spans="1:18" ht="16">
       <c r="A151" s="12" t="s">
         <v>899</v>
       </c>
@@ -20947,7 +20958,7 @@
       </c>
       <c r="R151"/>
     </row>
-    <row r="152" spans="1:18" ht="15.75">
+    <row r="152" spans="1:18" ht="16">
       <c r="A152" s="12" t="s">
         <v>901</v>
       </c>
@@ -20983,7 +20994,7 @@
       </c>
       <c r="R152"/>
     </row>
-    <row r="153" spans="1:18" ht="15.75">
+    <row r="153" spans="1:18" ht="16">
       <c r="A153" s="12" t="s">
         <v>903</v>
       </c>
@@ -21013,7 +21024,7 @@
       </c>
       <c r="R153"/>
     </row>
-    <row r="154" spans="1:18" ht="15.75">
+    <row r="154" spans="1:18" ht="16">
       <c r="A154" s="12" t="s">
         <v>905</v>
       </c>
@@ -21043,7 +21054,7 @@
       </c>
       <c r="R154"/>
     </row>
-    <row r="155" spans="1:18" ht="15.75">
+    <row r="155" spans="1:18" ht="16">
       <c r="A155" s="12" t="s">
         <v>907</v>
       </c>
@@ -21073,7 +21084,7 @@
       </c>
       <c r="R155"/>
     </row>
-    <row r="156" spans="1:18" ht="15.75">
+    <row r="156" spans="1:18" ht="16">
       <c r="A156" s="12" t="s">
         <v>909</v>
       </c>
@@ -21103,7 +21114,7 @@
       </c>
       <c r="R156"/>
     </row>
-    <row r="157" spans="1:18" ht="15.75">
+    <row r="157" spans="1:18" ht="16">
       <c r="A157" s="12" t="s">
         <v>911</v>
       </c>
@@ -21133,7 +21144,7 @@
       </c>
       <c r="R157"/>
     </row>
-    <row r="158" spans="1:18" ht="15.75">
+    <row r="158" spans="1:18" ht="16">
       <c r="A158" s="12" t="s">
         <v>913</v>
       </c>
@@ -21163,7 +21174,7 @@
       </c>
       <c r="R158"/>
     </row>
-    <row r="159" spans="1:18" ht="15.75">
+    <row r="159" spans="1:18" ht="16">
       <c r="A159" s="12" t="s">
         <v>915</v>
       </c>
@@ -21193,7 +21204,7 @@
       </c>
       <c r="R159"/>
     </row>
-    <row r="160" spans="1:18" ht="15.75">
+    <row r="160" spans="1:18" ht="16">
       <c r="A160" s="12" t="s">
         <v>917</v>
       </c>
@@ -21223,7 +21234,7 @@
       </c>
       <c r="R160"/>
     </row>
-    <row r="161" spans="1:18" ht="15.75">
+    <row r="161" spans="1:18" ht="16">
       <c r="A161" s="12" t="s">
         <v>919</v>
       </c>
@@ -21253,7 +21264,7 @@
       </c>
       <c r="R161"/>
     </row>
-    <row r="162" spans="1:18" ht="15.75">
+    <row r="162" spans="1:18" ht="16">
       <c r="A162" s="12" t="s">
         <v>921</v>
       </c>
@@ -21283,7 +21294,7 @@
       </c>
       <c r="R162"/>
     </row>
-    <row r="163" spans="1:18" ht="15.75">
+    <row r="163" spans="1:18" ht="16">
       <c r="A163" s="12" t="s">
         <v>923</v>
       </c>
@@ -21313,7 +21324,7 @@
       </c>
       <c r="R163"/>
     </row>
-    <row r="164" spans="1:18" ht="15.75">
+    <row r="164" spans="1:18" ht="16">
       <c r="A164" s="12" t="s">
         <v>925</v>
       </c>
@@ -21343,7 +21354,7 @@
       </c>
       <c r="R164"/>
     </row>
-    <row r="165" spans="1:18" ht="15.75">
+    <row r="165" spans="1:18" ht="16">
       <c r="A165" s="12" t="s">
         <v>927</v>
       </c>
@@ -21373,7 +21384,7 @@
       </c>
       <c r="R165"/>
     </row>
-    <row r="166" spans="1:18" ht="15.75">
+    <row r="166" spans="1:18" ht="16">
       <c r="A166" s="12" t="s">
         <v>929</v>
       </c>
@@ -21403,7 +21414,7 @@
       </c>
       <c r="R166"/>
     </row>
-    <row r="167" spans="1:18" ht="15.75">
+    <row r="167" spans="1:18" ht="16">
       <c r="A167" s="12" t="s">
         <v>931</v>
       </c>
@@ -21433,7 +21444,7 @@
       </c>
       <c r="R167"/>
     </row>
-    <row r="168" spans="1:18" ht="15.75">
+    <row r="168" spans="1:18" ht="16">
       <c r="A168" s="12" t="s">
         <v>933</v>
       </c>
@@ -21463,7 +21474,7 @@
       </c>
       <c r="R168"/>
     </row>
-    <row r="169" spans="1:18" ht="15.75">
+    <row r="169" spans="1:18" ht="16">
       <c r="A169" s="12" t="s">
         <v>935</v>
       </c>
@@ -21493,7 +21504,7 @@
       </c>
       <c r="R169"/>
     </row>
-    <row r="170" spans="1:18" ht="15.75">
+    <row r="170" spans="1:18" ht="16">
       <c r="A170" s="12" t="s">
         <v>937</v>
       </c>
@@ -21523,7 +21534,7 @@
       </c>
       <c r="R170"/>
     </row>
-    <row r="171" spans="1:18" ht="15.75">
+    <row r="171" spans="1:18" ht="16">
       <c r="A171" s="12" t="s">
         <v>606</v>
       </c>
@@ -21553,7 +21564,7 @@
       </c>
       <c r="R171"/>
     </row>
-    <row r="172" spans="1:18" ht="15.75">
+    <row r="172" spans="1:18" ht="16">
       <c r="A172" s="12" t="s">
         <v>598</v>
       </c>
@@ -21595,7 +21606,7 @@
       </c>
       <c r="R172"/>
     </row>
-    <row r="173" spans="1:18" ht="15.75">
+    <row r="173" spans="1:18" ht="16">
       <c r="A173" s="12" t="s">
         <v>597</v>
       </c>
@@ -21637,7 +21648,7 @@
       </c>
       <c r="R173"/>
     </row>
-    <row r="174" spans="1:18" ht="15.75">
+    <row r="174" spans="1:18" ht="16">
       <c r="A174" s="12" t="s">
         <v>943</v>
       </c>
@@ -21679,7 +21690,7 @@
       </c>
       <c r="R174"/>
     </row>
-    <row r="175" spans="1:18" ht="15.75">
+    <row r="175" spans="1:18" ht="16">
       <c r="A175" s="12" t="s">
         <v>945</v>
       </c>
@@ -21721,7 +21732,7 @@
       </c>
       <c r="R175"/>
     </row>
-    <row r="176" spans="1:18" ht="15.75">
+    <row r="176" spans="1:18" ht="16">
       <c r="A176" s="12" t="s">
         <v>37</v>
       </c>
@@ -21763,7 +21774,7 @@
       </c>
       <c r="R176"/>
     </row>
-    <row r="177" spans="1:18" ht="15.75">
+    <row r="177" spans="1:18" ht="16">
       <c r="A177" s="12" t="s">
         <v>950</v>
       </c>
@@ -21805,7 +21816,7 @@
       </c>
       <c r="R177"/>
     </row>
-    <row r="178" spans="1:18" ht="15.75">
+    <row r="178" spans="1:18" ht="16">
       <c r="A178" s="12" t="s">
         <v>955</v>
       </c>
@@ -21847,7 +21858,7 @@
       </c>
       <c r="R178"/>
     </row>
-    <row r="179" spans="1:18" ht="15.75">
+    <row r="179" spans="1:18" ht="16">
       <c r="A179" s="12" t="s">
         <v>957</v>
       </c>
@@ -21889,7 +21900,7 @@
       </c>
       <c r="R179"/>
     </row>
-    <row r="180" spans="1:18" ht="15.75">
+    <row r="180" spans="1:18" ht="16">
       <c r="A180" s="12" t="s">
         <v>959</v>
       </c>
@@ -21931,7 +21942,7 @@
       </c>
       <c r="R180"/>
     </row>
-    <row r="181" spans="1:18" ht="15.75">
+    <row r="181" spans="1:18" ht="16">
       <c r="A181" s="12" t="s">
         <v>44</v>
       </c>
@@ -21973,7 +21984,7 @@
       </c>
       <c r="R181"/>
     </row>
-    <row r="182" spans="1:18" ht="15.75">
+    <row r="182" spans="1:18" ht="16">
       <c r="A182" s="12" t="s">
         <v>963</v>
       </c>
@@ -22015,7 +22026,7 @@
       </c>
       <c r="R182"/>
     </row>
-    <row r="183" spans="1:18" ht="15.75">
+    <row r="183" spans="1:18" ht="16">
       <c r="A183" s="12" t="s">
         <v>965</v>
       </c>
@@ -22057,7 +22068,7 @@
       </c>
       <c r="R183"/>
     </row>
-    <row r="184" spans="1:18" ht="15.75">
+    <row r="184" spans="1:18" ht="16">
       <c r="A184" s="12" t="s">
         <v>40</v>
       </c>
@@ -22099,7 +22110,7 @@
       </c>
       <c r="R184"/>
     </row>
-    <row r="185" spans="1:18" ht="15.75">
+    <row r="185" spans="1:18" ht="16">
       <c r="A185" s="12" t="s">
         <v>967</v>
       </c>
@@ -22141,7 +22152,7 @@
       </c>
       <c r="R185"/>
     </row>
-    <row r="186" spans="1:18" ht="15.75">
+    <row r="186" spans="1:18" ht="16">
       <c r="A186" s="12" t="s">
         <v>969</v>
       </c>
@@ -22183,7 +22194,7 @@
       </c>
       <c r="R186"/>
     </row>
-    <row r="187" spans="1:18" ht="15.75">
+    <row r="187" spans="1:18" ht="16">
       <c r="A187" s="12" t="s">
         <v>971</v>
       </c>
@@ -22225,7 +22236,7 @@
       </c>
       <c r="R187"/>
     </row>
-    <row r="188" spans="1:18" ht="15.75">
+    <row r="188" spans="1:18" ht="16">
       <c r="A188" s="12" t="s">
         <v>973</v>
       </c>
@@ -22267,7 +22278,7 @@
       </c>
       <c r="R188"/>
     </row>
-    <row r="189" spans="1:18" ht="15.75">
+    <row r="189" spans="1:18" ht="16">
       <c r="A189" s="12" t="s">
         <v>975</v>
       </c>
@@ -22309,7 +22320,7 @@
       </c>
       <c r="R189"/>
     </row>
-    <row r="190" spans="1:18" ht="15.75">
+    <row r="190" spans="1:18" ht="16">
       <c r="A190" s="12" t="s">
         <v>977</v>
       </c>
@@ -22351,7 +22362,7 @@
       </c>
       <c r="R190"/>
     </row>
-    <row r="191" spans="1:18" ht="15.75">
+    <row r="191" spans="1:18" ht="16">
       <c r="A191" s="12" t="s">
         <v>979</v>
       </c>
@@ -22393,7 +22404,7 @@
       </c>
       <c r="R191"/>
     </row>
-    <row r="192" spans="1:18" ht="15.75">
+    <row r="192" spans="1:18" ht="16">
       <c r="A192" s="12" t="s">
         <v>981</v>
       </c>
@@ -22435,7 +22446,7 @@
       </c>
       <c r="R192"/>
     </row>
-    <row r="193" spans="1:18" ht="15.75">
+    <row r="193" spans="1:18" ht="16">
       <c r="A193" s="12" t="s">
         <v>51</v>
       </c>
@@ -22477,7 +22488,7 @@
       </c>
       <c r="R193"/>
     </row>
-    <row r="194" spans="1:18" ht="15.75">
+    <row r="194" spans="1:18" ht="16">
       <c r="A194" s="12" t="s">
         <v>983</v>
       </c>
@@ -22519,7 +22530,7 @@
       </c>
       <c r="R194"/>
     </row>
-    <row r="195" spans="1:18" ht="15.75">
+    <row r="195" spans="1:18" ht="16">
       <c r="A195" s="12" t="s">
         <v>985</v>
       </c>
@@ -22561,7 +22572,7 @@
       </c>
       <c r="R195"/>
     </row>
-    <row r="196" spans="1:18" ht="15.75">
+    <row r="196" spans="1:18" ht="16">
       <c r="A196" s="12" t="s">
         <v>46</v>
       </c>
@@ -22603,7 +22614,7 @@
       </c>
       <c r="R196"/>
     </row>
-    <row r="197" spans="1:18" ht="15.75">
+    <row r="197" spans="1:18" ht="16">
       <c r="A197" s="12" t="s">
         <v>988</v>
       </c>
@@ -22645,7 +22656,7 @@
       </c>
       <c r="R197"/>
     </row>
-    <row r="198" spans="1:18" ht="15.75">
+    <row r="198" spans="1:18" ht="16">
       <c r="A198" s="12" t="s">
         <v>990</v>
       </c>
@@ -22687,7 +22698,7 @@
       </c>
       <c r="R198"/>
     </row>
-    <row r="199" spans="1:18" ht="15.75">
+    <row r="199" spans="1:18" ht="16">
       <c r="A199" s="12" t="s">
         <v>992</v>
       </c>
@@ -22729,7 +22740,7 @@
       </c>
       <c r="R199"/>
     </row>
-    <row r="200" spans="1:18" ht="15.75">
+    <row r="200" spans="1:18" ht="16">
       <c r="A200" s="12" t="s">
         <v>409</v>
       </c>
@@ -22771,7 +22782,7 @@
       </c>
       <c r="R200"/>
     </row>
-    <row r="201" spans="1:18" ht="15.75">
+    <row r="201" spans="1:18" ht="16">
       <c r="A201" s="12" t="s">
         <v>995</v>
       </c>
@@ -22813,7 +22824,7 @@
       </c>
       <c r="R201"/>
     </row>
-    <row r="202" spans="1:18" ht="15.75">
+    <row r="202" spans="1:18" ht="16">
       <c r="A202" s="12" t="s">
         <v>997</v>
       </c>
@@ -22855,7 +22866,7 @@
       </c>
       <c r="R202"/>
     </row>
-    <row r="203" spans="1:18" ht="15.75">
+    <row r="203" spans="1:18" ht="16">
       <c r="A203" s="12" t="s">
         <v>999</v>
       </c>
@@ -22897,7 +22908,7 @@
       </c>
       <c r="R203"/>
     </row>
-    <row r="204" spans="1:18" ht="15.75">
+    <row r="204" spans="1:18" ht="16">
       <c r="A204" s="12" t="s">
         <v>53</v>
       </c>
@@ -22939,7 +22950,7 @@
       </c>
       <c r="R204"/>
     </row>
-    <row r="205" spans="1:18" ht="15.75">
+    <row r="205" spans="1:18" ht="16">
       <c r="A205" s="12" t="s">
         <v>63</v>
       </c>
@@ -22981,7 +22992,7 @@
       </c>
       <c r="R205"/>
     </row>
-    <row r="206" spans="1:18" ht="15.75">
+    <row r="206" spans="1:18" ht="16">
       <c r="A206" s="12" t="s">
         <v>1002</v>
       </c>
@@ -23023,7 +23034,7 @@
       </c>
       <c r="R206"/>
     </row>
-    <row r="207" spans="1:18" ht="15.75">
+    <row r="207" spans="1:18" ht="16">
       <c r="A207" s="12" t="s">
         <v>1004</v>
       </c>
@@ -23065,7 +23076,7 @@
       </c>
       <c r="R207"/>
     </row>
-    <row r="208" spans="1:18" ht="15.75">
+    <row r="208" spans="1:18" ht="16">
       <c r="A208" s="12" t="s">
         <v>1006</v>
       </c>
@@ -23107,7 +23118,7 @@
       </c>
       <c r="R208"/>
     </row>
-    <row r="209" spans="1:18" ht="15.75">
+    <row r="209" spans="1:18" ht="16">
       <c r="A209" s="12" t="s">
         <v>1008</v>
       </c>
@@ -23149,7 +23160,7 @@
       </c>
       <c r="R209"/>
     </row>
-    <row r="210" spans="1:18" ht="15.75">
+    <row r="210" spans="1:18" ht="16">
       <c r="A210" s="12" t="s">
         <v>1010</v>
       </c>
@@ -23191,7 +23202,7 @@
       </c>
       <c r="R210"/>
     </row>
-    <row r="211" spans="1:18" ht="15.75">
+    <row r="211" spans="1:18" ht="16">
       <c r="A211" s="12" t="s">
         <v>56</v>
       </c>
@@ -23233,7 +23244,7 @@
       </c>
       <c r="R211"/>
     </row>
-    <row r="212" spans="1:18" ht="15.75">
+    <row r="212" spans="1:18" ht="16">
       <c r="A212" s="12" t="s">
         <v>59</v>
       </c>
@@ -23275,7 +23286,7 @@
       </c>
       <c r="R212"/>
     </row>
-    <row r="213" spans="1:18" ht="15.75">
+    <row r="213" spans="1:18" ht="16">
       <c r="A213" s="12" t="s">
         <v>594</v>
       </c>
@@ -23317,7 +23328,7 @@
       </c>
       <c r="R213"/>
     </row>
-    <row r="214" spans="1:18" ht="15.75">
+    <row r="214" spans="1:18" ht="16">
       <c r="A214" s="12" t="s">
         <v>1012</v>
       </c>
@@ -23359,7 +23370,7 @@
       </c>
       <c r="R214"/>
     </row>
-    <row r="215" spans="1:18" ht="15.75">
+    <row r="215" spans="1:18" ht="16">
       <c r="A215" s="12" t="s">
         <v>1014</v>
       </c>
@@ -23401,7 +23412,7 @@
       </c>
       <c r="R215"/>
     </row>
-    <row r="216" spans="1:18" ht="15.75">
+    <row r="216" spans="1:18" ht="16">
       <c r="A216" s="12" t="s">
         <v>1016</v>
       </c>
@@ -23443,7 +23454,7 @@
       </c>
       <c r="R216"/>
     </row>
-    <row r="217" spans="1:18" ht="15.75">
+    <row r="217" spans="1:18" ht="16">
       <c r="A217" s="12" t="s">
         <v>1018</v>
       </c>
@@ -23485,7 +23496,7 @@
       </c>
       <c r="R217"/>
     </row>
-    <row r="218" spans="1:18" ht="15.75">
+    <row r="218" spans="1:18" ht="16">
       <c r="A218" s="12" t="s">
         <v>1020</v>
       </c>
@@ -23527,7 +23538,7 @@
       </c>
       <c r="R218"/>
     </row>
-    <row r="219" spans="1:18" ht="15.75">
+    <row r="219" spans="1:18" ht="16">
       <c r="A219" s="12" t="s">
         <v>1021</v>
       </c>
@@ -23569,7 +23580,7 @@
       </c>
       <c r="R219"/>
     </row>
-    <row r="220" spans="1:18" ht="15.75">
+    <row r="220" spans="1:18" ht="16">
       <c r="A220" s="12" t="s">
         <v>69</v>
       </c>
@@ -23611,7 +23622,7 @@
       </c>
       <c r="R220"/>
     </row>
-    <row r="221" spans="1:18" ht="15.75">
+    <row r="221" spans="1:18" ht="16">
       <c r="A221" s="12" t="s">
         <v>1023</v>
       </c>
@@ -23653,7 +23664,7 @@
       </c>
       <c r="R221"/>
     </row>
-    <row r="222" spans="1:18" ht="15.75">
+    <row r="222" spans="1:18" ht="16">
       <c r="A222" s="12" t="s">
         <v>71</v>
       </c>
@@ -23695,7 +23706,7 @@
       </c>
       <c r="R222"/>
     </row>
-    <row r="223" spans="1:18" ht="15.75">
+    <row r="223" spans="1:18" ht="16">
       <c r="A223" s="12" t="s">
         <v>65</v>
       </c>
@@ -23737,7 +23748,7 @@
       </c>
       <c r="R223"/>
     </row>
-    <row r="224" spans="1:18" ht="15.75">
+    <row r="224" spans="1:18" ht="16">
       <c r="A224" s="12" t="s">
         <v>1027</v>
       </c>
@@ -23779,7 +23790,7 @@
       </c>
       <c r="R224"/>
     </row>
-    <row r="225" spans="1:18" ht="15.75">
+    <row r="225" spans="1:18" ht="16">
       <c r="A225" s="12" t="s">
         <v>73</v>
       </c>
@@ -23821,7 +23832,7 @@
       </c>
       <c r="R225"/>
     </row>
-    <row r="226" spans="1:18" ht="15.75">
+    <row r="226" spans="1:18" ht="16">
       <c r="A226" s="12" t="s">
         <v>1029</v>
       </c>
@@ -23863,7 +23874,7 @@
       </c>
       <c r="R226"/>
     </row>
-    <row r="227" spans="1:18" ht="15.75">
+    <row r="227" spans="1:18" ht="16">
       <c r="A227" s="12" t="s">
         <v>595</v>
       </c>
@@ -23905,7 +23916,7 @@
       </c>
       <c r="R227"/>
     </row>
-    <row r="228" spans="1:18" ht="15.75">
+    <row r="228" spans="1:18" ht="16">
       <c r="A228" s="12" t="s">
         <v>89</v>
       </c>
@@ -23947,7 +23958,7 @@
       </c>
       <c r="R228"/>
     </row>
-    <row r="229" spans="1:18" ht="15.75">
+    <row r="229" spans="1:18" ht="16">
       <c r="A229" s="12" t="s">
         <v>93</v>
       </c>
@@ -23989,7 +24000,7 @@
       </c>
       <c r="R229"/>
     </row>
-    <row r="230" spans="1:18" ht="15.75">
+    <row r="230" spans="1:18" ht="16">
       <c r="A230" s="12" t="s">
         <v>79</v>
       </c>
@@ -24031,7 +24042,7 @@
       </c>
       <c r="R230"/>
     </row>
-    <row r="231" spans="1:18" ht="15.75">
+    <row r="231" spans="1:18" ht="16">
       <c r="A231" s="12" t="s">
         <v>1034</v>
       </c>
@@ -24073,7 +24084,7 @@
       </c>
       <c r="R231"/>
     </row>
-    <row r="232" spans="1:18" ht="15.75">
+    <row r="232" spans="1:18" ht="16">
       <c r="A232" s="12" t="s">
         <v>1036</v>
       </c>
@@ -24115,7 +24126,7 @@
       </c>
       <c r="R232"/>
     </row>
-    <row r="233" spans="1:18" ht="15.75">
+    <row r="233" spans="1:18" ht="16">
       <c r="A233" s="12" t="s">
         <v>1038</v>
       </c>
@@ -24157,7 +24168,7 @@
       </c>
       <c r="R233"/>
     </row>
-    <row r="234" spans="1:18" ht="15.75">
+    <row r="234" spans="1:18" ht="16">
       <c r="A234" s="12" t="s">
         <v>1040</v>
       </c>
@@ -24199,7 +24210,7 @@
       </c>
       <c r="R234"/>
     </row>
-    <row r="235" spans="1:18" ht="15.75">
+    <row r="235" spans="1:18" ht="16">
       <c r="A235" s="12" t="s">
         <v>1042</v>
       </c>
@@ -24241,7 +24252,7 @@
       </c>
       <c r="R235"/>
     </row>
-    <row r="236" spans="1:18" ht="15.75">
+    <row r="236" spans="1:18" ht="16">
       <c r="A236" s="12" t="s">
         <v>1044</v>
       </c>
@@ -24283,7 +24294,7 @@
       </c>
       <c r="R236"/>
     </row>
-    <row r="237" spans="1:18" ht="15.75">
+    <row r="237" spans="1:18" ht="16">
       <c r="A237" s="12" t="s">
         <v>76</v>
       </c>
@@ -24325,7 +24336,7 @@
       </c>
       <c r="R237"/>
     </row>
-    <row r="238" spans="1:18" ht="15.75">
+    <row r="238" spans="1:18" ht="16">
       <c r="A238" s="12" t="s">
         <v>81</v>
       </c>
@@ -24367,7 +24378,7 @@
       </c>
       <c r="R238"/>
     </row>
-    <row r="239" spans="1:18" ht="15.75">
+    <row r="239" spans="1:18" ht="16">
       <c r="A239" s="12" t="s">
         <v>97</v>
       </c>
@@ -24409,7 +24420,7 @@
       </c>
       <c r="R239"/>
     </row>
-    <row r="240" spans="1:18" ht="15.75">
+    <row r="240" spans="1:18" ht="16">
       <c r="A240" s="12" t="s">
         <v>1046</v>
       </c>
@@ -24451,7 +24462,7 @@
       </c>
       <c r="R240"/>
     </row>
-    <row r="241" spans="1:18" ht="15.75">
+    <row r="241" spans="1:18" ht="16">
       <c r="A241" s="12" t="s">
         <v>1048</v>
       </c>
@@ -24493,7 +24504,7 @@
       </c>
       <c r="R241"/>
     </row>
-    <row r="242" spans="1:18" ht="15.75">
+    <row r="242" spans="1:18" ht="16">
       <c r="A242" s="12" t="s">
         <v>85</v>
       </c>
@@ -24535,7 +24546,7 @@
       </c>
       <c r="R242"/>
     </row>
-    <row r="243" spans="1:18" ht="15.75">
+    <row r="243" spans="1:18" ht="16">
       <c r="A243" s="12" t="s">
         <v>1050</v>
       </c>
@@ -24577,7 +24588,7 @@
       </c>
       <c r="R243"/>
     </row>
-    <row r="244" spans="1:18" ht="15.75">
+    <row r="244" spans="1:18" ht="16">
       <c r="A244" s="12" t="s">
         <v>1052</v>
       </c>
@@ -24619,7 +24630,7 @@
       </c>
       <c r="R244"/>
     </row>
-    <row r="245" spans="1:18" ht="15.75">
+    <row r="245" spans="1:18" ht="16">
       <c r="A245" s="12" t="s">
         <v>1054</v>
       </c>
@@ -24661,7 +24672,7 @@
       </c>
       <c r="R245"/>
     </row>
-    <row r="246" spans="1:18" ht="15.75">
+    <row r="246" spans="1:18" ht="16">
       <c r="A246" s="12" t="s">
         <v>1056</v>
       </c>
@@ -24703,7 +24714,7 @@
       </c>
       <c r="R246"/>
     </row>
-    <row r="247" spans="1:18" ht="15.75">
+    <row r="247" spans="1:18" ht="16">
       <c r="A247" s="12" t="s">
         <v>1058</v>
       </c>
@@ -24745,7 +24756,7 @@
       </c>
       <c r="R247"/>
     </row>
-    <row r="248" spans="1:18" ht="15.75">
+    <row r="248" spans="1:18" ht="16">
       <c r="A248" s="12" t="s">
         <v>1060</v>
       </c>
@@ -24787,7 +24798,7 @@
       </c>
       <c r="R248"/>
     </row>
-    <row r="249" spans="1:18" ht="15.75">
+    <row r="249" spans="1:18" ht="16">
       <c r="A249" s="12" t="s">
         <v>1062</v>
       </c>
@@ -24829,7 +24840,7 @@
       </c>
       <c r="R249"/>
     </row>
-    <row r="250" spans="1:18" ht="15.75">
+    <row r="250" spans="1:18" ht="16">
       <c r="A250" s="12" t="s">
         <v>1064</v>
       </c>
@@ -24871,7 +24882,7 @@
       </c>
       <c r="R250"/>
     </row>
-    <row r="251" spans="1:18" ht="15.75">
+    <row r="251" spans="1:18" ht="16">
       <c r="A251" s="12" t="s">
         <v>1066</v>
       </c>
@@ -24913,7 +24924,7 @@
       </c>
       <c r="R251"/>
     </row>
-    <row r="252" spans="1:18" ht="15.75">
+    <row r="252" spans="1:18" ht="16">
       <c r="A252" s="12" t="s">
         <v>99</v>
       </c>
@@ -24955,7 +24966,7 @@
       </c>
       <c r="R252"/>
     </row>
-    <row r="253" spans="1:18" ht="15.75">
+    <row r="253" spans="1:18" ht="16">
       <c r="A253" s="12" t="s">
         <v>91</v>
       </c>
@@ -24997,7 +25008,7 @@
       </c>
       <c r="R253"/>
     </row>
-    <row r="254" spans="1:18" ht="15.75">
+    <row r="254" spans="1:18" ht="16">
       <c r="A254" s="12" t="s">
         <v>1068</v>
       </c>
@@ -25039,7 +25050,7 @@
       </c>
       <c r="R254"/>
     </row>
-    <row r="255" spans="1:18" ht="15.75">
+    <row r="255" spans="1:18" ht="16">
       <c r="A255" s="12" t="s">
         <v>87</v>
       </c>
@@ -25081,7 +25092,7 @@
       </c>
       <c r="R255"/>
     </row>
-    <row r="256" spans="1:18" ht="15.75">
+    <row r="256" spans="1:18" ht="16">
       <c r="A256" s="12" t="s">
         <v>83</v>
       </c>
@@ -25123,7 +25134,7 @@
       </c>
       <c r="R256"/>
     </row>
-    <row r="257" spans="1:18" ht="15.75">
+    <row r="257" spans="1:18" ht="16">
       <c r="A257" s="12" t="s">
         <v>1070</v>
       </c>
@@ -25165,7 +25176,7 @@
       </c>
       <c r="R257"/>
     </row>
-    <row r="258" spans="1:18" ht="15.75">
+    <row r="258" spans="1:18" ht="16">
       <c r="A258" s="12" t="s">
         <v>592</v>
       </c>
@@ -25207,7 +25218,7 @@
       </c>
       <c r="R258"/>
     </row>
-    <row r="259" spans="1:18" ht="15.75">
+    <row r="259" spans="1:18" ht="16">
       <c r="A259" s="12" t="s">
         <v>1073</v>
       </c>
@@ -25249,7 +25260,7 @@
       </c>
       <c r="R259"/>
     </row>
-    <row r="260" spans="1:18" ht="15.75">
+    <row r="260" spans="1:18" ht="16">
       <c r="A260" s="12" t="s">
         <v>1075</v>
       </c>
@@ -25291,7 +25302,7 @@
       </c>
       <c r="R260"/>
     </row>
-    <row r="261" spans="1:18" ht="15.75">
+    <row r="261" spans="1:18" ht="16">
       <c r="A261" s="12" t="s">
         <v>103</v>
       </c>
@@ -25333,7 +25344,7 @@
       </c>
       <c r="R261"/>
     </row>
-    <row r="262" spans="1:18" ht="15.75">
+    <row r="262" spans="1:18" ht="16">
       <c r="A262" s="12" t="s">
         <v>101</v>
       </c>
@@ -25375,7 +25386,7 @@
       </c>
       <c r="R262"/>
     </row>
-    <row r="263" spans="1:18" ht="15.75">
+    <row r="263" spans="1:18" ht="16">
       <c r="A263" s="12" t="s">
         <v>105</v>
       </c>
@@ -25417,7 +25428,7 @@
       </c>
       <c r="R263"/>
     </row>
-    <row r="264" spans="1:18" ht="15.75">
+    <row r="264" spans="1:18" ht="16">
       <c r="A264" s="12" t="s">
         <v>1079</v>
       </c>
@@ -25459,7 +25470,7 @@
       </c>
       <c r="R264"/>
     </row>
-    <row r="265" spans="1:18" ht="15.75">
+    <row r="265" spans="1:18" ht="16">
       <c r="A265" s="12" t="s">
         <v>1081</v>
       </c>
@@ -25501,7 +25512,7 @@
       </c>
       <c r="R265"/>
     </row>
-    <row r="266" spans="1:18" ht="15.75">
+    <row r="266" spans="1:18" ht="16">
       <c r="A266" s="12" t="s">
         <v>107</v>
       </c>
@@ -25543,7 +25554,7 @@
       </c>
       <c r="R266"/>
     </row>
-    <row r="267" spans="1:18" ht="15.75">
+    <row r="267" spans="1:18" ht="16">
       <c r="A267" s="12" t="s">
         <v>1083</v>
       </c>
@@ -25585,7 +25596,7 @@
       </c>
       <c r="R267"/>
     </row>
-    <row r="268" spans="1:18" ht="15.75">
+    <row r="268" spans="1:18" ht="16">
       <c r="A268" s="12" t="s">
         <v>600</v>
       </c>
@@ -25627,7 +25638,7 @@
       </c>
       <c r="R268"/>
     </row>
-    <row r="269" spans="1:18" ht="15.75">
+    <row r="269" spans="1:18" ht="16">
       <c r="A269" s="12" t="s">
         <v>1086</v>
       </c>
@@ -25669,7 +25680,7 @@
       </c>
       <c r="R269"/>
     </row>
-    <row r="270" spans="1:18" ht="15.75">
+    <row r="270" spans="1:18" ht="16">
       <c r="A270" s="12" t="s">
         <v>111</v>
       </c>
@@ -25711,7 +25722,7 @@
       </c>
       <c r="R270"/>
     </row>
-    <row r="271" spans="1:18" ht="15.75">
+    <row r="271" spans="1:18" ht="16">
       <c r="A271" s="12" t="s">
         <v>109</v>
       </c>
@@ -25753,7 +25764,7 @@
       </c>
       <c r="R271"/>
     </row>
-    <row r="272" spans="1:18" ht="15.75">
+    <row r="272" spans="1:18" ht="16">
       <c r="A272" s="12" t="s">
         <v>115</v>
       </c>
@@ -25795,7 +25806,7 @@
       </c>
       <c r="R272"/>
     </row>
-    <row r="273" spans="1:18" ht="15.75">
+    <row r="273" spans="1:18" ht="16">
       <c r="A273" s="12" t="s">
         <v>1088</v>
       </c>
@@ -25837,7 +25848,7 @@
       </c>
       <c r="R273"/>
     </row>
-    <row r="274" spans="1:18" ht="15.75">
+    <row r="274" spans="1:18" ht="16">
       <c r="A274" s="12" t="s">
         <v>1090</v>
       </c>
@@ -25879,7 +25890,7 @@
       </c>
       <c r="R274"/>
     </row>
-    <row r="275" spans="1:18" ht="15.75">
+    <row r="275" spans="1:18" ht="16">
       <c r="A275" s="12" t="s">
         <v>596</v>
       </c>
@@ -25921,7 +25932,7 @@
       </c>
       <c r="R275"/>
     </row>
-    <row r="276" spans="1:18" ht="15.75">
+    <row r="276" spans="1:18" ht="16">
       <c r="A276" s="12" t="s">
         <v>599</v>
       </c>
@@ -25963,7 +25974,7 @@
       </c>
       <c r="R276"/>
     </row>
-    <row r="277" spans="1:18" ht="15.75">
+    <row r="277" spans="1:18" ht="16">
       <c r="A277" s="12" t="s">
         <v>113</v>
       </c>
@@ -26005,7 +26016,7 @@
       </c>
       <c r="R277"/>
     </row>
-    <row r="278" spans="1:18" ht="15.75">
+    <row r="278" spans="1:18" ht="16">
       <c r="A278" s="12" t="s">
         <v>603</v>
       </c>
@@ -26047,7 +26058,7 @@
       </c>
       <c r="R278"/>
     </row>
-    <row r="279" spans="1:18" ht="15.75">
+    <row r="279" spans="1:18" ht="16">
       <c r="A279" s="12" t="s">
         <v>1095</v>
       </c>
@@ -26089,7 +26100,7 @@
       </c>
       <c r="R279"/>
     </row>
-    <row r="280" spans="1:18" ht="15.75">
+    <row r="280" spans="1:18" ht="16">
       <c r="A280" s="12" t="s">
         <v>119</v>
       </c>
@@ -26131,7 +26142,7 @@
       </c>
       <c r="R280"/>
     </row>
-    <row r="281" spans="1:18" ht="15.75">
+    <row r="281" spans="1:18" ht="16">
       <c r="A281" s="12" t="s">
         <v>1097</v>
       </c>
@@ -26173,7 +26184,7 @@
       </c>
       <c r="R281"/>
     </row>
-    <row r="282" spans="1:18" ht="15.75">
+    <row r="282" spans="1:18" ht="16">
       <c r="A282" s="12" t="s">
         <v>1099</v>
       </c>
@@ -26215,7 +26226,7 @@
       </c>
       <c r="R282"/>
     </row>
-    <row r="283" spans="1:18" ht="15.75">
+    <row r="283" spans="1:18" ht="16">
       <c r="A283" s="12" t="s">
         <v>1101</v>
       </c>
@@ -26257,7 +26268,7 @@
       </c>
       <c r="R283"/>
     </row>
-    <row r="284" spans="1:18" ht="15.75">
+    <row r="284" spans="1:18" ht="16">
       <c r="A284" s="12" t="s">
         <v>1103</v>
       </c>
@@ -26299,7 +26310,7 @@
       </c>
       <c r="R284"/>
     </row>
-    <row r="285" spans="1:18" ht="15.75">
+    <row r="285" spans="1:18" ht="16">
       <c r="A285" s="12" t="s">
         <v>121</v>
       </c>
@@ -26341,7 +26352,7 @@
       </c>
       <c r="R285"/>
     </row>
-    <row r="286" spans="1:18" ht="15.75">
+    <row r="286" spans="1:18" ht="16">
       <c r="A286" s="12" t="s">
         <v>127</v>
       </c>
@@ -26383,7 +26394,7 @@
       </c>
       <c r="R286"/>
     </row>
-    <row r="287" spans="1:18" ht="15.75">
+    <row r="287" spans="1:18" ht="16">
       <c r="A287" s="12" t="s">
         <v>125</v>
       </c>
@@ -26425,7 +26436,7 @@
       </c>
       <c r="R287"/>
     </row>
-    <row r="288" spans="1:18" ht="15.75">
+    <row r="288" spans="1:18" ht="16">
       <c r="A288" s="12" t="s">
         <v>129</v>
       </c>
@@ -26467,7 +26478,7 @@
       </c>
       <c r="R288"/>
     </row>
-    <row r="289" spans="1:18" ht="15.75">
+    <row r="289" spans="1:18" ht="16">
       <c r="A289" s="12" t="s">
         <v>135</v>
       </c>
@@ -26509,7 +26520,7 @@
       </c>
       <c r="R289"/>
     </row>
-    <row r="290" spans="1:18" ht="15.75">
+    <row r="290" spans="1:18" ht="16">
       <c r="A290" s="12" t="s">
         <v>133</v>
       </c>
@@ -26551,7 +26562,7 @@
       </c>
       <c r="R290"/>
     </row>
-    <row r="291" spans="1:18" ht="15.75">
+    <row r="291" spans="1:18" ht="16">
       <c r="A291" s="12" t="s">
         <v>137</v>
       </c>
@@ -26593,7 +26604,7 @@
       </c>
       <c r="R291"/>
     </row>
-    <row r="292" spans="1:18" ht="15.75">
+    <row r="292" spans="1:18" ht="16">
       <c r="A292" s="12" t="s">
         <v>1107</v>
       </c>
@@ -26635,7 +26646,7 @@
       </c>
       <c r="R292"/>
     </row>
-    <row r="293" spans="1:18" ht="15.75">
+    <row r="293" spans="1:18" ht="16">
       <c r="A293" s="12" t="s">
         <v>1109</v>
       </c>
@@ -26677,7 +26688,7 @@
       </c>
       <c r="R293"/>
     </row>
-    <row r="294" spans="1:18" ht="15.75">
+    <row r="294" spans="1:18" ht="16">
       <c r="A294" s="12" t="s">
         <v>139</v>
       </c>
@@ -26719,7 +26730,7 @@
       </c>
       <c r="R294"/>
     </row>
-    <row r="295" spans="1:18" ht="15.75">
+    <row r="295" spans="1:18" ht="16">
       <c r="A295" s="12" t="s">
         <v>131</v>
       </c>
@@ -26761,7 +26772,7 @@
       </c>
       <c r="R295"/>
     </row>
-    <row r="296" spans="1:18" ht="15.75">
+    <row r="296" spans="1:18" ht="16">
       <c r="A296" s="12" t="s">
         <v>505</v>
       </c>
@@ -26803,7 +26814,7 @@
       </c>
       <c r="R296"/>
     </row>
-    <row r="297" spans="1:18" ht="15.75">
+    <row r="297" spans="1:18" ht="16">
       <c r="A297" s="12" t="s">
         <v>145</v>
       </c>
@@ -26845,7 +26856,7 @@
       </c>
       <c r="R297"/>
     </row>
-    <row r="298" spans="1:18" ht="15.75">
+    <row r="298" spans="1:18" ht="16">
       <c r="A298" s="12" t="s">
         <v>503</v>
       </c>
@@ -26887,7 +26898,7 @@
       </c>
       <c r="R298"/>
     </row>
-    <row r="299" spans="1:18" ht="15.75">
+    <row r="299" spans="1:18" ht="16">
       <c r="A299" s="12" t="s">
         <v>156</v>
       </c>
@@ -26929,7 +26940,7 @@
       </c>
       <c r="R299"/>
     </row>
-    <row r="300" spans="1:18" ht="15.75">
+    <row r="300" spans="1:18" ht="16">
       <c r="A300" s="12" t="s">
         <v>150</v>
       </c>
@@ -26971,7 +26982,7 @@
       </c>
       <c r="R300"/>
     </row>
-    <row r="301" spans="1:18" ht="15.75">
+    <row r="301" spans="1:18" ht="16">
       <c r="A301" s="12" t="s">
         <v>1111</v>
       </c>
@@ -27013,7 +27024,7 @@
       </c>
       <c r="R301"/>
     </row>
-    <row r="302" spans="1:18" ht="15.75">
+    <row r="302" spans="1:18" ht="16">
       <c r="A302" s="12" t="s">
         <v>1113</v>
       </c>
@@ -27055,7 +27066,7 @@
       </c>
       <c r="R302"/>
     </row>
-    <row r="303" spans="1:18" ht="15.75">
+    <row r="303" spans="1:18" ht="16">
       <c r="A303" s="12" t="s">
         <v>141</v>
       </c>
@@ -27097,7 +27108,7 @@
       </c>
       <c r="R303"/>
     </row>
-    <row r="304" spans="1:18" ht="15.75">
+    <row r="304" spans="1:18" ht="16">
       <c r="A304" s="12" t="s">
         <v>146</v>
       </c>
@@ -27139,7 +27150,7 @@
       </c>
       <c r="R304"/>
     </row>
-    <row r="305" spans="1:18" ht="15.75">
+    <row r="305" spans="1:18" ht="16">
       <c r="A305" s="12" t="s">
         <v>148</v>
       </c>
@@ -27181,7 +27192,7 @@
       </c>
       <c r="R305"/>
     </row>
-    <row r="306" spans="1:18" ht="15.75">
+    <row r="306" spans="1:18" ht="16">
       <c r="A306" s="12" t="s">
         <v>1115</v>
       </c>
@@ -27223,7 +27234,7 @@
       </c>
       <c r="R306"/>
     </row>
-    <row r="307" spans="1:18" ht="15.75">
+    <row r="307" spans="1:18" ht="16">
       <c r="A307" s="12" t="s">
         <v>1117</v>
       </c>
@@ -27265,7 +27276,7 @@
       </c>
       <c r="R307"/>
     </row>
-    <row r="308" spans="1:18" ht="15.75">
+    <row r="308" spans="1:18" ht="16">
       <c r="A308" s="12" t="s">
         <v>157</v>
       </c>
@@ -27307,7 +27318,7 @@
       </c>
       <c r="R308"/>
     </row>
-    <row r="309" spans="1:18" ht="15.75">
+    <row r="309" spans="1:18" ht="16">
       <c r="A309" s="12" t="s">
         <v>506</v>
       </c>
@@ -27349,7 +27360,7 @@
       </c>
       <c r="R309"/>
     </row>
-    <row r="310" spans="1:18" ht="15.75">
+    <row r="310" spans="1:18" ht="16">
       <c r="A310" s="12" t="s">
         <v>504</v>
       </c>
@@ -27391,7 +27402,7 @@
       </c>
       <c r="R310"/>
     </row>
-    <row r="311" spans="1:18" ht="15.75">
+    <row r="311" spans="1:18" ht="16">
       <c r="A311" s="12" t="s">
         <v>154</v>
       </c>
@@ -27433,7 +27444,7 @@
       </c>
       <c r="R311"/>
     </row>
-    <row r="312" spans="1:18" ht="15.75">
+    <row r="312" spans="1:18" ht="16">
       <c r="A312" s="12" t="s">
         <v>167</v>
       </c>
@@ -27475,7 +27486,7 @@
       </c>
       <c r="R312"/>
     </row>
-    <row r="313" spans="1:18" ht="15.75">
+    <row r="313" spans="1:18" ht="16">
       <c r="A313" s="12" t="s">
         <v>163</v>
       </c>
@@ -27517,7 +27528,7 @@
       </c>
       <c r="R313"/>
     </row>
-    <row r="314" spans="1:18" ht="15.75">
+    <row r="314" spans="1:18" ht="16">
       <c r="A314" s="12" t="s">
         <v>1119</v>
       </c>
@@ -27559,7 +27570,7 @@
       </c>
       <c r="R314"/>
     </row>
-    <row r="315" spans="1:18" ht="15.75">
+    <row r="315" spans="1:18" ht="16">
       <c r="A315" s="12" t="s">
         <v>1121</v>
       </c>
@@ -27601,7 +27612,7 @@
       </c>
       <c r="R315"/>
     </row>
-    <row r="316" spans="1:18" ht="15.75">
+    <row r="316" spans="1:18" ht="16">
       <c r="A316" s="12" t="s">
         <v>1123</v>
       </c>
@@ -27643,7 +27654,7 @@
       </c>
       <c r="R316"/>
     </row>
-    <row r="317" spans="1:18" ht="15.75">
+    <row r="317" spans="1:18" ht="16">
       <c r="A317" s="12" t="s">
         <v>1125</v>
       </c>
@@ -27685,7 +27696,7 @@
       </c>
       <c r="R317"/>
     </row>
-    <row r="318" spans="1:18" ht="15.75">
+    <row r="318" spans="1:18" ht="16">
       <c r="A318" s="12" t="s">
         <v>162</v>
       </c>
@@ -27727,7 +27738,7 @@
       </c>
       <c r="R318"/>
     </row>
-    <row r="319" spans="1:18" ht="15.75">
+    <row r="319" spans="1:18" ht="16">
       <c r="A319" s="12" t="s">
         <v>1128</v>
       </c>
@@ -27769,7 +27780,7 @@
       </c>
       <c r="R319"/>
     </row>
-    <row r="320" spans="1:18" ht="15.75">
+    <row r="320" spans="1:18" ht="16">
       <c r="A320" s="12" t="s">
         <v>1130</v>
       </c>
@@ -27811,7 +27822,7 @@
       </c>
       <c r="R320"/>
     </row>
-    <row r="321" spans="1:18" ht="15.75">
+    <row r="321" spans="1:18" ht="16">
       <c r="A321" s="12" t="s">
         <v>1132</v>
       </c>
@@ -27853,7 +27864,7 @@
       </c>
       <c r="R321"/>
     </row>
-    <row r="322" spans="1:18" ht="15.75">
+    <row r="322" spans="1:18" ht="16">
       <c r="A322" s="12" t="s">
         <v>1134</v>
       </c>
@@ -27895,7 +27906,7 @@
       </c>
       <c r="R322"/>
     </row>
-    <row r="323" spans="1:18" ht="15.75">
+    <row r="323" spans="1:18" ht="16">
       <c r="A323" s="12" t="s">
         <v>172</v>
       </c>
@@ -27937,7 +27948,7 @@
       </c>
       <c r="R323"/>
     </row>
-    <row r="324" spans="1:18" ht="15.75">
+    <row r="324" spans="1:18" ht="16">
       <c r="A324" s="12" t="s">
         <v>165</v>
       </c>
@@ -27979,7 +27990,7 @@
       </c>
       <c r="R324"/>
     </row>
-    <row r="325" spans="1:18" ht="15.75">
+    <row r="325" spans="1:18" ht="16">
       <c r="A325" s="12" t="s">
         <v>174</v>
       </c>
@@ -28021,7 +28032,7 @@
       </c>
       <c r="R325"/>
     </row>
-    <row r="326" spans="1:18" ht="15.75">
+    <row r="326" spans="1:18" ht="16">
       <c r="A326" s="12" t="s">
         <v>1136</v>
       </c>
@@ -28063,7 +28074,7 @@
       </c>
       <c r="R326"/>
     </row>
-    <row r="327" spans="1:18" ht="15.75">
+    <row r="327" spans="1:18" ht="16">
       <c r="A327" s="12" t="s">
         <v>1138</v>
       </c>
@@ -28105,7 +28116,7 @@
       </c>
       <c r="R327"/>
     </row>
-    <row r="328" spans="1:18" ht="15.75">
+    <row r="328" spans="1:18" ht="16">
       <c r="A328" s="12" t="s">
         <v>1140</v>
       </c>
@@ -28147,7 +28158,7 @@
       </c>
       <c r="R328"/>
     </row>
-    <row r="329" spans="1:18" ht="15.75">
+    <row r="329" spans="1:18" ht="16">
       <c r="A329" s="12" t="s">
         <v>171</v>
       </c>
@@ -28189,7 +28200,7 @@
       </c>
       <c r="R329"/>
     </row>
-    <row r="330" spans="1:18" ht="15.75">
+    <row r="330" spans="1:18" ht="16">
       <c r="A330" s="12" t="s">
         <v>500</v>
       </c>
@@ -28231,7 +28242,7 @@
       </c>
       <c r="R330"/>
     </row>
-    <row r="331" spans="1:18" ht="15.75">
+    <row r="331" spans="1:18" ht="16">
       <c r="A331" s="12" t="s">
         <v>1141</v>
       </c>
@@ -28273,7 +28284,7 @@
       </c>
       <c r="R331"/>
     </row>
-    <row r="332" spans="1:18" ht="15.75">
+    <row r="332" spans="1:18" ht="16">
       <c r="A332" s="12" t="s">
         <v>601</v>
       </c>
@@ -28315,7 +28326,7 @@
       </c>
       <c r="R332"/>
     </row>
-    <row r="333" spans="1:18" ht="15.75">
+    <row r="333" spans="1:18" ht="16">
       <c r="A333" s="12" t="s">
         <v>602</v>
       </c>
@@ -28357,7 +28368,7 @@
       </c>
       <c r="R333"/>
     </row>
-    <row r="334" spans="1:18" ht="15.75">
+    <row r="334" spans="1:18" ht="16">
       <c r="A334" s="12" t="s">
         <v>1145</v>
       </c>
@@ -28399,7 +28410,7 @@
       </c>
       <c r="R334"/>
     </row>
-    <row r="335" spans="1:18" ht="15.75">
+    <row r="335" spans="1:18" ht="16">
       <c r="A335" s="12" t="s">
         <v>1147</v>
       </c>
@@ -28441,7 +28452,7 @@
       </c>
       <c r="R335"/>
     </row>
-    <row r="336" spans="1:18" ht="15.75">
+    <row r="336" spans="1:18" ht="16">
       <c r="A336" s="12" t="s">
         <v>1149</v>
       </c>
@@ -28483,7 +28494,7 @@
       </c>
       <c r="R336"/>
     </row>
-    <row r="337" spans="1:18" ht="15.75">
+    <row r="337" spans="1:18" ht="16">
       <c r="A337" s="12" t="s">
         <v>184</v>
       </c>
@@ -28525,7 +28536,7 @@
       </c>
       <c r="R337"/>
     </row>
-    <row r="338" spans="1:18" ht="15.75">
+    <row r="338" spans="1:18" ht="16">
       <c r="A338" s="12" t="s">
         <v>1151</v>
       </c>
@@ -28567,7 +28578,7 @@
       </c>
       <c r="R338"/>
     </row>
-    <row r="339" spans="1:18" ht="15.75">
+    <row r="339" spans="1:18" ht="16">
       <c r="A339" s="12" t="s">
         <v>192</v>
       </c>
@@ -28609,7 +28620,7 @@
       </c>
       <c r="R339"/>
     </row>
-    <row r="340" spans="1:18" ht="15.75">
+    <row r="340" spans="1:18" ht="16">
       <c r="A340" s="12" t="s">
         <v>188</v>
       </c>
@@ -28651,7 +28662,7 @@
       </c>
       <c r="R340"/>
     </row>
-    <row r="341" spans="1:18" ht="15.75">
+    <row r="341" spans="1:18" ht="16">
       <c r="A341" s="12" t="s">
         <v>1153</v>
       </c>
@@ -28693,7 +28704,7 @@
       </c>
       <c r="R341"/>
     </row>
-    <row r="342" spans="1:18" ht="15.75">
+    <row r="342" spans="1:18" ht="16">
       <c r="A342" s="12" t="s">
         <v>1155</v>
       </c>
@@ -28735,7 +28746,7 @@
       </c>
       <c r="R342"/>
     </row>
-    <row r="343" spans="1:18" ht="15.75">
+    <row r="343" spans="1:18" ht="16">
       <c r="A343" s="12" t="s">
         <v>180</v>
       </c>
@@ -28777,7 +28788,7 @@
       </c>
       <c r="R343"/>
     </row>
-    <row r="344" spans="1:18" ht="15.75">
+    <row r="344" spans="1:18" ht="16">
       <c r="A344" s="12" t="s">
         <v>176</v>
       </c>
@@ -28819,7 +28830,7 @@
       </c>
       <c r="R344"/>
     </row>
-    <row r="345" spans="1:18" ht="15.75">
+    <row r="345" spans="1:18" ht="16">
       <c r="A345" s="12" t="s">
         <v>190</v>
       </c>
@@ -28861,7 +28872,7 @@
       </c>
       <c r="R345"/>
     </row>
-    <row r="346" spans="1:18" ht="15.75">
+    <row r="346" spans="1:18" ht="16">
       <c r="A346" s="12" t="s">
         <v>1157</v>
       </c>
@@ -28903,7 +28914,7 @@
       </c>
       <c r="R346"/>
     </row>
-    <row r="347" spans="1:18" ht="15.75">
+    <row r="347" spans="1:18" ht="16">
       <c r="A347" s="12" t="s">
         <v>196</v>
       </c>
@@ -28945,7 +28956,7 @@
       </c>
       <c r="R347"/>
     </row>
-    <row r="348" spans="1:18" ht="15.75">
+    <row r="348" spans="1:18" ht="16">
       <c r="A348" s="12" t="s">
         <v>1159</v>
       </c>
@@ -28987,7 +28998,7 @@
       </c>
       <c r="R348"/>
     </row>
-    <row r="349" spans="1:18" ht="15.75">
+    <row r="349" spans="1:18" ht="16">
       <c r="A349" s="12" t="s">
         <v>182</v>
       </c>
@@ -29029,7 +29040,7 @@
       </c>
       <c r="R349"/>
     </row>
-    <row r="350" spans="1:18" ht="15.75">
+    <row r="350" spans="1:18" ht="16">
       <c r="A350" s="12" t="s">
         <v>1161</v>
       </c>
@@ -29071,7 +29082,7 @@
       </c>
       <c r="R350"/>
     </row>
-    <row r="351" spans="1:18" ht="15.75">
+    <row r="351" spans="1:18" ht="16">
       <c r="A351" s="12" t="s">
         <v>1163</v>
       </c>
@@ -29113,7 +29124,7 @@
       </c>
       <c r="R351"/>
     </row>
-    <row r="352" spans="1:18" ht="15.75">
+    <row r="352" spans="1:18" ht="16">
       <c r="A352" s="12" t="s">
         <v>1165</v>
       </c>
@@ -29155,7 +29166,7 @@
       </c>
       <c r="R352"/>
     </row>
-    <row r="353" spans="1:18" ht="15.75">
+    <row r="353" spans="1:18" ht="16">
       <c r="A353" s="12" t="s">
         <v>1167</v>
       </c>
@@ -29197,7 +29208,7 @@
       </c>
       <c r="R353"/>
     </row>
-    <row r="354" spans="1:18" ht="15.75">
+    <row r="354" spans="1:18" ht="16">
       <c r="A354" s="12" t="s">
         <v>194</v>
       </c>
@@ -29239,7 +29250,7 @@
       </c>
       <c r="R354"/>
     </row>
-    <row r="355" spans="1:18" ht="15.75">
+    <row r="355" spans="1:18" ht="16">
       <c r="A355" s="12" t="s">
         <v>1169</v>
       </c>
@@ -29281,7 +29292,7 @@
       </c>
       <c r="R355"/>
     </row>
-    <row r="356" spans="1:18" ht="15.75">
+    <row r="356" spans="1:18" ht="16">
       <c r="A356" s="12" t="s">
         <v>1171</v>
       </c>
@@ -29323,7 +29334,7 @@
       </c>
       <c r="R356"/>
     </row>
-    <row r="357" spans="1:18" ht="15.75">
+    <row r="357" spans="1:18" ht="16">
       <c r="A357" s="12" t="s">
         <v>1173</v>
       </c>
@@ -29365,7 +29376,7 @@
       </c>
       <c r="R357"/>
     </row>
-    <row r="358" spans="1:18" ht="15.75">
+    <row r="358" spans="1:18" ht="16">
       <c r="A358" s="12" t="s">
         <v>1175</v>
       </c>
@@ -29407,7 +29418,7 @@
       </c>
       <c r="R358"/>
     </row>
-    <row r="359" spans="1:18" ht="15.75">
+    <row r="359" spans="1:18" ht="16">
       <c r="A359" s="12" t="s">
         <v>214</v>
       </c>
@@ -29449,7 +29460,7 @@
       </c>
       <c r="R359"/>
     </row>
-    <row r="360" spans="1:18" ht="15.75">
+    <row r="360" spans="1:18" ht="16">
       <c r="A360" s="12" t="s">
         <v>501</v>
       </c>
@@ -29491,7 +29502,7 @@
       </c>
       <c r="R360"/>
     </row>
-    <row r="361" spans="1:18" ht="15.75">
+    <row r="361" spans="1:18" ht="16">
       <c r="A361" s="12" t="s">
         <v>200</v>
       </c>
@@ -29533,7 +29544,7 @@
       </c>
       <c r="R361"/>
     </row>
-    <row r="362" spans="1:18" ht="15.75">
+    <row r="362" spans="1:18" ht="16">
       <c r="A362" s="12" t="s">
         <v>1179</v>
       </c>
@@ -29575,7 +29586,7 @@
       </c>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" ht="15.75">
+    <row r="363" spans="1:18" ht="16">
       <c r="A363" s="12" t="s">
         <v>212</v>
       </c>
@@ -29617,7 +29628,7 @@
       </c>
       <c r="R363"/>
     </row>
-    <row r="364" spans="1:18" ht="15.75">
+    <row r="364" spans="1:18" ht="16">
       <c r="A364" s="12" t="s">
         <v>186</v>
       </c>
@@ -29659,7 +29670,7 @@
       </c>
       <c r="R364"/>
     </row>
-    <row r="365" spans="1:18" ht="15.75">
+    <row r="365" spans="1:18" ht="16">
       <c r="A365" s="12" t="s">
         <v>1181</v>
       </c>
@@ -29701,7 +29712,7 @@
       </c>
       <c r="R365"/>
     </row>
-    <row r="366" spans="1:18" ht="15.75">
+    <row r="366" spans="1:18" ht="16">
       <c r="A366" s="12" t="s">
         <v>198</v>
       </c>
@@ -29743,7 +29754,7 @@
       </c>
       <c r="R366"/>
     </row>
-    <row r="367" spans="1:18" ht="15.75">
+    <row r="367" spans="1:18" ht="16">
       <c r="A367" s="12" t="s">
         <v>1183</v>
       </c>
@@ -29785,7 +29796,7 @@
       </c>
       <c r="R367"/>
     </row>
-    <row r="368" spans="1:18" ht="15.75">
+    <row r="368" spans="1:18" ht="16">
       <c r="A368" s="12" t="s">
         <v>507</v>
       </c>
@@ -29827,7 +29838,7 @@
       </c>
       <c r="R368"/>
     </row>
-    <row r="369" spans="1:18" ht="15.75">
+    <row r="369" spans="1:18" ht="16">
       <c r="A369" s="12" t="s">
         <v>202</v>
       </c>
@@ -29869,7 +29880,7 @@
       </c>
       <c r="R369"/>
     </row>
-    <row r="370" spans="1:18" ht="15.75">
+    <row r="370" spans="1:18" ht="16">
       <c r="A370" s="12" t="s">
         <v>1185</v>
       </c>
@@ -29911,7 +29922,7 @@
       </c>
       <c r="R370"/>
     </row>
-    <row r="371" spans="1:18" ht="15.75">
+    <row r="371" spans="1:18" ht="16">
       <c r="A371" s="12" t="s">
         <v>222</v>
       </c>
@@ -29953,7 +29964,7 @@
       </c>
       <c r="R371"/>
     </row>
-    <row r="372" spans="1:18" ht="15.75">
+    <row r="372" spans="1:18" ht="16">
       <c r="A372" s="12" t="s">
         <v>1187</v>
       </c>
@@ -29995,7 +30006,7 @@
       </c>
       <c r="R372"/>
     </row>
-    <row r="373" spans="1:18" ht="15.75">
+    <row r="373" spans="1:18" ht="16">
       <c r="A373" s="12" t="s">
         <v>1189</v>
       </c>
@@ -30037,7 +30048,7 @@
       </c>
       <c r="R373"/>
     </row>
-    <row r="374" spans="1:18" ht="15.75">
+    <row r="374" spans="1:18" ht="16">
       <c r="A374" s="12" t="s">
         <v>204</v>
       </c>
@@ -30079,7 +30090,7 @@
       </c>
       <c r="R374"/>
     </row>
-    <row r="375" spans="1:18" ht="15.75">
+    <row r="375" spans="1:18" ht="16">
       <c r="A375" s="12" t="s">
         <v>220</v>
       </c>
@@ -30121,7 +30132,7 @@
       </c>
       <c r="R375"/>
     </row>
-    <row r="376" spans="1:18" ht="15.75">
+    <row r="376" spans="1:18" ht="16">
       <c r="A376" s="12" t="s">
         <v>1191</v>
       </c>
@@ -30163,7 +30174,7 @@
       </c>
       <c r="R376"/>
     </row>
-    <row r="377" spans="1:18" ht="15.75">
+    <row r="377" spans="1:18" ht="16">
       <c r="A377" s="12" t="s">
         <v>210</v>
       </c>
@@ -30205,7 +30216,7 @@
       </c>
       <c r="R377"/>
     </row>
-    <row r="378" spans="1:18" ht="15.75">
+    <row r="378" spans="1:18" ht="16">
       <c r="A378" s="12" t="s">
         <v>218</v>
       </c>
@@ -30247,7 +30258,7 @@
       </c>
       <c r="R378"/>
     </row>
-    <row r="379" spans="1:18" ht="15.75">
+    <row r="379" spans="1:18" ht="16">
       <c r="A379" s="12" t="s">
         <v>208</v>
       </c>
@@ -30289,7 +30300,7 @@
       </c>
       <c r="R379"/>
     </row>
-    <row r="380" spans="1:18" ht="15.75">
+    <row r="380" spans="1:18" ht="16">
       <c r="A380" s="12" t="s">
         <v>1193</v>
       </c>
@@ -30331,7 +30342,7 @@
       </c>
       <c r="R380"/>
     </row>
-    <row r="381" spans="1:18" ht="15.75">
+    <row r="381" spans="1:18" ht="16">
       <c r="A381" s="12" t="s">
         <v>1195</v>
       </c>
@@ -30373,7 +30384,7 @@
       </c>
       <c r="R381"/>
     </row>
-    <row r="382" spans="1:18" ht="15.75">
+    <row r="382" spans="1:18" ht="16">
       <c r="A382" s="12" t="s">
         <v>1197</v>
       </c>
@@ -30415,7 +30426,7 @@
       </c>
       <c r="R382"/>
     </row>
-    <row r="383" spans="1:18" ht="15.75">
+    <row r="383" spans="1:18" ht="16">
       <c r="A383" s="12" t="s">
         <v>21</v>
       </c>
@@ -30457,7 +30468,7 @@
       </c>
       <c r="R383"/>
     </row>
-    <row r="384" spans="1:18" ht="15.75">
+    <row r="384" spans="1:18" ht="16">
       <c r="A384" s="12" t="s">
         <v>206</v>
       </c>
@@ -30499,7 +30510,7 @@
       </c>
       <c r="R384"/>
     </row>
-    <row r="385" spans="1:18" ht="15.75">
+    <row r="385" spans="1:18" ht="16">
       <c r="A385" s="12" t="s">
         <v>28</v>
       </c>
@@ -30541,7 +30552,7 @@
       </c>
       <c r="R385"/>
     </row>
-    <row r="386" spans="1:18" ht="15.75">
+    <row r="386" spans="1:18" ht="16">
       <c r="A386" s="12" t="s">
         <v>1200</v>
       </c>
@@ -30583,7 +30594,7 @@
       </c>
       <c r="R386"/>
     </row>
-    <row r="387" spans="1:18" ht="15.75">
+    <row r="387" spans="1:18" ht="16">
       <c r="A387" s="12" t="s">
         <v>1202</v>
       </c>
@@ -30625,7 +30636,7 @@
       </c>
       <c r="R387"/>
     </row>
-    <row r="388" spans="1:18" ht="15.75">
+    <row r="388" spans="1:18" ht="16">
       <c r="A388" s="12" t="s">
         <v>232</v>
       </c>
@@ -30667,7 +30678,7 @@
       </c>
       <c r="R388"/>
     </row>
-    <row r="389" spans="1:18" ht="15.75">
+    <row r="389" spans="1:18" ht="16">
       <c r="A389" s="12" t="s">
         <v>33</v>
       </c>
@@ -30709,7 +30720,7 @@
       </c>
       <c r="R389"/>
     </row>
-    <row r="390" spans="1:18" ht="15.75">
+    <row r="390" spans="1:18" ht="16">
       <c r="A390" s="12" t="s">
         <v>1204</v>
       </c>
@@ -30751,7 +30762,7 @@
       </c>
       <c r="R390"/>
     </row>
-    <row r="391" spans="1:18" ht="15.75">
+    <row r="391" spans="1:18" ht="16">
       <c r="A391" s="12" t="s">
         <v>514</v>
       </c>
@@ -30793,7 +30804,7 @@
       </c>
       <c r="R391"/>
     </row>
-    <row r="392" spans="1:18" ht="15.75">
+    <row r="392" spans="1:18" ht="16">
       <c r="A392" s="12" t="s">
         <v>224</v>
       </c>
@@ -30835,7 +30846,7 @@
       </c>
       <c r="R392"/>
     </row>
-    <row r="393" spans="1:18" ht="15.75">
+    <row r="393" spans="1:18" ht="16">
       <c r="A393" s="12" t="s">
         <v>1206</v>
       </c>
@@ -30877,7 +30888,7 @@
       </c>
       <c r="R393"/>
     </row>
-    <row r="394" spans="1:18" ht="15.75">
+    <row r="394" spans="1:18" ht="16">
       <c r="A394" s="12" t="s">
         <v>1208</v>
       </c>
@@ -30919,7 +30930,7 @@
       </c>
       <c r="R394"/>
     </row>
-    <row r="395" spans="1:18" ht="15.75">
+    <row r="395" spans="1:18" ht="16">
       <c r="A395" s="12" t="s">
         <v>1210</v>
       </c>
@@ -30961,7 +30972,7 @@
       </c>
       <c r="R395"/>
     </row>
-    <row r="396" spans="1:18" ht="15.75">
+    <row r="396" spans="1:18" ht="16">
       <c r="A396" s="12" t="s">
         <v>226</v>
       </c>
@@ -31003,7 +31014,7 @@
       </c>
       <c r="R396"/>
     </row>
-    <row r="397" spans="1:18" ht="15.75">
+    <row r="397" spans="1:18" ht="16">
       <c r="A397" s="12" t="s">
         <v>228</v>
       </c>
@@ -31045,7 +31056,7 @@
       </c>
       <c r="R397"/>
     </row>
-    <row r="398" spans="1:18" ht="15.75">
+    <row r="398" spans="1:18" ht="16">
       <c r="A398" s="12" t="s">
         <v>1212</v>
       </c>
@@ -31087,7 +31098,7 @@
       </c>
       <c r="R398"/>
     </row>
-    <row r="399" spans="1:18" ht="15.75">
+    <row r="399" spans="1:18" ht="16">
       <c r="A399" s="12" t="s">
         <v>49</v>
       </c>
@@ -31129,7 +31140,7 @@
       </c>
       <c r="R399"/>
     </row>
-    <row r="400" spans="1:18" ht="15.75">
+    <row r="400" spans="1:18" ht="16">
       <c r="A400" s="12" t="s">
         <v>1214</v>
       </c>
@@ -31171,7 +31182,7 @@
       </c>
       <c r="R400"/>
     </row>
-    <row r="401" spans="1:18" ht="15.75">
+    <row r="401" spans="1:18" ht="16">
       <c r="A401" s="12" t="s">
         <v>216</v>
       </c>
@@ -31213,7 +31224,7 @@
       </c>
       <c r="R401"/>
     </row>
-    <row r="402" spans="1:18" ht="15.75">
+    <row r="402" spans="1:18" ht="16">
       <c r="A402" s="12" t="s">
         <v>230</v>
       </c>
@@ -31255,7 +31266,7 @@
       </c>
       <c r="R402"/>
     </row>
-    <row r="403" spans="1:18" ht="15.75">
+    <row r="403" spans="1:18" ht="16">
       <c r="A403" s="12" t="s">
         <v>1216</v>
       </c>
@@ -31297,7 +31308,7 @@
       </c>
       <c r="R403"/>
     </row>
-    <row r="404" spans="1:18" ht="15.75">
+    <row r="404" spans="1:18" ht="16">
       <c r="A404" s="12" t="s">
         <v>240</v>
       </c>
@@ -31339,7 +31350,7 @@
       </c>
       <c r="R404"/>
     </row>
-    <row r="405" spans="1:18" ht="15.75">
+    <row r="405" spans="1:18" ht="16">
       <c r="A405" s="12" t="s">
         <v>257</v>
       </c>
@@ -31381,7 +31392,7 @@
       </c>
       <c r="R405"/>
     </row>
-    <row r="406" spans="1:18" ht="15.75">
+    <row r="406" spans="1:18" ht="16">
       <c r="A406" s="12" t="s">
         <v>516</v>
       </c>
@@ -31423,7 +31434,7 @@
       </c>
       <c r="R406"/>
     </row>
-    <row r="407" spans="1:18" ht="15.75">
+    <row r="407" spans="1:18" ht="16">
       <c r="A407" s="12" t="s">
         <v>249</v>
       </c>
@@ -31465,7 +31476,7 @@
       </c>
       <c r="R407"/>
     </row>
-    <row r="408" spans="1:18" ht="15.75">
+    <row r="408" spans="1:18" ht="16">
       <c r="A408" s="12" t="s">
         <v>1218</v>
       </c>
@@ -31507,7 +31518,7 @@
       </c>
       <c r="R408"/>
     </row>
-    <row r="409" spans="1:18" ht="15.75">
+    <row r="409" spans="1:18" ht="16">
       <c r="A409" s="12" t="s">
         <v>1220</v>
       </c>
@@ -31549,7 +31560,7 @@
       </c>
       <c r="R409"/>
     </row>
-    <row r="410" spans="1:18" ht="15.75">
+    <row r="410" spans="1:18" ht="16">
       <c r="A410" s="12" t="s">
         <v>1222</v>
       </c>
@@ -31591,7 +31602,7 @@
       </c>
       <c r="R410"/>
     </row>
-    <row r="411" spans="1:18" ht="15.75">
+    <row r="411" spans="1:18" ht="16">
       <c r="A411" s="12" t="s">
         <v>238</v>
       </c>
@@ -31633,7 +31644,7 @@
       </c>
       <c r="R411"/>
     </row>
-    <row r="412" spans="1:18" ht="15.75">
+    <row r="412" spans="1:18" ht="16">
       <c r="A412" s="12" t="s">
         <v>245</v>
       </c>
@@ -31675,7 +31686,7 @@
       </c>
       <c r="R412"/>
     </row>
-    <row r="413" spans="1:18" ht="15.75">
+    <row r="413" spans="1:18" ht="16">
       <c r="A413" s="12" t="s">
         <v>265</v>
       </c>
@@ -31717,7 +31728,7 @@
       </c>
       <c r="R413"/>
     </row>
-    <row r="414" spans="1:18" ht="15.75">
+    <row r="414" spans="1:18" ht="16">
       <c r="A414" s="12" t="s">
         <v>261</v>
       </c>
@@ -31759,7 +31770,7 @@
       </c>
       <c r="R414"/>
     </row>
-    <row r="415" spans="1:18" ht="15.75">
+    <row r="415" spans="1:18" ht="16">
       <c r="A415" s="12" t="s">
         <v>236</v>
       </c>
@@ -31801,7 +31812,7 @@
       </c>
       <c r="R415"/>
     </row>
-    <row r="416" spans="1:18" ht="15.75">
+    <row r="416" spans="1:18" ht="16">
       <c r="A416" s="12" t="s">
         <v>1225</v>
       </c>
@@ -31843,7 +31854,7 @@
       </c>
       <c r="R416"/>
     </row>
-    <row r="417" spans="1:18" ht="15.75">
+    <row r="417" spans="1:18" ht="16">
       <c r="A417" s="12" t="s">
         <v>1227</v>
       </c>
@@ -31885,7 +31896,7 @@
       </c>
       <c r="R417"/>
     </row>
-    <row r="418" spans="1:18" ht="15.75">
+    <row r="418" spans="1:18" ht="16">
       <c r="A418" s="12" t="s">
         <v>1229</v>
       </c>
@@ -31927,7 +31938,7 @@
       </c>
       <c r="R418"/>
     </row>
-    <row r="419" spans="1:18" ht="15.75">
+    <row r="419" spans="1:18" ht="16">
       <c r="A419" s="12" t="s">
         <v>1231</v>
       </c>
@@ -31969,7 +31980,7 @@
       </c>
       <c r="R419"/>
     </row>
-    <row r="420" spans="1:18" ht="15.75">
+    <row r="420" spans="1:18" ht="16">
       <c r="A420" s="12" t="s">
         <v>267</v>
       </c>
@@ -32011,7 +32022,7 @@
       </c>
       <c r="R420"/>
     </row>
-    <row r="421" spans="1:18" ht="15.75">
+    <row r="421" spans="1:18" ht="16">
       <c r="A421" s="12" t="s">
         <v>253</v>
       </c>
@@ -32053,7 +32064,7 @@
       </c>
       <c r="R421"/>
     </row>
-    <row r="422" spans="1:18" ht="15.75">
+    <row r="422" spans="1:18" ht="16">
       <c r="A422" s="12" t="s">
         <v>244</v>
       </c>
@@ -32095,7 +32106,7 @@
       </c>
       <c r="R422"/>
     </row>
-    <row r="423" spans="1:18" ht="15.75">
+    <row r="423" spans="1:18" ht="16">
       <c r="A423" s="12" t="s">
         <v>263</v>
       </c>
@@ -32137,7 +32148,7 @@
       </c>
       <c r="R423"/>
     </row>
-    <row r="424" spans="1:18" ht="15.75">
+    <row r="424" spans="1:18" ht="16">
       <c r="A424" s="12" t="s">
         <v>1233</v>
       </c>
@@ -32179,7 +32190,7 @@
       </c>
       <c r="R424"/>
     </row>
-    <row r="425" spans="1:18" ht="15.75">
+    <row r="425" spans="1:18" ht="16">
       <c r="A425" s="12" t="s">
         <v>247</v>
       </c>
@@ -32221,7 +32232,7 @@
       </c>
       <c r="R425"/>
     </row>
-    <row r="426" spans="1:18" ht="15.75">
+    <row r="426" spans="1:18" ht="16">
       <c r="A426" s="12" t="s">
         <v>123</v>
       </c>
@@ -32263,7 +32274,7 @@
       </c>
       <c r="R426"/>
     </row>
-    <row r="427" spans="1:18" ht="15.75">
+    <row r="427" spans="1:18" ht="16">
       <c r="A427" s="12" t="s">
         <v>251</v>
       </c>
@@ -32305,7 +32316,7 @@
       </c>
       <c r="R427"/>
     </row>
-    <row r="428" spans="1:18" ht="15.75">
+    <row r="428" spans="1:18" ht="16">
       <c r="A428" s="12" t="s">
         <v>1236</v>
       </c>
@@ -32347,7 +32358,7 @@
       </c>
       <c r="R428"/>
     </row>
-    <row r="429" spans="1:18" ht="15.75">
+    <row r="429" spans="1:18" ht="16">
       <c r="A429" s="12" t="s">
         <v>1238</v>
       </c>
@@ -32389,7 +32400,7 @@
       </c>
       <c r="R429"/>
     </row>
-    <row r="430" spans="1:18" ht="15.75">
+    <row r="430" spans="1:18" ht="16">
       <c r="A430" s="12" t="s">
         <v>259</v>
       </c>
@@ -32431,7 +32442,7 @@
       </c>
       <c r="R430"/>
     </row>
-    <row r="431" spans="1:18" ht="15.75">
+    <row r="431" spans="1:18" ht="16">
       <c r="A431" s="12" t="s">
         <v>1240</v>
       </c>
@@ -32473,7 +32484,7 @@
       </c>
       <c r="R431"/>
     </row>
-    <row r="432" spans="1:18" ht="15.75">
+    <row r="432" spans="1:18" ht="16">
       <c r="A432" s="12" t="s">
         <v>1242</v>
       </c>
@@ -32515,7 +32526,7 @@
       </c>
       <c r="R432"/>
     </row>
-    <row r="433" spans="1:18" ht="15.75">
+    <row r="433" spans="1:18" ht="16">
       <c r="A433" s="12" t="s">
         <v>1244</v>
       </c>
@@ -32557,7 +32568,7 @@
       </c>
       <c r="R433"/>
     </row>
-    <row r="434" spans="1:18" ht="15.75">
+    <row r="434" spans="1:18" ht="16">
       <c r="A434" s="12" t="s">
         <v>255</v>
       </c>
@@ -32599,7 +32610,7 @@
       </c>
       <c r="R434"/>
     </row>
-    <row r="435" spans="1:18" ht="15.75">
+    <row r="435" spans="1:18" ht="16">
       <c r="A435" s="12" t="s">
         <v>1246</v>
       </c>
@@ -32641,7 +32652,7 @@
       </c>
       <c r="R435"/>
     </row>
-    <row r="436" spans="1:18" ht="15.75">
+    <row r="436" spans="1:18" ht="16">
       <c r="A436" s="12" t="s">
         <v>283</v>
       </c>
@@ -32683,7 +32694,7 @@
       </c>
       <c r="R436"/>
     </row>
-    <row r="437" spans="1:18" ht="15.75">
+    <row r="437" spans="1:18" ht="16">
       <c r="A437" s="12" t="s">
         <v>287</v>
       </c>
@@ -32725,7 +32736,7 @@
       </c>
       <c r="R437"/>
     </row>
-    <row r="438" spans="1:18" ht="15.75">
+    <row r="438" spans="1:18" ht="16">
       <c r="A438" s="12" t="s">
         <v>1248</v>
       </c>
@@ -32767,7 +32778,7 @@
       </c>
       <c r="R438"/>
     </row>
-    <row r="439" spans="1:18" ht="15.75">
+    <row r="439" spans="1:18" ht="16">
       <c r="A439" s="12" t="s">
         <v>1250</v>
       </c>
@@ -32809,7 +32820,7 @@
       </c>
       <c r="R439"/>
     </row>
-    <row r="440" spans="1:18" ht="15.75">
+    <row r="440" spans="1:18" ht="16">
       <c r="A440" s="12" t="s">
         <v>1252</v>
       </c>
@@ -32851,7 +32862,7 @@
       </c>
       <c r="R440"/>
     </row>
-    <row r="441" spans="1:18" ht="15.75">
+    <row r="441" spans="1:18" ht="16">
       <c r="A441" s="12" t="s">
         <v>304</v>
       </c>
@@ -32893,7 +32904,7 @@
       </c>
       <c r="R441"/>
     </row>
-    <row r="442" spans="1:18" ht="15.75">
+    <row r="442" spans="1:18" ht="16">
       <c r="A442" s="12" t="s">
         <v>291</v>
       </c>
@@ -32935,7 +32946,7 @@
       </c>
       <c r="R442"/>
     </row>
-    <row r="443" spans="1:18" ht="15.75">
+    <row r="443" spans="1:18" ht="16">
       <c r="A443" s="12" t="s">
         <v>289</v>
       </c>
@@ -32977,7 +32988,7 @@
       </c>
       <c r="R443"/>
     </row>
-    <row r="444" spans="1:18" ht="15.75">
+    <row r="444" spans="1:18" ht="16">
       <c r="A444" s="12" t="s">
         <v>277</v>
       </c>
@@ -33019,7 +33030,7 @@
       </c>
       <c r="R444"/>
     </row>
-    <row r="445" spans="1:18" ht="15.75">
+    <row r="445" spans="1:18" ht="16">
       <c r="A445" s="12" t="s">
         <v>300</v>
       </c>
@@ -33061,7 +33072,7 @@
       </c>
       <c r="R445"/>
     </row>
-    <row r="446" spans="1:18" ht="15.75">
+    <row r="446" spans="1:18" ht="16">
       <c r="A446" s="12" t="s">
         <v>302</v>
       </c>
@@ -33103,7 +33114,7 @@
       </c>
       <c r="R446"/>
     </row>
-    <row r="447" spans="1:18" ht="15.75">
+    <row r="447" spans="1:18" ht="16">
       <c r="A447" s="12" t="s">
         <v>294</v>
       </c>
@@ -33145,7 +33156,7 @@
       </c>
       <c r="R447"/>
     </row>
-    <row r="448" spans="1:18" ht="15.75">
+    <row r="448" spans="1:18" ht="16">
       <c r="A448" s="12" t="s">
         <v>298</v>
       </c>
@@ -33187,7 +33198,7 @@
       </c>
       <c r="R448"/>
     </row>
-    <row r="449" spans="1:18" ht="15.75">
+    <row r="449" spans="1:18" ht="16">
       <c r="A449" s="12" t="s">
         <v>275</v>
       </c>
@@ -33229,7 +33240,7 @@
       </c>
       <c r="R449"/>
     </row>
-    <row r="450" spans="1:18" ht="15.75">
+    <row r="450" spans="1:18" ht="16">
       <c r="A450" s="12" t="s">
         <v>269</v>
       </c>
@@ -33271,7 +33282,7 @@
       </c>
       <c r="R450"/>
     </row>
-    <row r="451" spans="1:18" ht="15.75">
+    <row r="451" spans="1:18" ht="16">
       <c r="A451" s="12" t="s">
         <v>271</v>
       </c>
@@ -33313,7 +33324,7 @@
       </c>
       <c r="R451"/>
     </row>
-    <row r="452" spans="1:18" ht="15.75">
+    <row r="452" spans="1:18" ht="16">
       <c r="A452" s="12" t="s">
         <v>1254</v>
       </c>
@@ -33355,7 +33366,7 @@
       </c>
       <c r="R452"/>
     </row>
-    <row r="453" spans="1:18" ht="15.75">
+    <row r="453" spans="1:18" ht="16">
       <c r="A453" s="12" t="s">
         <v>279</v>
       </c>
@@ -33397,7 +33408,7 @@
       </c>
       <c r="R453"/>
     </row>
-    <row r="454" spans="1:18" ht="15.75">
+    <row r="454" spans="1:18" ht="16">
       <c r="A454" s="12" t="s">
         <v>273</v>
       </c>
@@ -33439,7 +33450,7 @@
       </c>
       <c r="R454"/>
     </row>
-    <row r="455" spans="1:18" ht="15.75">
+    <row r="455" spans="1:18" ht="16">
       <c r="A455" s="12" t="s">
         <v>306</v>
       </c>
@@ -33481,7 +33492,7 @@
       </c>
       <c r="R455"/>
     </row>
-    <row r="456" spans="1:18" ht="15.75">
+    <row r="456" spans="1:18" ht="16">
       <c r="A456" s="12" t="s">
         <v>285</v>
       </c>
@@ -33523,7 +33534,7 @@
       </c>
       <c r="R456"/>
     </row>
-    <row r="457" spans="1:18" ht="15.75">
+    <row r="457" spans="1:18" ht="16">
       <c r="A457" s="12" t="s">
         <v>296</v>
       </c>
@@ -33565,7 +33576,7 @@
       </c>
       <c r="R457"/>
     </row>
-    <row r="458" spans="1:18" ht="15.75">
+    <row r="458" spans="1:18" ht="16">
       <c r="A458" s="12" t="s">
         <v>281</v>
       </c>
@@ -33607,7 +33618,7 @@
       </c>
       <c r="R458"/>
     </row>
-    <row r="459" spans="1:18" ht="15.75">
+    <row r="459" spans="1:18" ht="16">
       <c r="A459" s="12" t="s">
         <v>325</v>
       </c>
@@ -33649,7 +33660,7 @@
       </c>
       <c r="R459"/>
     </row>
-    <row r="460" spans="1:18" ht="15.75">
+    <row r="460" spans="1:18" ht="16">
       <c r="A460" s="12" t="s">
         <v>318</v>
       </c>
@@ -33691,7 +33702,7 @@
       </c>
       <c r="R460"/>
     </row>
-    <row r="461" spans="1:18" ht="15.75">
+    <row r="461" spans="1:18" ht="16">
       <c r="A461" s="12" t="s">
         <v>310</v>
       </c>
@@ -33733,7 +33744,7 @@
       </c>
       <c r="R461"/>
     </row>
-    <row r="462" spans="1:18" ht="15.75">
+    <row r="462" spans="1:18" ht="16">
       <c r="A462" s="12" t="s">
         <v>316</v>
       </c>
@@ -33775,7 +33786,7 @@
       </c>
       <c r="R462"/>
     </row>
-    <row r="463" spans="1:18" ht="15.75">
+    <row r="463" spans="1:18" ht="16">
       <c r="A463" s="12" t="s">
         <v>508</v>
       </c>
@@ -33817,7 +33828,7 @@
       </c>
       <c r="R463"/>
     </row>
-    <row r="464" spans="1:18" ht="15.75">
+    <row r="464" spans="1:18" ht="16">
       <c r="A464" s="12" t="s">
         <v>1257</v>
       </c>
@@ -33859,7 +33870,7 @@
       </c>
       <c r="R464"/>
     </row>
-    <row r="465" spans="1:18" ht="15.75">
+    <row r="465" spans="1:18" ht="16">
       <c r="A465" s="12" t="s">
         <v>1259</v>
       </c>
@@ -33901,7 +33912,7 @@
       </c>
       <c r="R465"/>
     </row>
-    <row r="466" spans="1:18" ht="15.75">
+    <row r="466" spans="1:18" ht="16">
       <c r="A466" s="12" t="s">
         <v>320</v>
       </c>
@@ -33943,7 +33954,7 @@
       </c>
       <c r="R466"/>
     </row>
-    <row r="467" spans="1:18" ht="15.75">
+    <row r="467" spans="1:18" ht="16">
       <c r="A467" s="12" t="s">
         <v>1261</v>
       </c>
@@ -33985,7 +33996,7 @@
       </c>
       <c r="R467"/>
     </row>
-    <row r="468" spans="1:18" ht="15.75">
+    <row r="468" spans="1:18" ht="16">
       <c r="A468" s="12" t="s">
         <v>324</v>
       </c>
@@ -34027,7 +34038,7 @@
       </c>
       <c r="R468"/>
     </row>
-    <row r="469" spans="1:18" ht="15.75">
+    <row r="469" spans="1:18" ht="16">
       <c r="A469" s="12" t="s">
         <v>308</v>
       </c>
@@ -34069,7 +34080,7 @@
       </c>
       <c r="R469"/>
     </row>
-    <row r="470" spans="1:18" ht="15.75">
+    <row r="470" spans="1:18" ht="16">
       <c r="A470" s="12" t="s">
         <v>1263</v>
       </c>
@@ -34111,7 +34122,7 @@
       </c>
       <c r="R470"/>
     </row>
-    <row r="471" spans="1:18" ht="15.75">
+    <row r="471" spans="1:18" ht="16">
       <c r="A471" s="12" t="s">
         <v>327</v>
       </c>
@@ -34153,7 +34164,7 @@
       </c>
       <c r="R471"/>
     </row>
-    <row r="472" spans="1:18" ht="15.75">
+    <row r="472" spans="1:18" ht="16">
       <c r="A472" s="12" t="s">
         <v>1265</v>
       </c>
@@ -34195,7 +34206,7 @@
       </c>
       <c r="R472"/>
     </row>
-    <row r="473" spans="1:18" ht="15.75">
+    <row r="473" spans="1:18" ht="16">
       <c r="A473" s="12" t="s">
         <v>312</v>
       </c>
@@ -34237,7 +34248,7 @@
       </c>
       <c r="R473"/>
     </row>
-    <row r="474" spans="1:18" ht="15.75">
+    <row r="474" spans="1:18" ht="16">
       <c r="A474" s="12" t="s">
         <v>329</v>
       </c>
@@ -34279,7 +34290,7 @@
       </c>
       <c r="R474"/>
     </row>
-    <row r="475" spans="1:18" ht="15.75">
+    <row r="475" spans="1:18" ht="16">
       <c r="A475" s="12" t="s">
         <v>314</v>
       </c>
@@ -34321,7 +34332,7 @@
       </c>
       <c r="R475"/>
     </row>
-    <row r="476" spans="1:18" ht="15.75">
+    <row r="476" spans="1:18" ht="16">
       <c r="A476" s="12" t="s">
         <v>1267</v>
       </c>
@@ -34363,7 +34374,7 @@
       </c>
       <c r="R476"/>
     </row>
-    <row r="477" spans="1:18" ht="15.75">
+    <row r="477" spans="1:18" ht="16">
       <c r="A477" s="18" t="s">
         <v>1269</v>
       </c>
@@ -34405,7 +34416,7 @@
       </c>
       <c r="R477"/>
     </row>
-    <row r="478" spans="1:18" ht="15.75">
+    <row r="478" spans="1:18" ht="16">
       <c r="A478" s="18" t="s">
         <v>1271</v>
       </c>
@@ -34447,7 +34458,7 @@
       </c>
       <c r="R478"/>
     </row>
-    <row r="479" spans="1:18" ht="15.75">
+    <row r="479" spans="1:18" ht="16">
       <c r="A479" s="18" t="s">
         <v>331</v>
       </c>
@@ -34489,7 +34500,7 @@
       </c>
       <c r="R479"/>
     </row>
-    <row r="480" spans="1:18" ht="15.75">
+    <row r="480" spans="1:18" ht="16">
       <c r="A480" s="18" t="s">
         <v>333</v>
       </c>
@@ -34531,7 +34542,7 @@
       </c>
       <c r="R480"/>
     </row>
-    <row r="481" spans="1:18" ht="15.75">
+    <row r="481" spans="1:18" ht="16">
       <c r="A481" s="18" t="s">
         <v>335</v>
       </c>
@@ -34573,7 +34584,7 @@
       </c>
       <c r="R481"/>
     </row>
-    <row r="482" spans="1:18" ht="15.75">
+    <row r="482" spans="1:18" ht="16">
       <c r="A482" s="18" t="s">
         <v>337</v>
       </c>
@@ -34615,7 +34626,7 @@
       </c>
       <c r="R482"/>
     </row>
-    <row r="483" spans="1:18" ht="15.75">
+    <row r="483" spans="1:18" ht="16">
       <c r="A483" s="18" t="s">
         <v>1273</v>
       </c>
@@ -34657,7 +34668,7 @@
       </c>
       <c r="R483"/>
     </row>
-    <row r="484" spans="1:18" ht="15.75">
+    <row r="484" spans="1:18" ht="16">
       <c r="A484" s="12" t="s">
         <v>604</v>
       </c>
@@ -34696,7 +34707,7 @@
       </c>
       <c r="R484"/>
     </row>
-    <row r="485" spans="1:18" ht="15.75">
+    <row r="485" spans="1:18" ht="16">
       <c r="A485" s="12" t="s">
         <v>35</v>
       </c>
@@ -34733,7 +34744,7 @@
       </c>
       <c r="R485"/>
     </row>
-    <row r="486" spans="1:18" ht="15.75">
+    <row r="486" spans="1:18" ht="16">
       <c r="A486" s="12" t="s">
         <v>41</v>
       </c>
@@ -34770,7 +34781,7 @@
       </c>
       <c r="R486"/>
     </row>
-    <row r="487" spans="1:18" ht="15.75">
+    <row r="487" spans="1:18" ht="16">
       <c r="A487" s="12" t="s">
         <v>593</v>
       </c>
@@ -34809,7 +34820,7 @@
       </c>
       <c r="R487"/>
     </row>
-    <row r="488" spans="1:18" ht="15.75">
+    <row r="488" spans="1:18" ht="16">
       <c r="A488" s="12" t="s">
         <v>12</v>
       </c>
@@ -34846,7 +34857,7 @@
       </c>
       <c r="R488"/>
     </row>
-    <row r="489" spans="1:18" ht="15.75">
+    <row r="489" spans="1:18" ht="16">
       <c r="A489" s="12" t="s">
         <v>47</v>
       </c>
@@ -34883,7 +34894,7 @@
       </c>
       <c r="R489"/>
     </row>
-    <row r="490" spans="1:18" ht="15.75">
+    <row r="490" spans="1:18" ht="16">
       <c r="A490" s="18" t="s">
         <v>590</v>
       </c>
@@ -34920,7 +34931,7 @@
       </c>
       <c r="R490"/>
     </row>
-    <row r="491" spans="1:18" ht="15.75">
+    <row r="491" spans="1:18" ht="16">
       <c r="A491" s="18" t="s">
         <v>591</v>
       </c>
@@ -34957,7 +34968,7 @@
       </c>
       <c r="R491"/>
     </row>
-    <row r="492" spans="1:18" ht="15.75">
+    <row r="492" spans="1:18" ht="16">
       <c r="A492" s="18" t="s">
         <v>57</v>
       </c>
@@ -34994,7 +35005,7 @@
       </c>
       <c r="R492"/>
     </row>
-    <row r="493" spans="1:18" ht="15.75">
+    <row r="493" spans="1:18" ht="16">
       <c r="A493" s="18" t="s">
         <v>19</v>
       </c>
@@ -35031,7 +35042,7 @@
       </c>
       <c r="R493"/>
     </row>
-    <row r="494" spans="1:18" ht="15.75">
+    <row r="494" spans="1:18" ht="16">
       <c r="A494" s="18" t="s">
         <v>1277</v>
       </c>
@@ -35068,7 +35079,7 @@
       </c>
       <c r="R494"/>
     </row>
-    <row r="495" spans="1:18" ht="15.75">
+    <row r="495" spans="1:18" ht="16">
       <c r="A495" s="18" t="s">
         <v>1278</v>
       </c>
@@ -35105,7 +35116,7 @@
       </c>
       <c r="R495"/>
     </row>
-    <row r="496" spans="1:18" ht="15.75">
+    <row r="496" spans="1:18" ht="16">
       <c r="A496" s="18" t="s">
         <v>38</v>
       </c>
@@ -35142,7 +35153,7 @@
       </c>
       <c r="R496"/>
     </row>
-    <row r="497" spans="1:18" ht="15.75">
+    <row r="497" spans="1:18" ht="16">
       <c r="A497" s="18" t="s">
         <v>6</v>
       </c>
@@ -35179,7 +35190,7 @@
       </c>
       <c r="R497"/>
     </row>
-    <row r="498" spans="1:18" ht="15.75">
+    <row r="498" spans="1:18" ht="16">
       <c r="A498" s="18" t="s">
         <v>23</v>
       </c>
@@ -35216,7 +35227,7 @@
       </c>
       <c r="R498"/>
     </row>
-    <row r="499" spans="1:18" ht="15.75">
+    <row r="499" spans="1:18" ht="16">
       <c r="A499" s="18" t="s">
         <v>74</v>
       </c>
@@ -35253,7 +35264,7 @@
       </c>
       <c r="R499"/>
     </row>
-    <row r="500" spans="1:18" ht="15.75">
+    <row r="500" spans="1:18" ht="16">
       <c r="A500" s="18" t="s">
         <v>26</v>
       </c>
@@ -35290,7 +35301,7 @@
       </c>
       <c r="R500"/>
     </row>
-    <row r="501" spans="1:18" ht="15.75">
+    <row r="501" spans="1:18" ht="16">
       <c r="A501" s="18" t="s">
         <v>160</v>
       </c>
@@ -35327,7 +35338,7 @@
       </c>
       <c r="R501"/>
     </row>
-    <row r="502" spans="1:18" ht="15.75">
+    <row r="502" spans="1:18" ht="16">
       <c r="A502" s="18" t="s">
         <v>962</v>
       </c>
@@ -35364,7 +35375,7 @@
       </c>
       <c r="R502"/>
     </row>
-    <row r="503" spans="1:18" ht="15.75">
+    <row r="503" spans="1:18" ht="16">
       <c r="A503" s="12" t="s">
         <v>292</v>
       </c>
@@ -35401,7 +35412,7 @@
       </c>
       <c r="R503"/>
     </row>
-    <row r="504" spans="1:18" ht="15.75">
+    <row r="504" spans="1:18" ht="16">
       <c r="A504" s="12" t="s">
         <v>1279</v>
       </c>
@@ -35443,7 +35454,7 @@
       </c>
       <c r="R504"/>
     </row>
-    <row r="505" spans="1:18" ht="15.75">
+    <row r="505" spans="1:18" ht="16">
       <c r="A505" s="12" t="s">
         <v>1280</v>
       </c>
@@ -35485,7 +35496,7 @@
       </c>
       <c r="R505"/>
     </row>
-    <row r="506" spans="1:18" ht="15.75">
+    <row r="506" spans="1:18" ht="16">
       <c r="A506" s="12" t="s">
         <v>1281</v>
       </c>
@@ -35527,7 +35538,7 @@
       </c>
       <c r="R506"/>
     </row>
-    <row r="507" spans="1:18" ht="15.75">
+    <row r="507" spans="1:18" ht="16">
       <c r="A507" s="12" t="s">
         <v>1282</v>
       </c>
@@ -35569,7 +35580,7 @@
       </c>
       <c r="R507"/>
     </row>
-    <row r="508" spans="1:18" ht="15.75">
+    <row r="508" spans="1:18" ht="16">
       <c r="A508" s="12" t="s">
         <v>1283</v>
       </c>
@@ -35611,7 +35622,7 @@
       </c>
       <c r="R508"/>
     </row>
-    <row r="509" spans="1:18" ht="15.75">
+    <row r="509" spans="1:18" ht="16">
       <c r="A509" s="12" t="s">
         <v>1284</v>
       </c>
@@ -35653,7 +35664,7 @@
       </c>
       <c r="R509"/>
     </row>
-    <row r="510" spans="1:18" ht="15.75">
+    <row r="510" spans="1:18" ht="16">
       <c r="A510" s="12" t="s">
         <v>1285</v>
       </c>
@@ -35695,7 +35706,7 @@
       </c>
       <c r="R510"/>
     </row>
-    <row r="511" spans="1:18" ht="15.75">
+    <row r="511" spans="1:18" ht="16">
       <c r="A511" s="12" t="s">
         <v>1286</v>
       </c>
@@ -35737,7 +35748,7 @@
       </c>
       <c r="R511"/>
     </row>
-    <row r="512" spans="1:18" ht="15.75">
+    <row r="512" spans="1:18" ht="16">
       <c r="A512" s="12" t="s">
         <v>1287</v>
       </c>
@@ -35779,7 +35790,7 @@
       </c>
       <c r="R512"/>
     </row>
-    <row r="513" spans="1:18" ht="15.75">
+    <row r="513" spans="1:18" ht="16">
       <c r="A513" s="12" t="s">
         <v>1288</v>
       </c>
@@ -35821,7 +35832,7 @@
       </c>
       <c r="R513"/>
     </row>
-    <row r="514" spans="1:18" ht="15.75">
+    <row r="514" spans="1:18" ht="16">
       <c r="A514" s="12" t="s">
         <v>1289</v>
       </c>
@@ -35863,7 +35874,7 @@
       </c>
       <c r="R514"/>
     </row>
-    <row r="515" spans="1:18" ht="15.75">
+    <row r="515" spans="1:18" ht="16">
       <c r="A515" s="12" t="s">
         <v>1290</v>
       </c>
@@ -35905,7 +35916,7 @@
       </c>
       <c r="R515"/>
     </row>
-    <row r="516" spans="1:18" ht="15.75">
+    <row r="516" spans="1:18" ht="16">
       <c r="A516" s="12" t="s">
         <v>1291</v>
       </c>
@@ -35947,7 +35958,7 @@
       </c>
       <c r="R516"/>
     </row>
-    <row r="517" spans="1:18" ht="15.75">
+    <row r="517" spans="1:18" ht="16">
       <c r="A517" s="12" t="s">
         <v>1292</v>
       </c>
@@ -35984,7 +35995,7 @@
       </c>
       <c r="R517"/>
     </row>
-    <row r="518" spans="1:18" ht="15.75">
+    <row r="518" spans="1:18" ht="16">
       <c r="A518" s="12" t="s">
         <v>339</v>
       </c>
@@ -36026,7 +36037,7 @@
       </c>
       <c r="R518"/>
     </row>
-    <row r="519" spans="1:18" ht="15.75">
+    <row r="519" spans="1:18" ht="16">
       <c r="A519" s="12" t="s">
         <v>1293</v>
       </c>
@@ -36068,7 +36079,7 @@
       </c>
       <c r="R519"/>
     </row>
-    <row r="520" spans="1:18" ht="15.75">
+    <row r="520" spans="1:18" ht="16">
       <c r="A520" s="12" t="s">
         <v>1294</v>
       </c>
@@ -36110,7 +36121,7 @@
       </c>
       <c r="R520"/>
     </row>
-    <row r="521" spans="1:18" ht="15.75">
+    <row r="521" spans="1:18" ht="16">
       <c r="A521" s="12" t="s">
         <v>362</v>
       </c>
@@ -36152,7 +36163,7 @@
       </c>
       <c r="R521"/>
     </row>
-    <row r="522" spans="1:18" ht="15.75">
+    <row r="522" spans="1:18" ht="16">
       <c r="A522" s="12" t="s">
         <v>360</v>
       </c>
@@ -36194,7 +36205,7 @@
       </c>
       <c r="R522"/>
     </row>
-    <row r="523" spans="1:18" ht="15.75">
+    <row r="523" spans="1:18" ht="16">
       <c r="A523" s="12" t="s">
         <v>368</v>
       </c>
@@ -36236,7 +36247,7 @@
       </c>
       <c r="R523"/>
     </row>
-    <row r="524" spans="1:18" ht="15.75">
+    <row r="524" spans="1:18" ht="16">
       <c r="A524" s="12" t="s">
         <v>366</v>
       </c>
@@ -36278,7 +36289,7 @@
       </c>
       <c r="R524"/>
     </row>
-    <row r="525" spans="1:18" ht="15.75">
+    <row r="525" spans="1:18" ht="16">
       <c r="A525" s="12" t="s">
         <v>346</v>
       </c>
@@ -36320,7 +36331,7 @@
       </c>
       <c r="R525"/>
     </row>
-    <row r="526" spans="1:18" ht="15.75">
+    <row r="526" spans="1:18" ht="16">
       <c r="A526" s="12" t="s">
         <v>350</v>
       </c>
@@ -36362,7 +36373,7 @@
       </c>
       <c r="R526"/>
     </row>
-    <row r="527" spans="1:18" ht="15.75">
+    <row r="527" spans="1:18" ht="16">
       <c r="A527" s="12" t="s">
         <v>364</v>
       </c>
@@ -36404,7 +36415,7 @@
       </c>
       <c r="R527"/>
     </row>
-    <row r="528" spans="1:18" ht="15.75">
+    <row r="528" spans="1:18" ht="16">
       <c r="A528" s="12" t="s">
         <v>341</v>
       </c>
@@ -36446,7 +36457,7 @@
       </c>
       <c r="R528"/>
     </row>
-    <row r="529" spans="1:18" ht="15.75">
+    <row r="529" spans="1:18" ht="16">
       <c r="A529" s="12" t="s">
         <v>354</v>
       </c>
@@ -36488,7 +36499,7 @@
       </c>
       <c r="R529"/>
     </row>
-    <row r="530" spans="1:18" ht="15.75">
+    <row r="530" spans="1:18" ht="16">
       <c r="A530" s="12" t="s">
         <v>1296</v>
       </c>
@@ -36530,7 +36541,7 @@
       </c>
       <c r="R530"/>
     </row>
-    <row r="531" spans="1:18" ht="15.75">
+    <row r="531" spans="1:18" ht="16">
       <c r="A531" s="12" t="s">
         <v>117</v>
       </c>
@@ -36572,7 +36583,7 @@
       </c>
       <c r="R531"/>
     </row>
-    <row r="532" spans="1:18" ht="15.75">
+    <row r="532" spans="1:18" ht="16">
       <c r="A532" s="12" t="s">
         <v>1298</v>
       </c>
@@ -36614,7 +36625,7 @@
       </c>
       <c r="R532"/>
     </row>
-    <row r="533" spans="1:18" ht="15.75">
+    <row r="533" spans="1:18" ht="16">
       <c r="A533" s="12" t="s">
         <v>1300</v>
       </c>
@@ -36656,7 +36667,7 @@
       </c>
       <c r="R533"/>
     </row>
-    <row r="534" spans="1:18" ht="15.75">
+    <row r="534" spans="1:18" ht="16">
       <c r="A534" s="12" t="s">
         <v>1302</v>
       </c>
@@ -36698,7 +36709,7 @@
       </c>
       <c r="R534"/>
     </row>
-    <row r="535" spans="1:18" ht="15.75">
+    <row r="535" spans="1:18" ht="16">
       <c r="A535" s="12" t="s">
         <v>352</v>
       </c>
@@ -36740,7 +36751,7 @@
       </c>
       <c r="R535"/>
     </row>
-    <row r="536" spans="1:18" ht="15.75">
+    <row r="536" spans="1:18" ht="16">
       <c r="A536" s="12" t="s">
         <v>1304</v>
       </c>
@@ -36782,7 +36793,7 @@
       </c>
       <c r="R536"/>
     </row>
-    <row r="537" spans="1:18" ht="15.75">
+    <row r="537" spans="1:18" ht="16">
       <c r="A537" s="12" t="s">
         <v>348</v>
       </c>
@@ -36824,7 +36835,7 @@
       </c>
       <c r="R537"/>
     </row>
-    <row r="538" spans="1:18" ht="15.75">
+    <row r="538" spans="1:18" ht="16">
       <c r="A538" s="12" t="s">
         <v>356</v>
       </c>
@@ -36866,7 +36877,7 @@
       </c>
       <c r="R538"/>
     </row>
-    <row r="539" spans="1:18" ht="15.75">
+    <row r="539" spans="1:18" ht="16">
       <c r="A539" s="12" t="s">
         <v>358</v>
       </c>
@@ -36908,7 +36919,7 @@
       </c>
       <c r="R539"/>
     </row>
-    <row r="540" spans="1:18" ht="15.75">
+    <row r="540" spans="1:18" ht="16">
       <c r="A540" s="12" t="s">
         <v>343</v>
       </c>
@@ -36950,7 +36961,7 @@
       </c>
       <c r="R540"/>
     </row>
-    <row r="541" spans="1:18" ht="15.75">
+    <row r="541" spans="1:18" ht="16">
       <c r="A541" s="12" t="s">
         <v>372</v>
       </c>
@@ -36992,7 +37003,7 @@
       </c>
       <c r="R541"/>
     </row>
-    <row r="542" spans="1:18" ht="15.75">
+    <row r="542" spans="1:18" ht="16">
       <c r="A542" s="12" t="s">
         <v>1306</v>
       </c>
@@ -37034,7 +37045,7 @@
       </c>
       <c r="R542"/>
     </row>
-    <row r="543" spans="1:18" ht="15.75">
+    <row r="543" spans="1:18" ht="16">
       <c r="A543" s="12" t="s">
         <v>378</v>
       </c>
@@ -37076,7 +37087,7 @@
       </c>
       <c r="R543"/>
     </row>
-    <row r="544" spans="1:18" ht="15.75">
+    <row r="544" spans="1:18" ht="16">
       <c r="A544" s="12" t="s">
         <v>376</v>
       </c>
@@ -37118,7 +37129,7 @@
       </c>
       <c r="R544"/>
     </row>
-    <row r="545" spans="1:18" ht="15.75">
+    <row r="545" spans="1:18" ht="16">
       <c r="A545" s="12" t="s">
         <v>1308</v>
       </c>
@@ -37160,7 +37171,7 @@
       </c>
       <c r="R545"/>
     </row>
-    <row r="546" spans="1:18" ht="15.75">
+    <row r="546" spans="1:18" ht="16">
       <c r="A546" s="12" t="s">
         <v>370</v>
       </c>
@@ -37202,7 +37213,7 @@
       </c>
       <c r="R546"/>
     </row>
-    <row r="547" spans="1:18" ht="15.75">
+    <row r="547" spans="1:18" ht="16">
       <c r="A547" s="12" t="s">
         <v>374</v>
       </c>
@@ -37244,7 +37255,7 @@
       </c>
       <c r="R547"/>
     </row>
-    <row r="548" spans="1:18" ht="15.75">
+    <row r="548" spans="1:18" ht="16">
       <c r="A548" s="12" t="s">
         <v>1310</v>
       </c>
@@ -37286,7 +37297,7 @@
       </c>
       <c r="R548"/>
     </row>
-    <row r="549" spans="1:18" ht="15.75">
+    <row r="549" spans="1:18" ht="16">
       <c r="A549" s="12" t="s">
         <v>387</v>
       </c>
@@ -37328,7 +37339,7 @@
       </c>
       <c r="R549"/>
     </row>
-    <row r="550" spans="1:18" ht="15.75">
+    <row r="550" spans="1:18" ht="16">
       <c r="A550" s="12" t="s">
         <v>1312</v>
       </c>
@@ -37370,7 +37381,7 @@
       </c>
       <c r="R550"/>
     </row>
-    <row r="551" spans="1:18" ht="15.75">
+    <row r="551" spans="1:18" ht="16">
       <c r="A551" s="12" t="s">
         <v>380</v>
       </c>
@@ -37412,7 +37423,7 @@
       </c>
       <c r="R551"/>
     </row>
-    <row r="552" spans="1:18" ht="15.75">
+    <row r="552" spans="1:18" ht="16">
       <c r="A552" s="12" t="s">
         <v>382</v>
       </c>
@@ -37454,7 +37465,7 @@
       </c>
       <c r="R552"/>
     </row>
-    <row r="553" spans="1:18" ht="15.75">
+    <row r="553" spans="1:18" ht="16">
       <c r="A553" s="12" t="s">
         <v>1313</v>
       </c>
@@ -37496,7 +37507,7 @@
       </c>
       <c r="R553"/>
     </row>
-    <row r="554" spans="1:18" ht="15.75">
+    <row r="554" spans="1:18" ht="16">
       <c r="A554" s="12" t="s">
         <v>1315</v>
       </c>
@@ -37538,7 +37549,7 @@
       </c>
       <c r="R554"/>
     </row>
-    <row r="555" spans="1:18" ht="15.75">
+    <row r="555" spans="1:18" ht="16">
       <c r="A555" s="12" t="s">
         <v>1316</v>
       </c>
@@ -37580,7 +37591,7 @@
       </c>
       <c r="R555"/>
     </row>
-    <row r="556" spans="1:18" ht="15.75">
+    <row r="556" spans="1:18" ht="16">
       <c r="A556" s="12" t="s">
         <v>1317</v>
       </c>
@@ -37622,7 +37633,7 @@
       </c>
       <c r="R556"/>
     </row>
-    <row r="557" spans="1:18" ht="15.75">
+    <row r="557" spans="1:18" ht="16">
       <c r="A557" s="12" t="s">
         <v>1318</v>
       </c>
@@ -37664,7 +37675,7 @@
       </c>
       <c r="R557"/>
     </row>
-    <row r="558" spans="1:18" ht="15.75">
+    <row r="558" spans="1:18" ht="16">
       <c r="A558" s="12" t="s">
         <v>1319</v>
       </c>
@@ -37706,7 +37717,7 @@
       </c>
       <c r="R558"/>
     </row>
-    <row r="559" spans="1:18" ht="15.75">
+    <row r="559" spans="1:18" ht="16">
       <c r="A559" s="12" t="s">
         <v>402</v>
       </c>
@@ -37748,7 +37759,7 @@
       </c>
       <c r="R559"/>
     </row>
-    <row r="560" spans="1:18" ht="15.75">
+    <row r="560" spans="1:18" ht="16">
       <c r="A560" s="12" t="s">
         <v>391</v>
       </c>
@@ -37790,7 +37801,7 @@
       </c>
       <c r="R560"/>
     </row>
-    <row r="561" spans="1:18" ht="15.75">
+    <row r="561" spans="1:18" ht="16">
       <c r="A561" s="12" t="s">
         <v>1320</v>
       </c>
@@ -37832,7 +37843,7 @@
       </c>
       <c r="R561"/>
     </row>
-    <row r="562" spans="1:18" ht="15.75">
+    <row r="562" spans="1:18" ht="16">
       <c r="A562" s="12" t="s">
         <v>393</v>
       </c>
@@ -37874,7 +37885,7 @@
       </c>
       <c r="R562"/>
     </row>
-    <row r="563" spans="1:18" ht="15.75">
+    <row r="563" spans="1:18" ht="16">
       <c r="A563" s="12" t="s">
         <v>399</v>
       </c>
@@ -37916,7 +37927,7 @@
       </c>
       <c r="R563"/>
     </row>
-    <row r="564" spans="1:18" ht="15.75">
+    <row r="564" spans="1:18" ht="16">
       <c r="A564" s="12" t="s">
         <v>1322</v>
       </c>
@@ -37958,7 +37969,7 @@
       </c>
       <c r="R564"/>
     </row>
-    <row r="565" spans="1:18" ht="15.75">
+    <row r="565" spans="1:18" ht="16">
       <c r="A565" s="12" t="s">
         <v>512</v>
       </c>
@@ -38000,7 +38011,7 @@
       </c>
       <c r="R565"/>
     </row>
-    <row r="566" spans="1:18" ht="15.75">
+    <row r="566" spans="1:18" ht="16">
       <c r="A566" s="12" t="s">
         <v>395</v>
       </c>
@@ -38042,7 +38053,7 @@
       </c>
       <c r="R566"/>
     </row>
-    <row r="567" spans="1:18" ht="15.75">
+    <row r="567" spans="1:18" ht="16">
       <c r="A567" s="12" t="s">
         <v>389</v>
       </c>
@@ -38084,7 +38095,7 @@
       </c>
       <c r="R567"/>
     </row>
-    <row r="568" spans="1:18" ht="15.75">
+    <row r="568" spans="1:18" ht="16">
       <c r="A568" s="12" t="s">
         <v>1324</v>
       </c>
@@ -38126,7 +38137,7 @@
       </c>
       <c r="R568"/>
     </row>
-    <row r="569" spans="1:18" ht="15.75">
+    <row r="569" spans="1:18" ht="16">
       <c r="A569" s="12" t="s">
         <v>400</v>
       </c>
@@ -38168,7 +38179,7 @@
       </c>
       <c r="R569"/>
     </row>
-    <row r="570" spans="1:18" ht="15.75">
+    <row r="570" spans="1:18" ht="16">
       <c r="A570" s="12" t="s">
         <v>1326</v>
       </c>
@@ -38210,7 +38221,7 @@
       </c>
       <c r="R570"/>
     </row>
-    <row r="571" spans="1:18" ht="15.75">
+    <row r="571" spans="1:18" ht="16">
       <c r="A571" s="12" t="s">
         <v>1327</v>
       </c>
@@ -38252,7 +38263,7 @@
       </c>
       <c r="R571"/>
     </row>
-    <row r="572" spans="1:18" ht="15.75">
+    <row r="572" spans="1:18" ht="16">
       <c r="A572" s="12" t="s">
         <v>1329</v>
       </c>
@@ -38294,7 +38305,7 @@
       </c>
       <c r="R572"/>
     </row>
-    <row r="573" spans="1:18" ht="15.75">
+    <row r="573" spans="1:18" ht="16">
       <c r="A573" s="12" t="s">
         <v>178</v>
       </c>
@@ -38336,7 +38347,7 @@
       </c>
       <c r="R573"/>
     </row>
-    <row r="574" spans="1:18" ht="15.75">
+    <row r="574" spans="1:18" ht="16">
       <c r="A574" s="12" t="s">
         <v>386</v>
       </c>
@@ -38378,7 +38389,7 @@
       </c>
       <c r="R574"/>
     </row>
-    <row r="575" spans="1:18" ht="15.75">
+    <row r="575" spans="1:18" ht="16">
       <c r="A575" s="12" t="s">
         <v>404</v>
       </c>
@@ -38420,7 +38431,7 @@
       </c>
       <c r="R575"/>
     </row>
-    <row r="576" spans="1:18" ht="15.75">
+    <row r="576" spans="1:18" ht="16">
       <c r="A576" s="12" t="s">
         <v>406</v>
       </c>
@@ -38462,7 +38473,7 @@
       </c>
       <c r="R576"/>
     </row>
-    <row r="577" spans="1:18" ht="15.75">
+    <row r="577" spans="1:18" ht="16">
       <c r="A577" s="12" t="s">
         <v>415</v>
       </c>
@@ -38501,7 +38512,7 @@
       </c>
       <c r="R577"/>
     </row>
-    <row r="578" spans="1:18" ht="15.75">
+    <row r="578" spans="1:18" ht="16">
       <c r="A578" s="12" t="s">
         <v>1331</v>
       </c>
@@ -38543,7 +38554,7 @@
       </c>
       <c r="R578"/>
     </row>
-    <row r="579" spans="1:18" ht="15.75">
+    <row r="579" spans="1:18" ht="16">
       <c r="A579" s="12" t="s">
         <v>408</v>
       </c>
@@ -38582,7 +38593,7 @@
       </c>
       <c r="R579"/>
     </row>
-    <row r="580" spans="1:18" ht="15.75">
+    <row r="580" spans="1:18" ht="16">
       <c r="A580" s="12" t="s">
         <v>411</v>
       </c>
@@ -38621,7 +38632,7 @@
       </c>
       <c r="R580"/>
     </row>
-    <row r="581" spans="1:18" ht="15.75">
+    <row r="581" spans="1:18" ht="16">
       <c r="A581" s="12" t="s">
         <v>413</v>
       </c>
@@ -38660,7 +38671,7 @@
       </c>
       <c r="R581"/>
     </row>
-    <row r="582" spans="1:18" ht="15.75">
+    <row r="582" spans="1:18" ht="16">
       <c r="A582" s="12" t="s">
         <v>1333</v>
       </c>
@@ -38702,7 +38713,7 @@
       </c>
       <c r="R582"/>
     </row>
-    <row r="583" spans="1:18" ht="15.75">
+    <row r="583" spans="1:18" ht="16">
       <c r="A583" s="12" t="s">
         <v>423</v>
       </c>
@@ -38741,7 +38752,7 @@
       </c>
       <c r="R583"/>
     </row>
-    <row r="584" spans="1:18" ht="15.75">
+    <row r="584" spans="1:18" ht="16">
       <c r="A584" s="12" t="s">
         <v>1335</v>
       </c>
@@ -38780,7 +38791,7 @@
       </c>
       <c r="R584"/>
     </row>
-    <row r="585" spans="1:18" ht="15.75">
+    <row r="585" spans="1:18" ht="16">
       <c r="A585" s="12" t="s">
         <v>417</v>
       </c>
@@ -38819,7 +38830,7 @@
       </c>
       <c r="R585"/>
     </row>
-    <row r="586" spans="1:18" ht="15.75">
+    <row r="586" spans="1:18" ht="16">
       <c r="A586" s="12" t="s">
         <v>1337</v>
       </c>
@@ -38858,7 +38869,7 @@
       </c>
       <c r="R586"/>
     </row>
-    <row r="587" spans="1:18" ht="15.75">
+    <row r="587" spans="1:18" ht="16">
       <c r="A587" s="12" t="s">
         <v>421</v>
       </c>
@@ -38897,7 +38908,7 @@
       </c>
       <c r="R587"/>
     </row>
-    <row r="588" spans="1:18" ht="15.75">
+    <row r="588" spans="1:18" ht="16">
       <c r="A588" s="12" t="s">
         <v>1339</v>
       </c>
@@ -38939,7 +38950,7 @@
       </c>
       <c r="R588"/>
     </row>
-    <row r="589" spans="1:18" ht="15.75">
+    <row r="589" spans="1:18" ht="16">
       <c r="A589" s="12" t="s">
         <v>419</v>
       </c>
@@ -38978,7 +38989,7 @@
       </c>
       <c r="R589"/>
     </row>
-    <row r="590" spans="1:18" ht="15.75">
+    <row r="590" spans="1:18" ht="16">
       <c r="A590" s="12" t="s">
         <v>433</v>
       </c>
@@ -39014,7 +39025,7 @@
       </c>
       <c r="R590"/>
     </row>
-    <row r="591" spans="1:18" ht="15.75">
+    <row r="591" spans="1:18" ht="16">
       <c r="A591" s="12" t="s">
         <v>431</v>
       </c>
@@ -39050,7 +39061,7 @@
       </c>
       <c r="R591"/>
     </row>
-    <row r="592" spans="1:18" ht="15.75">
+    <row r="592" spans="1:18" ht="16">
       <c r="A592" s="12" t="s">
         <v>427</v>
       </c>
@@ -39086,7 +39097,7 @@
       </c>
       <c r="R592"/>
     </row>
-    <row r="593" spans="1:18" ht="15.75">
+    <row r="593" spans="1:18" ht="16">
       <c r="A593" s="12" t="s">
         <v>429</v>
       </c>
@@ -39122,7 +39133,7 @@
       </c>
       <c r="R593"/>
     </row>
-    <row r="594" spans="1:18" ht="15.75">
+    <row r="594" spans="1:18" ht="16">
       <c r="A594" s="12" t="s">
         <v>425</v>
       </c>
@@ -39158,7 +39169,7 @@
       </c>
       <c r="R594"/>
     </row>
-    <row r="595" spans="1:18" ht="15.75">
+    <row r="595" spans="1:18" ht="16">
       <c r="A595" s="12" t="s">
         <v>1341</v>
       </c>
@@ -39194,7 +39205,7 @@
       </c>
       <c r="R595"/>
     </row>
-    <row r="596" spans="1:18" ht="15.75">
+    <row r="596" spans="1:18" ht="16">
       <c r="A596" s="12" t="s">
         <v>1343</v>
       </c>
@@ -39227,7 +39238,7 @@
       </c>
       <c r="R596"/>
     </row>
-    <row r="597" spans="1:18" ht="15.75">
+    <row r="597" spans="1:18" ht="16">
       <c r="A597" s="12" t="s">
         <v>54</v>
       </c>
@@ -39260,7 +39271,7 @@
       </c>
       <c r="R597"/>
     </row>
-    <row r="598" spans="1:18" ht="15.75">
+    <row r="598" spans="1:18" ht="16">
       <c r="A598" s="12" t="s">
         <v>1344</v>
       </c>
@@ -39293,7 +39304,7 @@
       </c>
       <c r="R598"/>
     </row>
-    <row r="599" spans="1:18" ht="15.75">
+    <row r="599" spans="1:18" ht="16">
       <c r="A599" s="12" t="s">
         <v>437</v>
       </c>
@@ -39326,7 +39337,7 @@
       </c>
       <c r="R599"/>
     </row>
-    <row r="600" spans="1:18" ht="15.75">
+    <row r="600" spans="1:18" ht="16">
       <c r="A600" s="12" t="s">
         <v>435</v>
       </c>
@@ -39359,7 +39370,7 @@
       </c>
       <c r="R600"/>
     </row>
-    <row r="601" spans="1:18" ht="15.75">
+    <row r="601" spans="1:18" ht="16">
       <c r="A601" s="12" t="s">
         <v>453</v>
       </c>
@@ -39392,7 +39403,7 @@
       </c>
       <c r="R601"/>
     </row>
-    <row r="602" spans="1:18" ht="15.75">
+    <row r="602" spans="1:18" ht="16">
       <c r="A602" s="12" t="s">
         <v>451</v>
       </c>
@@ -39425,7 +39436,7 @@
       </c>
       <c r="R602"/>
     </row>
-    <row r="603" spans="1:18" ht="15.75">
+    <row r="603" spans="1:18" ht="16">
       <c r="A603" s="12" t="s">
         <v>441</v>
       </c>
@@ -39458,7 +39469,7 @@
       </c>
       <c r="R603"/>
     </row>
-    <row r="604" spans="1:18" ht="15.75">
+    <row r="604" spans="1:18" ht="16">
       <c r="A604" s="12" t="s">
         <v>1345</v>
       </c>
@@ -39491,7 +39502,7 @@
       </c>
       <c r="R604"/>
     </row>
-    <row r="605" spans="1:18" ht="15.75">
+    <row r="605" spans="1:18" ht="16">
       <c r="A605" s="12" t="s">
         <v>445</v>
       </c>
@@ -39524,7 +39535,7 @@
       </c>
       <c r="R605"/>
     </row>
-    <row r="606" spans="1:18" ht="15.75">
+    <row r="606" spans="1:18" ht="16">
       <c r="A606" s="12" t="s">
         <v>439</v>
       </c>
@@ -39557,7 +39568,7 @@
       </c>
       <c r="R606"/>
     </row>
-    <row r="607" spans="1:18" ht="15.75">
+    <row r="607" spans="1:18" ht="16">
       <c r="A607" s="12" t="s">
         <v>443</v>
       </c>
@@ -39590,7 +39601,7 @@
       </c>
       <c r="R607"/>
     </row>
-    <row r="608" spans="1:18" ht="15.75">
+    <row r="608" spans="1:18" ht="16">
       <c r="A608" s="12" t="s">
         <v>447</v>
       </c>
@@ -39623,7 +39634,7 @@
       </c>
       <c r="R608"/>
     </row>
-    <row r="609" spans="1:18" ht="15.75">
+    <row r="609" spans="1:18" ht="16">
       <c r="A609" s="12" t="s">
         <v>449</v>
       </c>
@@ -39656,7 +39667,7 @@
       </c>
       <c r="R609"/>
     </row>
-    <row r="610" spans="1:18" ht="15.75">
+    <row r="610" spans="1:18" ht="16">
       <c r="A610" s="12" t="s">
         <v>459</v>
       </c>
@@ -39689,7 +39700,7 @@
       </c>
       <c r="R610"/>
     </row>
-    <row r="611" spans="1:18" ht="15.75">
+    <row r="611" spans="1:18" ht="16">
       <c r="A611" s="12" t="s">
         <v>1348</v>
       </c>
@@ -39722,7 +39733,7 @@
       </c>
       <c r="R611"/>
     </row>
-    <row r="612" spans="1:18" ht="15.75">
+    <row r="612" spans="1:18" ht="16">
       <c r="A612" s="12" t="s">
         <v>1349</v>
       </c>
@@ -39755,7 +39766,7 @@
       </c>
       <c r="R612"/>
     </row>
-    <row r="613" spans="1:18" ht="15.75">
+    <row r="613" spans="1:18" ht="16">
       <c r="A613" s="12" t="s">
         <v>1350</v>
       </c>
@@ -39788,7 +39799,7 @@
       </c>
       <c r="R613"/>
     </row>
-    <row r="614" spans="1:18" ht="15.75">
+    <row r="614" spans="1:18" ht="16">
       <c r="A614" s="12" t="s">
         <v>463</v>
       </c>
@@ -39821,7 +39832,7 @@
       </c>
       <c r="R614"/>
     </row>
-    <row r="615" spans="1:18" ht="15.75">
+    <row r="615" spans="1:18" ht="16">
       <c r="A615" s="12" t="s">
         <v>1351</v>
       </c>
@@ -39863,7 +39874,7 @@
       </c>
       <c r="R615"/>
     </row>
-    <row r="616" spans="1:18" ht="15.75">
+    <row r="616" spans="1:18" ht="16">
       <c r="A616" s="12" t="s">
         <v>455</v>
       </c>
@@ -39896,7 +39907,7 @@
       </c>
       <c r="R616"/>
     </row>
-    <row r="617" spans="1:18" ht="15.75">
+    <row r="617" spans="1:18" ht="16">
       <c r="A617" s="12" t="s">
         <v>461</v>
       </c>
@@ -39929,7 +39940,7 @@
       </c>
       <c r="R617"/>
     </row>
-    <row r="618" spans="1:18" ht="15.75">
+    <row r="618" spans="1:18" ht="16">
       <c r="A618" s="12" t="s">
         <v>515</v>
       </c>
@@ -39962,7 +39973,7 @@
       </c>
       <c r="R618"/>
     </row>
-    <row r="619" spans="1:18" ht="15.75">
+    <row r="619" spans="1:18" ht="16">
       <c r="A619" s="12" t="s">
         <v>1352</v>
       </c>
@@ -39995,7 +40006,7 @@
       </c>
       <c r="R619"/>
     </row>
-    <row r="620" spans="1:18" ht="15.75">
+    <row r="620" spans="1:18" ht="16">
       <c r="A620" s="12" t="s">
         <v>1353</v>
       </c>
@@ -40028,7 +40039,7 @@
       </c>
       <c r="R620"/>
     </row>
-    <row r="621" spans="1:18" ht="15.75">
+    <row r="621" spans="1:18" ht="16">
       <c r="A621" s="12" t="s">
         <v>467</v>
       </c>
@@ -40061,7 +40072,7 @@
       </c>
       <c r="R621"/>
     </row>
-    <row r="622" spans="1:18" ht="15.75">
+    <row r="622" spans="1:18" ht="16">
       <c r="A622" s="12" t="s">
         <v>471</v>
       </c>
@@ -40094,7 +40105,7 @@
       </c>
       <c r="R622"/>
     </row>
-    <row r="623" spans="1:18" ht="15.75">
+    <row r="623" spans="1:18" ht="16">
       <c r="A623" s="12" t="s">
         <v>465</v>
       </c>
@@ -40127,7 +40138,7 @@
       </c>
       <c r="R623"/>
     </row>
-    <row r="624" spans="1:18" ht="15.75">
+    <row r="624" spans="1:18" ht="16">
       <c r="A624" s="12" t="s">
         <v>482</v>
       </c>
@@ -40160,7 +40171,7 @@
       </c>
       <c r="R624"/>
     </row>
-    <row r="625" spans="1:18" ht="15.75">
+    <row r="625" spans="1:18" ht="16">
       <c r="A625" s="12" t="s">
         <v>469</v>
       </c>
@@ -40193,7 +40204,7 @@
       </c>
       <c r="R625"/>
     </row>
-    <row r="626" spans="1:18" ht="15.75">
+    <row r="626" spans="1:18" ht="16">
       <c r="A626" s="12" t="s">
         <v>476</v>
       </c>
@@ -40226,7 +40237,7 @@
       </c>
       <c r="R626"/>
     </row>
-    <row r="627" spans="1:18" ht="15.75">
+    <row r="627" spans="1:18" ht="16">
       <c r="A627" s="12" t="s">
         <v>480</v>
       </c>
@@ -40259,7 +40270,7 @@
       </c>
       <c r="R627"/>
     </row>
-    <row r="628" spans="1:18" ht="15.75">
+    <row r="628" spans="1:18" ht="16">
       <c r="A628" s="12" t="s">
         <v>474</v>
       </c>
@@ -40292,7 +40303,7 @@
       </c>
       <c r="R628"/>
     </row>
-    <row r="629" spans="1:18" ht="15.75">
+    <row r="629" spans="1:18" ht="16">
       <c r="A629" s="12" t="s">
         <v>1354</v>
       </c>
@@ -40325,7 +40336,7 @@
       </c>
       <c r="R629"/>
     </row>
-    <row r="630" spans="1:18" ht="15.75">
+    <row r="630" spans="1:18" ht="16">
       <c r="A630" s="12" t="s">
         <v>478</v>
       </c>
@@ -40358,7 +40369,7 @@
       </c>
       <c r="R630"/>
     </row>
-    <row r="631" spans="1:18" ht="15.75">
+    <row r="631" spans="1:18" ht="16">
       <c r="A631" s="12" t="s">
         <v>95</v>
       </c>
@@ -40391,7 +40402,7 @@
       </c>
       <c r="R631"/>
     </row>
-    <row r="632" spans="1:18" ht="15.75">
+    <row r="632" spans="1:18" ht="16">
       <c r="A632" s="12" t="s">
         <v>61</v>
       </c>
@@ -40424,7 +40435,7 @@
       </c>
       <c r="R632"/>
     </row>
-    <row r="633" spans="1:18" ht="15.75">
+    <row r="633" spans="1:18" ht="16">
       <c r="A633" s="12" t="s">
         <v>484</v>
       </c>
@@ -40457,7 +40468,7 @@
       </c>
       <c r="R633"/>
     </row>
-    <row r="634" spans="1:18" ht="15.75">
+    <row r="634" spans="1:18" ht="16">
       <c r="A634" s="12" t="s">
         <v>486</v>
       </c>
@@ -40490,7 +40501,7 @@
       </c>
       <c r="R634"/>
     </row>
-    <row r="635" spans="1:18" ht="15.75">
+    <row r="635" spans="1:18" ht="16">
       <c r="A635" s="12" t="s">
         <v>488</v>
       </c>
@@ -40523,7 +40534,7 @@
       </c>
       <c r="R635"/>
     </row>
-    <row r="636" spans="1:18" ht="15.75">
+    <row r="636" spans="1:18" ht="16">
       <c r="A636" s="12" t="s">
         <v>67</v>
       </c>
@@ -40556,7 +40567,7 @@
       </c>
       <c r="R636"/>
     </row>
-    <row r="637" spans="1:18" ht="15.75">
+    <row r="637" spans="1:18" ht="16">
       <c r="A637" s="12" t="s">
         <v>1356</v>
       </c>
@@ -40586,7 +40597,7 @@
       </c>
       <c r="R637"/>
     </row>
-    <row r="638" spans="1:18" ht="15.75">
+    <row r="638" spans="1:18" ht="16">
       <c r="A638" s="12" t="s">
         <v>492</v>
       </c>
@@ -40616,7 +40627,7 @@
       </c>
       <c r="R638"/>
     </row>
-    <row r="639" spans="1:18" ht="15.75">
+    <row r="639" spans="1:18" ht="16">
       <c r="A639" s="12" t="s">
         <v>1357</v>
       </c>
@@ -40647,7 +40658,7 @@
       </c>
       <c r="R639"/>
     </row>
-    <row r="640" spans="1:18" ht="15.75">
+    <row r="640" spans="1:18" ht="16">
       <c r="A640" s="12" t="s">
         <v>1359</v>
       </c>
@@ -40678,7 +40689,7 @@
       </c>
       <c r="R640"/>
     </row>
-    <row r="641" spans="1:18" ht="15.75">
+    <row r="641" spans="1:18" ht="16">
       <c r="A641" s="12" t="s">
         <v>1361</v>
       </c>
@@ -40709,7 +40720,7 @@
       </c>
       <c r="R641"/>
     </row>
-    <row r="642" spans="1:18" ht="15.75">
+    <row r="642" spans="1:18" ht="16">
       <c r="A642" s="12" t="s">
         <v>1363</v>
       </c>
@@ -40740,7 +40751,7 @@
       </c>
       <c r="R642"/>
     </row>
-    <row r="643" spans="1:18" ht="15.75">
+    <row r="643" spans="1:18" ht="16">
       <c r="A643" s="12" t="s">
         <v>1365</v>
       </c>
@@ -40771,7 +40782,7 @@
       </c>
       <c r="R643"/>
     </row>
-    <row r="644" spans="1:18" ht="15.75">
+    <row r="644" spans="1:18" ht="16">
       <c r="A644" s="12" t="s">
         <v>1367</v>
       </c>
@@ -40813,7 +40824,7 @@
       </c>
       <c r="R644"/>
     </row>
-    <row r="645" spans="1:18" ht="15.75">
+    <row r="645" spans="1:18" ht="16">
       <c r="A645" s="12" t="s">
         <v>1370</v>
       </c>
@@ -40855,7 +40866,7 @@
       </c>
       <c r="R645"/>
     </row>
-    <row r="646" spans="1:18" ht="15.75">
+    <row r="646" spans="1:18" ht="16">
       <c r="A646" s="12" t="s">
         <v>1372</v>
       </c>
@@ -40897,7 +40908,7 @@
       </c>
       <c r="R646"/>
     </row>
-    <row r="647" spans="1:18" ht="15.75">
+    <row r="647" spans="1:18" ht="16">
       <c r="A647" s="12" t="s">
         <v>1374</v>
       </c>
@@ -40939,7 +40950,7 @@
       </c>
       <c r="R647"/>
     </row>
-    <row r="648" spans="1:18" ht="15.75">
+    <row r="648" spans="1:18" ht="16">
       <c r="A648" s="12" t="s">
         <v>1376</v>
       </c>
@@ -40981,7 +40992,7 @@
       </c>
       <c r="R648"/>
     </row>
-    <row r="649" spans="1:18" ht="15.75">
+    <row r="649" spans="1:18" ht="16">
       <c r="A649" s="12" t="s">
         <v>1378</v>
       </c>
@@ -41023,7 +41034,7 @@
       </c>
       <c r="R649"/>
     </row>
-    <row r="650" spans="1:18" ht="15.75">
+    <row r="650" spans="1:18" ht="16">
       <c r="A650" s="12" t="s">
         <v>1380</v>
       </c>
@@ -41065,7 +41076,7 @@
       </c>
       <c r="R650"/>
     </row>
-    <row r="651" spans="1:18" ht="15.75">
+    <row r="651" spans="1:18" ht="16">
       <c r="A651" s="12" t="s">
         <v>1382</v>
       </c>
@@ -41107,7 +41118,7 @@
       </c>
       <c r="R651"/>
     </row>
-    <row r="652" spans="1:18" ht="15.75">
+    <row r="652" spans="1:18" ht="16">
       <c r="A652" s="12" t="s">
         <v>1384</v>
       </c>
@@ -41149,7 +41160,7 @@
       </c>
       <c r="R652"/>
     </row>
-    <row r="653" spans="1:18" ht="15.75">
+    <row r="653" spans="1:18" ht="16">
       <c r="A653" s="12" t="s">
         <v>1386</v>
       </c>
@@ -41191,7 +41202,7 @@
       </c>
       <c r="R653"/>
     </row>
-    <row r="654" spans="1:18" ht="15.75">
+    <row r="654" spans="1:18" ht="16">
       <c r="A654" s="12" t="s">
         <v>1388</v>
       </c>
@@ -41233,7 +41244,7 @@
       </c>
       <c r="R654"/>
     </row>
-    <row r="655" spans="1:18" ht="15.75">
+    <row r="655" spans="1:18" ht="16">
       <c r="A655" s="12" t="s">
         <v>1390</v>
       </c>
@@ -41275,7 +41286,7 @@
       </c>
       <c r="R655"/>
     </row>
-    <row r="656" spans="1:18" ht="15.75">
+    <row r="656" spans="1:18" ht="16">
       <c r="A656" s="12" t="s">
         <v>1393</v>
       </c>
@@ -41317,7 +41328,7 @@
       </c>
       <c r="R656"/>
     </row>
-    <row r="657" spans="1:18" ht="15.75">
+    <row r="657" spans="1:18" ht="16">
       <c r="A657" s="12" t="s">
         <v>1395</v>
       </c>
@@ -41359,7 +41370,7 @@
       </c>
       <c r="R657"/>
     </row>
-    <row r="658" spans="1:18" ht="15.75">
+    <row r="658" spans="1:18" ht="16">
       <c r="A658" s="12" t="s">
         <v>605</v>
       </c>
@@ -41401,7 +41412,7 @@
       </c>
       <c r="R658"/>
     </row>
-    <row r="659" spans="1:18" ht="15.75">
+    <row r="659" spans="1:18" ht="16">
       <c r="A659" s="12" t="s">
         <v>1398</v>
       </c>
@@ -41443,7 +41454,7 @@
       </c>
       <c r="R659"/>
     </row>
-    <row r="660" spans="1:18" ht="15.75">
+    <row r="660" spans="1:18" ht="16">
       <c r="A660" s="12" t="s">
         <v>1400</v>
       </c>
@@ -41485,7 +41496,7 @@
       </c>
       <c r="R660"/>
     </row>
-    <row r="661" spans="1:18" ht="15.75">
+    <row r="661" spans="1:18" ht="16">
       <c r="A661" s="12" t="s">
         <v>1402</v>
       </c>
@@ -41527,7 +41538,7 @@
       </c>
       <c r="R661"/>
     </row>
-    <row r="662" spans="1:18" ht="15.75">
+    <row r="662" spans="1:18" ht="16">
       <c r="A662" s="12" t="s">
         <v>1404</v>
       </c>
@@ -41569,7 +41580,7 @@
       </c>
       <c r="R662"/>
     </row>
-    <row r="663" spans="1:18" ht="15.75">
+    <row r="663" spans="1:18" ht="16">
       <c r="A663" s="12" t="s">
         <v>1406</v>
       </c>
@@ -41611,7 +41622,7 @@
       </c>
       <c r="R663"/>
     </row>
-    <row r="664" spans="1:18" ht="15.75">
+    <row r="664" spans="1:18" ht="16">
       <c r="A664" s="12" t="s">
         <v>1408</v>
       </c>
@@ -41653,7 +41664,7 @@
       </c>
       <c r="R664"/>
     </row>
-    <row r="665" spans="1:18" ht="15.75">
+    <row r="665" spans="1:18" ht="16">
       <c r="A665" s="12" t="s">
         <v>1410</v>
       </c>
@@ -41695,7 +41706,7 @@
       </c>
       <c r="R665"/>
     </row>
-    <row r="666" spans="1:18" ht="15.75">
+    <row r="666" spans="1:18" ht="16">
       <c r="A666" s="12" t="s">
         <v>1412</v>
       </c>
@@ -41737,7 +41748,7 @@
       </c>
       <c r="R666"/>
     </row>
-    <row r="667" spans="1:18" ht="15.75">
+    <row r="667" spans="1:18" ht="16">
       <c r="A667" s="12" t="s">
         <v>1414</v>
       </c>
@@ -41779,7 +41790,7 @@
       </c>
       <c r="R667"/>
     </row>
-    <row r="668" spans="1:18" ht="15.75">
+    <row r="668" spans="1:18" ht="16">
       <c r="A668" s="12" t="s">
         <v>510</v>
       </c>
@@ -41821,7 +41832,7 @@
       </c>
       <c r="R668"/>
     </row>
-    <row r="669" spans="1:18" ht="15.75">
+    <row r="669" spans="1:18" ht="16">
       <c r="A669" s="12" t="s">
         <v>1416</v>
       </c>
@@ -41863,7 +41874,7 @@
       </c>
       <c r="R669"/>
     </row>
-    <row r="670" spans="1:18" ht="15.75">
+    <row r="670" spans="1:18" ht="16">
       <c r="A670" s="12" t="s">
         <v>1418</v>
       </c>
@@ -41905,7 +41916,7 @@
       </c>
       <c r="R670"/>
     </row>
-    <row r="671" spans="1:18" ht="15.75">
+    <row r="671" spans="1:18" ht="16">
       <c r="A671" s="12" t="s">
         <v>1420</v>
       </c>
@@ -41947,7 +41958,7 @@
       </c>
       <c r="R671"/>
     </row>
-    <row r="672" spans="1:18" ht="15.75">
+    <row r="672" spans="1:18" ht="16">
       <c r="A672" s="12" t="s">
         <v>1422</v>
       </c>
@@ -41989,7 +42000,7 @@
       </c>
       <c r="R672"/>
     </row>
-    <row r="673" spans="1:18" ht="15.75">
+    <row r="673" spans="1:18" ht="16">
       <c r="A673" s="12" t="s">
         <v>1424</v>
       </c>
@@ -42031,7 +42042,7 @@
       </c>
       <c r="R673"/>
     </row>
-    <row r="674" spans="1:18" ht="15.75">
+    <row r="674" spans="1:18" ht="16">
       <c r="A674" s="12" t="s">
         <v>1426</v>
       </c>
@@ -42073,7 +42084,7 @@
       </c>
       <c r="R674"/>
     </row>
-    <row r="675" spans="1:18" ht="15.75">
+    <row r="675" spans="1:18" ht="16">
       <c r="A675" s="12" t="s">
         <v>1428</v>
       </c>
@@ -42115,7 +42126,7 @@
       </c>
       <c r="R675"/>
     </row>
-    <row r="676" spans="1:18" ht="15.75">
+    <row r="676" spans="1:18" ht="16">
       <c r="A676" s="12" t="s">
         <v>1430</v>
       </c>
@@ -42157,7 +42168,7 @@
       </c>
       <c r="R676"/>
     </row>
-    <row r="677" spans="1:18" ht="15.75">
+    <row r="677" spans="1:18" ht="16">
       <c r="A677" s="12" t="s">
         <v>1432</v>
       </c>
@@ -42199,7 +42210,7 @@
       </c>
       <c r="R677"/>
     </row>
-    <row r="678" spans="1:18" ht="15.75">
+    <row r="678" spans="1:18" ht="16">
       <c r="A678" s="12" t="s">
         <v>1433</v>
       </c>
@@ -42235,7 +42246,7 @@
       </c>
       <c r="R678"/>
     </row>
-    <row r="679" spans="1:18" ht="15.75">
+    <row r="679" spans="1:18" ht="16">
       <c r="A679" s="12" t="s">
         <v>1435</v>
       </c>
@@ -42271,7 +42282,7 @@
       </c>
       <c r="R679"/>
     </row>
-    <row r="680" spans="1:18" ht="15.75">
+    <row r="680" spans="1:18" ht="16">
       <c r="A680" s="12" t="s">
         <v>1437</v>
       </c>
@@ -42307,7 +42318,7 @@
       </c>
       <c r="R680"/>
     </row>
-    <row r="681" spans="1:18" ht="15.75">
+    <row r="681" spans="1:18" ht="16">
       <c r="A681" s="12" t="s">
         <v>1439</v>
       </c>
@@ -42343,7 +42354,7 @@
       </c>
       <c r="R681"/>
     </row>
-    <row r="682" spans="1:18" ht="15.75">
+    <row r="682" spans="1:18" ht="16">
       <c r="A682" s="12" t="s">
         <v>1441</v>
       </c>
@@ -42379,7 +42390,7 @@
       </c>
       <c r="R682"/>
     </row>
-    <row r="683" spans="1:18" ht="15.75">
+    <row r="683" spans="1:18" ht="16">
       <c r="A683" s="12" t="s">
         <v>1443</v>
       </c>
@@ -42415,7 +42426,7 @@
       </c>
       <c r="R683"/>
     </row>
-    <row r="684" spans="1:18" ht="15.75">
+    <row r="684" spans="1:18" ht="16">
       <c r="A684" s="12" t="s">
         <v>1445</v>
       </c>
@@ -42451,7 +42462,7 @@
       </c>
       <c r="R684"/>
     </row>
-    <row r="685" spans="1:18" ht="15.75">
+    <row r="685" spans="1:18" ht="16">
       <c r="A685" s="12" t="s">
         <v>1447</v>
       </c>
@@ -42487,7 +42498,7 @@
       </c>
       <c r="R685"/>
     </row>
-    <row r="686" spans="1:18" ht="15.75">
+    <row r="686" spans="1:18" ht="16">
       <c r="A686" s="12" t="s">
         <v>1449</v>
       </c>
@@ -42523,7 +42534,7 @@
       </c>
       <c r="R686"/>
     </row>
-    <row r="687" spans="1:18" ht="15.75">
+    <row r="687" spans="1:18" ht="16">
       <c r="A687" s="12" t="s">
         <v>1451</v>
       </c>
@@ -42559,7 +42570,7 @@
       </c>
       <c r="R687"/>
     </row>
-    <row r="688" spans="1:18" ht="15.75">
+    <row r="688" spans="1:18" ht="16">
       <c r="A688" s="12" t="s">
         <v>1453</v>
       </c>
@@ -42595,7 +42606,7 @@
       </c>
       <c r="R688"/>
     </row>
-    <row r="689" spans="1:18" ht="15.75">
+    <row r="689" spans="1:18" ht="16">
       <c r="A689" s="12" t="s">
         <v>1455</v>
       </c>
@@ -42631,7 +42642,7 @@
       </c>
       <c r="R689"/>
     </row>
-    <row r="690" spans="1:18" ht="15.75">
+    <row r="690" spans="1:18" ht="16">
       <c r="A690" s="12" t="s">
         <v>1457</v>
       </c>
@@ -42667,7 +42678,7 @@
       </c>
       <c r="R690"/>
     </row>
-    <row r="691" spans="1:18" ht="15.75">
+    <row r="691" spans="1:18" ht="16">
       <c r="A691" s="12" t="s">
         <v>1459</v>
       </c>
@@ -42703,7 +42714,7 @@
       </c>
       <c r="R691"/>
     </row>
-    <row r="692" spans="1:18" ht="15.75">
+    <row r="692" spans="1:18" ht="16">
       <c r="A692" s="12" t="s">
         <v>1461</v>
       </c>
@@ -42739,7 +42750,7 @@
       </c>
       <c r="R692"/>
     </row>
-    <row r="693" spans="1:18" ht="15.75">
+    <row r="693" spans="1:18" ht="16">
       <c r="A693" s="12" t="s">
         <v>1463</v>
       </c>
@@ -42775,7 +42786,7 @@
       </c>
       <c r="R693"/>
     </row>
-    <row r="694" spans="1:18" ht="15.75">
+    <row r="694" spans="1:18" ht="16">
       <c r="A694" s="12" t="s">
         <v>1465</v>
       </c>
@@ -42811,7 +42822,7 @@
       </c>
       <c r="R694"/>
     </row>
-    <row r="695" spans="1:18" ht="15.75">
+    <row r="695" spans="1:18" ht="16">
       <c r="A695" s="12" t="s">
         <v>1467</v>
       </c>
@@ -42847,7 +42858,7 @@
       </c>
       <c r="R695"/>
     </row>
-    <row r="696" spans="1:18" ht="15.75">
+    <row r="696" spans="1:18" ht="16">
       <c r="A696" s="12" t="s">
         <v>1469</v>
       </c>
@@ -42883,7 +42894,7 @@
       </c>
       <c r="R696"/>
     </row>
-    <row r="697" spans="1:18" ht="15.75">
+    <row r="697" spans="1:18" ht="16">
       <c r="A697" s="12" t="s">
         <v>1471</v>
       </c>
@@ -42919,7 +42930,7 @@
       </c>
       <c r="R697"/>
     </row>
-    <row r="698" spans="1:18" ht="15.75">
+    <row r="698" spans="1:18" ht="16">
       <c r="A698" s="12" t="s">
         <v>1473</v>
       </c>
@@ -42955,7 +42966,7 @@
       </c>
       <c r="R698"/>
     </row>
-    <row r="699" spans="1:18" ht="15.75">
+    <row r="699" spans="1:18" ht="16">
       <c r="A699" s="12" t="s">
         <v>1475</v>
       </c>
@@ -42991,7 +43002,7 @@
       </c>
       <c r="R699"/>
     </row>
-    <row r="700" spans="1:18" ht="15.75">
+    <row r="700" spans="1:18" ht="16">
       <c r="A700" s="12" t="s">
         <v>1477</v>
       </c>
@@ -43027,7 +43038,7 @@
       </c>
       <c r="R700"/>
     </row>
-    <row r="701" spans="1:18" ht="15.75">
+    <row r="701" spans="1:18" ht="16">
       <c r="A701" s="12" t="s">
         <v>1479</v>
       </c>
@@ -43063,7 +43074,7 @@
       </c>
       <c r="R701"/>
     </row>
-    <row r="702" spans="1:18" ht="15.75">
+    <row r="702" spans="1:18" ht="16">
       <c r="A702" s="12" t="s">
         <v>1481</v>
       </c>
@@ -43099,7 +43110,7 @@
       </c>
       <c r="R702"/>
     </row>
-    <row r="703" spans="1:18" ht="15.75">
+    <row r="703" spans="1:18" ht="16">
       <c r="A703" s="12" t="s">
         <v>1483</v>
       </c>
@@ -43135,7 +43146,7 @@
       </c>
       <c r="R703"/>
     </row>
-    <row r="704" spans="1:18" ht="15.75">
+    <row r="704" spans="1:18" ht="16">
       <c r="A704" s="12" t="s">
         <v>1485</v>
       </c>
@@ -43171,7 +43182,7 @@
       </c>
       <c r="R704"/>
     </row>
-    <row r="705" spans="1:18" ht="15.75">
+    <row r="705" spans="1:18" ht="16">
       <c r="A705" s="12" t="s">
         <v>1487</v>
       </c>
@@ -43207,7 +43218,7 @@
       </c>
       <c r="R705"/>
     </row>
-    <row r="706" spans="1:18" ht="15.75">
+    <row r="706" spans="1:18" ht="16">
       <c r="A706" s="12" t="s">
         <v>1488</v>
       </c>
@@ -43243,7 +43254,7 @@
       </c>
       <c r="R706"/>
     </row>
-    <row r="707" spans="1:18" ht="15.75">
+    <row r="707" spans="1:18" ht="16">
       <c r="A707" s="12" t="s">
         <v>1489</v>
       </c>
@@ -43279,7 +43290,7 @@
       </c>
       <c r="R707"/>
     </row>
-    <row r="708" spans="1:18" ht="15.75">
+    <row r="708" spans="1:18" ht="16">
       <c r="A708" s="12" t="s">
         <v>1490</v>
       </c>
@@ -43315,7 +43326,7 @@
       </c>
       <c r="R708"/>
     </row>
-    <row r="709" spans="1:18" ht="15.75">
+    <row r="709" spans="1:18" ht="16">
       <c r="A709" s="12" t="s">
         <v>1491</v>
       </c>
@@ -43351,7 +43362,7 @@
       </c>
       <c r="R709"/>
     </row>
-    <row r="710" spans="1:18" ht="15.75">
+    <row r="710" spans="1:18" ht="16">
       <c r="A710" s="12" t="s">
         <v>1492</v>
       </c>
@@ -43387,7 +43398,7 @@
       </c>
       <c r="R710"/>
     </row>
-    <row r="711" spans="1:18" ht="15.75">
+    <row r="711" spans="1:18" ht="16">
       <c r="A711" s="12" t="s">
         <v>1494</v>
       </c>
@@ -43420,7 +43431,7 @@
       </c>
       <c r="R711"/>
     </row>
-    <row r="712" spans="1:18" ht="15.75">
+    <row r="712" spans="1:18" ht="16">
       <c r="A712" s="12" t="s">
         <v>1496</v>
       </c>
@@ -43453,7 +43464,7 @@
       </c>
       <c r="R712"/>
     </row>
-    <row r="713" spans="1:18" ht="15.75">
+    <row r="713" spans="1:18" ht="16">
       <c r="A713" s="12" t="s">
         <v>1498</v>
       </c>
@@ -43486,7 +43497,7 @@
       </c>
       <c r="R713"/>
     </row>
-    <row r="714" spans="1:18" ht="15.75">
+    <row r="714" spans="1:18" ht="16">
       <c r="A714" s="12" t="s">
         <v>1500</v>
       </c>
@@ -43519,7 +43530,7 @@
       </c>
       <c r="R714"/>
     </row>
-    <row r="715" spans="1:18" ht="15.75">
+    <row r="715" spans="1:18" ht="16">
       <c r="A715" s="12" t="s">
         <v>1502</v>
       </c>
@@ -43552,7 +43563,7 @@
       </c>
       <c r="R715"/>
     </row>
-    <row r="716" spans="1:18" ht="15.75">
+    <row r="716" spans="1:18" ht="16">
       <c r="A716" s="12" t="s">
         <v>1504</v>
       </c>
@@ -43585,7 +43596,7 @@
       </c>
       <c r="R716"/>
     </row>
-    <row r="717" spans="1:18" ht="15.75">
+    <row r="717" spans="1:18" ht="16">
       <c r="A717" s="12" t="s">
         <v>1506</v>
       </c>
@@ -43618,7 +43629,7 @@
       </c>
       <c r="R717"/>
     </row>
-    <row r="718" spans="1:18" ht="15.75">
+    <row r="718" spans="1:18" ht="16">
       <c r="A718" s="12" t="s">
         <v>1508</v>
       </c>
@@ -43651,7 +43662,7 @@
       </c>
       <c r="R718"/>
     </row>
-    <row r="719" spans="1:18" ht="15.75">
+    <row r="719" spans="1:18" ht="16">
       <c r="A719" s="12" t="s">
         <v>1510</v>
       </c>
@@ -43684,7 +43695,7 @@
       </c>
       <c r="R719"/>
     </row>
-    <row r="720" spans="1:18" ht="15.75">
+    <row r="720" spans="1:18" ht="16">
       <c r="A720" s="12" t="s">
         <v>1512</v>
       </c>
@@ -43717,7 +43728,7 @@
       </c>
       <c r="R720"/>
     </row>
-    <row r="721" spans="1:18" ht="15.75">
+    <row r="721" spans="1:18" ht="16">
       <c r="A721" s="12" t="s">
         <v>1514</v>
       </c>
@@ -43750,7 +43761,7 @@
       </c>
       <c r="R721"/>
     </row>
-    <row r="722" spans="1:18" ht="15.75">
+    <row r="722" spans="1:18" ht="16">
       <c r="A722" s="12" t="s">
         <v>1516</v>
       </c>
@@ -43783,7 +43794,7 @@
       </c>
       <c r="R722"/>
     </row>
-    <row r="723" spans="1:18" ht="15.75">
+    <row r="723" spans="1:18" ht="16">
       <c r="A723" s="12" t="s">
         <v>1518</v>
       </c>
@@ -43816,7 +43827,7 @@
       </c>
       <c r="R723"/>
     </row>
-    <row r="724" spans="1:18" ht="15.75">
+    <row r="724" spans="1:18" ht="16">
       <c r="A724" s="12" t="s">
         <v>1520</v>
       </c>
@@ -43849,7 +43860,7 @@
       </c>
       <c r="R724"/>
     </row>
-    <row r="725" spans="1:18" ht="15.75">
+    <row r="725" spans="1:18" ht="16">
       <c r="A725" s="12" t="s">
         <v>1522</v>
       </c>
@@ -43882,7 +43893,7 @@
       </c>
       <c r="R725"/>
     </row>
-    <row r="726" spans="1:18" ht="15.75">
+    <row r="726" spans="1:18" ht="16">
       <c r="A726" s="12" t="s">
         <v>1524</v>
       </c>
@@ -43915,7 +43926,7 @@
       </c>
       <c r="R726"/>
     </row>
-    <row r="727" spans="1:18" ht="15.75">
+    <row r="727" spans="1:18" ht="16">
       <c r="A727" s="12" t="s">
         <v>1526</v>
       </c>
@@ -43948,7 +43959,7 @@
       </c>
       <c r="R727"/>
     </row>
-    <row r="728" spans="1:18" ht="15.75">
+    <row r="728" spans="1:18" ht="16">
       <c r="A728" s="12" t="s">
         <v>1528</v>
       </c>
@@ -43981,7 +43992,7 @@
       </c>
       <c r="R728"/>
     </row>
-    <row r="729" spans="1:18" ht="15.75">
+    <row r="729" spans="1:18" ht="16">
       <c r="A729" s="12" t="s">
         <v>1530</v>
       </c>
@@ -44014,7 +44025,7 @@
       </c>
       <c r="R729"/>
     </row>
-    <row r="730" spans="1:18" ht="15.75">
+    <row r="730" spans="1:18" ht="16">
       <c r="A730" s="12" t="s">
         <v>1532</v>
       </c>
@@ -44047,7 +44058,7 @@
       </c>
       <c r="R730"/>
     </row>
-    <row r="731" spans="1:18" ht="15.75">
+    <row r="731" spans="1:18" ht="16">
       <c r="A731" s="12" t="s">
         <v>1534</v>
       </c>
@@ -44080,7 +44091,7 @@
       </c>
       <c r="R731"/>
     </row>
-    <row r="732" spans="1:18" ht="15.75">
+    <row r="732" spans="1:18" ht="16">
       <c r="A732" s="12" t="s">
         <v>1516</v>
       </c>
@@ -44113,7 +44124,7 @@
       </c>
       <c r="R732"/>
     </row>
-    <row r="733" spans="1:18" ht="15.75">
+    <row r="733" spans="1:18" ht="16">
       <c r="A733" s="12" t="s">
         <v>1536</v>
       </c>
@@ -44152,7 +44163,7 @@
       </c>
       <c r="R733"/>
     </row>
-    <row r="734" spans="1:18" ht="15.75">
+    <row r="734" spans="1:18" ht="16">
       <c r="A734" s="12" t="s">
         <v>1538</v>
       </c>
@@ -44189,7 +44200,7 @@
       </c>
       <c r="R734"/>
     </row>
-    <row r="735" spans="1:18" ht="15.75">
+    <row r="735" spans="1:18" ht="16">
       <c r="A735" s="12" t="s">
         <v>1539</v>
       </c>
@@ -44226,7 +44237,7 @@
       </c>
       <c r="R735"/>
     </row>
-    <row r="736" spans="1:18" ht="15.75">
+    <row r="736" spans="1:18" ht="16">
       <c r="A736" s="12" t="s">
         <v>1541</v>
       </c>
@@ -44263,7 +44274,7 @@
       </c>
       <c r="R736"/>
     </row>
-    <row r="737" spans="1:18" ht="15.75">
+    <row r="737" spans="1:18" ht="16">
       <c r="A737" s="12" t="s">
         <v>1542</v>
       </c>
@@ -44300,7 +44311,7 @@
       </c>
       <c r="R737"/>
     </row>
-    <row r="738" spans="1:18" ht="15.75">
+    <row r="738" spans="1:18" ht="16">
       <c r="A738" s="12" t="s">
         <v>1543</v>
       </c>
@@ -44337,7 +44348,7 @@
       </c>
       <c r="R738"/>
     </row>
-    <row r="739" spans="1:18" ht="15.75">
+    <row r="739" spans="1:18" ht="16">
       <c r="A739" s="12" t="s">
         <v>1544</v>
       </c>
@@ -44374,7 +44385,7 @@
       </c>
       <c r="R739"/>
     </row>
-    <row r="740" spans="1:18" ht="15.75">
+    <row r="740" spans="1:18" ht="16">
       <c r="A740" s="12" t="s">
         <v>1545</v>
       </c>
@@ -44411,7 +44422,7 @@
       </c>
       <c r="R740"/>
     </row>
-    <row r="741" spans="1:18" ht="15.75">
+    <row r="741" spans="1:18" ht="16">
       <c r="A741" s="12" t="s">
         <v>1546</v>
       </c>
@@ -44448,7 +44459,7 @@
       </c>
       <c r="R741"/>
     </row>
-    <row r="742" spans="1:18" ht="15.75">
+    <row r="742" spans="1:18" ht="16">
       <c r="A742" s="12" t="s">
         <v>1547</v>
       </c>
@@ -44485,7 +44496,7 @@
       </c>
       <c r="R742"/>
     </row>
-    <row r="743" spans="1:18" ht="15.75">
+    <row r="743" spans="1:18" ht="16">
       <c r="A743" s="12" t="s">
         <v>1548</v>
       </c>
@@ -44522,7 +44533,7 @@
       </c>
       <c r="R743"/>
     </row>
-    <row r="744" spans="1:18" ht="15.75">
+    <row r="744" spans="1:18" ht="16">
       <c r="A744" s="12" t="s">
         <v>1549</v>
       </c>
@@ -44559,7 +44570,7 @@
       </c>
       <c r="R744"/>
     </row>
-    <row r="745" spans="1:18" ht="15.75">
+    <row r="745" spans="1:18" ht="16">
       <c r="A745" s="12" t="s">
         <v>1550</v>
       </c>
@@ -44596,7 +44607,7 @@
       </c>
       <c r="R745"/>
     </row>
-    <row r="746" spans="1:18" ht="15.75">
+    <row r="746" spans="1:18" ht="16">
       <c r="A746" s="12" t="s">
         <v>1551</v>
       </c>
@@ -44633,7 +44644,7 @@
       </c>
       <c r="R746"/>
     </row>
-    <row r="747" spans="1:18" ht="15.75">
+    <row r="747" spans="1:18" ht="16">
       <c r="A747" s="12" t="s">
         <v>1552</v>
       </c>
@@ -44670,7 +44681,7 @@
       </c>
       <c r="R747"/>
     </row>
-    <row r="748" spans="1:18" ht="15.75">
+    <row r="748" spans="1:18" ht="16">
       <c r="A748" s="12" t="s">
         <v>1553</v>
       </c>
@@ -44707,7 +44718,7 @@
       </c>
       <c r="R748"/>
     </row>
-    <row r="749" spans="1:18" ht="15.75">
+    <row r="749" spans="1:18" ht="16">
       <c r="A749" s="12" t="s">
         <v>1554</v>
       </c>
@@ -44744,7 +44755,7 @@
       </c>
       <c r="R749"/>
     </row>
-    <row r="750" spans="1:18" ht="15.75">
+    <row r="750" spans="1:18" ht="16">
       <c r="A750" s="12" t="s">
         <v>1555</v>
       </c>
@@ -44781,7 +44792,7 @@
       </c>
       <c r="R750"/>
     </row>
-    <row r="751" spans="1:18" ht="15.75">
+    <row r="751" spans="1:18" ht="16">
       <c r="A751" s="12" t="s">
         <v>1556</v>
       </c>
@@ -44818,7 +44829,7 @@
       </c>
       <c r="R751"/>
     </row>
-    <row r="752" spans="1:18" ht="15.75">
+    <row r="752" spans="1:18" ht="16">
       <c r="A752" s="12" t="s">
         <v>1557</v>
       </c>
@@ -44855,7 +44866,7 @@
       </c>
       <c r="R752"/>
     </row>
-    <row r="753" spans="1:18" ht="15.75">
+    <row r="753" spans="1:18" ht="16">
       <c r="A753" s="12" t="s">
         <v>1558</v>
       </c>
@@ -44892,7 +44903,7 @@
       </c>
       <c r="R753"/>
     </row>
-    <row r="754" spans="1:18" ht="15.75">
+    <row r="754" spans="1:18" ht="16">
       <c r="A754" s="12" t="s">
         <v>1559</v>
       </c>
@@ -44929,7 +44940,7 @@
       </c>
       <c r="R754"/>
     </row>
-    <row r="755" spans="1:18" ht="15.75">
+    <row r="755" spans="1:18" ht="16">
       <c r="A755" s="12" t="s">
         <v>1560</v>
       </c>
@@ -44966,7 +44977,7 @@
       </c>
       <c r="R755"/>
     </row>
-    <row r="756" spans="1:18" ht="15.75">
+    <row r="756" spans="1:18" ht="16">
       <c r="A756" s="12" t="s">
         <v>1561</v>
       </c>
@@ -45003,7 +45014,7 @@
       </c>
       <c r="R756"/>
     </row>
-    <row r="757" spans="1:18" ht="15.75">
+    <row r="757" spans="1:18" ht="16">
       <c r="A757" s="12" t="s">
         <v>1562</v>
       </c>
@@ -45040,7 +45051,7 @@
       </c>
       <c r="R757"/>
     </row>
-    <row r="758" spans="1:18" ht="15.75">
+    <row r="758" spans="1:18" ht="16">
       <c r="A758" s="12" t="s">
         <v>1563</v>
       </c>
@@ -45077,7 +45088,7 @@
       </c>
       <c r="R758"/>
     </row>
-    <row r="759" spans="1:18" ht="15.75">
+    <row r="759" spans="1:18" ht="16">
       <c r="A759" s="12" t="s">
         <v>1564</v>
       </c>
@@ -45114,7 +45125,7 @@
       </c>
       <c r="R759"/>
     </row>
-    <row r="760" spans="1:18" ht="15.75">
+    <row r="760" spans="1:18" ht="16">
       <c r="A760" s="12" t="s">
         <v>1565</v>
       </c>
@@ -45151,7 +45162,7 @@
       </c>
       <c r="R760"/>
     </row>
-    <row r="761" spans="1:18" ht="15.75">
+    <row r="761" spans="1:18" ht="16">
       <c r="A761" s="12" t="s">
         <v>1566</v>
       </c>
@@ -45188,7 +45199,7 @@
       </c>
       <c r="R761"/>
     </row>
-    <row r="762" spans="1:18" ht="15.75">
+    <row r="762" spans="1:18" ht="16">
       <c r="A762" s="12" t="s">
         <v>1567</v>
       </c>
@@ -45225,7 +45236,7 @@
       </c>
       <c r="R762"/>
     </row>
-    <row r="763" spans="1:18" ht="15.75">
+    <row r="763" spans="1:18" ht="16">
       <c r="A763" s="12" t="s">
         <v>1568</v>
       </c>
@@ -45262,7 +45273,7 @@
       </c>
       <c r="R763"/>
     </row>
-    <row r="764" spans="1:18" ht="15.75">
+    <row r="764" spans="1:18" ht="16">
       <c r="A764" s="12" t="s">
         <v>1569</v>
       </c>
@@ -45299,7 +45310,7 @@
       </c>
       <c r="R764"/>
     </row>
-    <row r="765" spans="1:18" ht="15.75">
+    <row r="765" spans="1:18" ht="16">
       <c r="A765" s="12" t="s">
         <v>1570</v>
       </c>
@@ -45336,7 +45347,7 @@
       </c>
       <c r="R765"/>
     </row>
-    <row r="766" spans="1:18" ht="15.75">
+    <row r="766" spans="1:18" ht="16">
       <c r="A766" s="12" t="s">
         <v>1571</v>
       </c>
@@ -45373,7 +45384,7 @@
       </c>
       <c r="R766"/>
     </row>
-    <row r="767" spans="1:18" ht="15.75">
+    <row r="767" spans="1:18" ht="16">
       <c r="A767" s="12" t="s">
         <v>1572</v>
       </c>
@@ -45410,7 +45421,7 @@
       </c>
       <c r="R767"/>
     </row>
-    <row r="768" spans="1:18" ht="15.75">
+    <row r="768" spans="1:18" ht="16">
       <c r="A768" s="12" t="s">
         <v>1573</v>
       </c>
@@ -45447,7 +45458,7 @@
       </c>
       <c r="R768"/>
     </row>
-    <row r="769" spans="1:18" ht="15.75">
+    <row r="769" spans="1:18" ht="16">
       <c r="A769" s="12" t="s">
         <v>1574</v>
       </c>
@@ -45484,7 +45495,7 @@
       </c>
       <c r="R769"/>
     </row>
-    <row r="770" spans="1:18" ht="15.75">
+    <row r="770" spans="1:18" ht="16">
       <c r="A770" s="12" t="s">
         <v>1575</v>
       </c>
@@ -45521,7 +45532,7 @@
       </c>
       <c r="R770"/>
     </row>
-    <row r="771" spans="1:18" ht="15.75">
+    <row r="771" spans="1:18" ht="16">
       <c r="A771" s="12" t="s">
         <v>1576</v>
       </c>
@@ -45558,7 +45569,7 @@
       </c>
       <c r="R771"/>
     </row>
-    <row r="772" spans="1:18" ht="15.75">
+    <row r="772" spans="1:18" ht="16">
       <c r="A772" s="12" t="s">
         <v>1577</v>
       </c>
@@ -45595,7 +45606,7 @@
       </c>
       <c r="R772"/>
     </row>
-    <row r="773" spans="1:18" ht="15.75">
+    <row r="773" spans="1:18" ht="16">
       <c r="A773" s="12" t="s">
         <v>1578</v>
       </c>
@@ -45632,7 +45643,7 @@
       </c>
       <c r="R773"/>
     </row>
-    <row r="774" spans="1:18" ht="15.75">
+    <row r="774" spans="1:18" ht="16">
       <c r="A774" s="12" t="s">
         <v>1579</v>
       </c>
@@ -45669,7 +45680,7 @@
       </c>
       <c r="R774"/>
     </row>
-    <row r="775" spans="1:18" ht="15.75">
+    <row r="775" spans="1:18" ht="16">
       <c r="A775" s="12" t="s">
         <v>1580</v>
       </c>
@@ -45706,7 +45717,7 @@
       </c>
       <c r="R775"/>
     </row>
-    <row r="776" spans="1:18" ht="15.75">
+    <row r="776" spans="1:18" ht="16">
       <c r="A776" s="12" t="s">
         <v>1581</v>
       </c>
@@ -45743,7 +45754,7 @@
       </c>
       <c r="R776"/>
     </row>
-    <row r="777" spans="1:18" ht="15.75">
+    <row r="777" spans="1:18" ht="16">
       <c r="A777" s="12" t="s">
         <v>1582</v>
       </c>
@@ -45780,7 +45791,7 @@
       </c>
       <c r="R777"/>
     </row>
-    <row r="778" spans="1:18" ht="15.75">
+    <row r="778" spans="1:18" ht="16">
       <c r="A778" s="12" t="s">
         <v>1583</v>
       </c>
@@ -45817,7 +45828,7 @@
       </c>
       <c r="R778"/>
     </row>
-    <row r="779" spans="1:18" ht="15.75">
+    <row r="779" spans="1:18" ht="16">
       <c r="A779" s="12" t="s">
         <v>1584</v>
       </c>
@@ -45854,7 +45865,7 @@
       </c>
       <c r="R779"/>
     </row>
-    <row r="780" spans="1:18" ht="15.75">
+    <row r="780" spans="1:18" ht="16">
       <c r="A780" s="12" t="s">
         <v>1585</v>
       </c>
@@ -45891,7 +45902,7 @@
       </c>
       <c r="R780"/>
     </row>
-    <row r="781" spans="1:18" ht="15.75">
+    <row r="781" spans="1:18" ht="16">
       <c r="A781" s="12" t="s">
         <v>1586</v>
       </c>
@@ -45928,7 +45939,7 @@
       </c>
       <c r="R781"/>
     </row>
-    <row r="782" spans="1:18" ht="15.75">
+    <row r="782" spans="1:18" ht="16">
       <c r="A782" s="12" t="s">
         <v>1587</v>
       </c>
@@ -45965,7 +45976,7 @@
       </c>
       <c r="R782"/>
     </row>
-    <row r="783" spans="1:18" ht="15.75">
+    <row r="783" spans="1:18" ht="16">
       <c r="A783" s="12" t="s">
         <v>1588</v>
       </c>
@@ -46002,7 +46013,7 @@
       </c>
       <c r="R783"/>
     </row>
-    <row r="784" spans="1:18" ht="15.75">
+    <row r="784" spans="1:18" ht="16">
       <c r="A784" s="12" t="s">
         <v>1589</v>
       </c>
@@ -46039,7 +46050,7 @@
       </c>
       <c r="R784"/>
     </row>
-    <row r="785" spans="1:18" ht="15.75">
+    <row r="785" spans="1:18" ht="16">
       <c r="A785" s="12" t="s">
         <v>1590</v>
       </c>
@@ -46076,7 +46087,7 @@
       </c>
       <c r="R785"/>
     </row>
-    <row r="786" spans="1:18" ht="15.75">
+    <row r="786" spans="1:18" ht="16">
       <c r="A786" s="12" t="s">
         <v>1591</v>
       </c>
@@ -46113,7 +46124,7 @@
       </c>
       <c r="R786"/>
     </row>
-    <row r="787" spans="1:18" ht="15.75">
+    <row r="787" spans="1:18" ht="16">
       <c r="A787" s="12" t="s">
         <v>1592</v>
       </c>
@@ -46150,7 +46161,7 @@
       </c>
       <c r="R787"/>
     </row>
-    <row r="788" spans="1:18" ht="15.75">
+    <row r="788" spans="1:18" ht="16">
       <c r="A788" s="12" t="s">
         <v>1593</v>
       </c>
@@ -46187,7 +46198,7 @@
       </c>
       <c r="R788"/>
     </row>
-    <row r="789" spans="1:18" ht="15.75">
+    <row r="789" spans="1:18" ht="16">
       <c r="A789" s="12" t="s">
         <v>1594</v>
       </c>
@@ -46224,7 +46235,7 @@
       </c>
       <c r="R789"/>
     </row>
-    <row r="790" spans="1:18" ht="15.75">
+    <row r="790" spans="1:18" ht="16">
       <c r="A790" s="12" t="s">
         <v>1595</v>
       </c>
@@ -46261,7 +46272,7 @@
       </c>
       <c r="R790"/>
     </row>
-    <row r="791" spans="1:18" ht="15.75">
+    <row r="791" spans="1:18" ht="16">
       <c r="A791" s="12" t="s">
         <v>1596</v>
       </c>
@@ -46298,7 +46309,7 @@
       </c>
       <c r="R791"/>
     </row>
-    <row r="792" spans="1:18" ht="15.75">
+    <row r="792" spans="1:18" ht="16">
       <c r="A792" s="12" t="s">
         <v>1597</v>
       </c>
@@ -46335,7 +46346,7 @@
       </c>
       <c r="R792"/>
     </row>
-    <row r="793" spans="1:18" ht="15.75">
+    <row r="793" spans="1:18" ht="16">
       <c r="A793" s="12" t="s">
         <v>1598</v>
       </c>
@@ -46372,7 +46383,7 @@
       </c>
       <c r="R793"/>
     </row>
-    <row r="794" spans="1:18" ht="15.75">
+    <row r="794" spans="1:18" ht="16">
       <c r="A794" s="12" t="s">
         <v>1599</v>
       </c>
@@ -46409,7 +46420,7 @@
       </c>
       <c r="R794"/>
     </row>
-    <row r="795" spans="1:18" ht="15.75">
+    <row r="795" spans="1:18" ht="16">
       <c r="A795" s="12" t="s">
         <v>1600</v>
       </c>
@@ -46446,7 +46457,7 @@
       </c>
       <c r="R795"/>
     </row>
-    <row r="796" spans="1:18" ht="15.75">
+    <row r="796" spans="1:18" ht="16">
       <c r="A796" s="12" t="s">
         <v>1601</v>
       </c>
@@ -46483,7 +46494,7 @@
       </c>
       <c r="R796"/>
     </row>
-    <row r="797" spans="1:18" ht="15.75">
+    <row r="797" spans="1:18" ht="16">
       <c r="A797" s="12" t="s">
         <v>1602</v>
       </c>
@@ -46520,7 +46531,7 @@
       </c>
       <c r="R797"/>
     </row>
-    <row r="798" spans="1:18" ht="15.75">
+    <row r="798" spans="1:18" ht="16">
       <c r="A798" s="12" t="s">
         <v>1603</v>
       </c>
@@ -46557,7 +46568,7 @@
       </c>
       <c r="R798"/>
     </row>
-    <row r="799" spans="1:18" ht="15.75">
+    <row r="799" spans="1:18" ht="16">
       <c r="A799" s="12" t="s">
         <v>1604</v>
       </c>
@@ -46594,7 +46605,7 @@
       </c>
       <c r="R799"/>
     </row>
-    <row r="800" spans="1:18" ht="15.75">
+    <row r="800" spans="1:18" ht="16">
       <c r="A800" s="12" t="s">
         <v>1605</v>
       </c>
@@ -46631,7 +46642,7 @@
       </c>
       <c r="R800"/>
     </row>
-    <row r="801" spans="1:18" ht="15.75">
+    <row r="801" spans="1:18" ht="16">
       <c r="A801" s="12" t="s">
         <v>1606</v>
       </c>
@@ -46668,7 +46679,7 @@
       </c>
       <c r="R801"/>
     </row>
-    <row r="802" spans="1:18" ht="15.75">
+    <row r="802" spans="1:18" ht="16">
       <c r="A802" s="12" t="s">
         <v>1607</v>
       </c>
@@ -46705,7 +46716,7 @@
       </c>
       <c r="R802"/>
     </row>
-    <row r="803" spans="1:18" ht="15.75">
+    <row r="803" spans="1:18" ht="16">
       <c r="A803" s="12" t="s">
         <v>1608</v>
       </c>
@@ -46738,7 +46749,7 @@
       </c>
       <c r="R803"/>
     </row>
-    <row r="804" spans="1:18" ht="15.75">
+    <row r="804" spans="1:18" ht="16">
       <c r="A804" s="12" t="s">
         <v>1609</v>
       </c>
@@ -46771,7 +46782,7 @@
       </c>
       <c r="R804"/>
     </row>
-    <row r="805" spans="1:18" ht="15.75">
+    <row r="805" spans="1:18" ht="16">
       <c r="A805" s="12" t="s">
         <v>1610</v>
       </c>
@@ -46804,7 +46815,7 @@
       </c>
       <c r="R805"/>
     </row>
-    <row r="806" spans="1:18" ht="15.75">
+    <row r="806" spans="1:18" ht="16">
       <c r="A806" s="12" t="s">
         <v>1611</v>
       </c>
@@ -46837,7 +46848,7 @@
       </c>
       <c r="R806"/>
     </row>
-    <row r="807" spans="1:18" ht="15.75">
+    <row r="807" spans="1:18" ht="16">
       <c r="A807" s="12" t="s">
         <v>1612</v>
       </c>
@@ -46870,7 +46881,7 @@
       </c>
       <c r="R807"/>
     </row>
-    <row r="808" spans="1:18" ht="15.75">
+    <row r="808" spans="1:18" ht="16">
       <c r="A808" s="12" t="s">
         <v>1613</v>
       </c>
@@ -46903,7 +46914,7 @@
       </c>
       <c r="R808"/>
     </row>
-    <row r="809" spans="1:18" ht="15.75">
+    <row r="809" spans="1:18" ht="16">
       <c r="A809" s="12" t="s">
         <v>1614</v>
       </c>
@@ -46936,7 +46947,7 @@
       </c>
       <c r="R809"/>
     </row>
-    <row r="810" spans="1:18" ht="15.75">
+    <row r="810" spans="1:18" ht="16">
       <c r="A810" s="12" t="s">
         <v>1615</v>
       </c>
@@ -46969,7 +46980,7 @@
       </c>
       <c r="R810"/>
     </row>
-    <row r="811" spans="1:18" ht="15.75">
+    <row r="811" spans="1:18" ht="16">
       <c r="A811" s="12" t="s">
         <v>1616</v>
       </c>
@@ -47002,7 +47013,7 @@
       </c>
       <c r="R811"/>
     </row>
-    <row r="812" spans="1:18" ht="15.75">
+    <row r="812" spans="1:18" ht="16">
       <c r="A812" s="12" t="s">
         <v>1617</v>
       </c>
@@ -47035,7 +47046,7 @@
       </c>
       <c r="R812"/>
     </row>
-    <row r="813" spans="1:18" ht="15.75">
+    <row r="813" spans="1:18" ht="16">
       <c r="A813" s="12" t="s">
         <v>1618</v>
       </c>
@@ -47069,7 +47080,7 @@
       </c>
       <c r="R813"/>
     </row>
-    <row r="814" spans="1:18" ht="15.75">
+    <row r="814" spans="1:18" ht="16">
       <c r="A814" s="12" t="s">
         <v>1619</v>
       </c>
@@ -47103,7 +47114,7 @@
       </c>
       <c r="R814"/>
     </row>
-    <row r="815" spans="1:18" ht="15.75">
+    <row r="815" spans="1:18" ht="16">
       <c r="A815" s="12" t="s">
         <v>1620</v>
       </c>
@@ -47137,7 +47148,7 @@
       </c>
       <c r="R815"/>
     </row>
-    <row r="816" spans="1:18" ht="15.75">
+    <row r="816" spans="1:18" ht="16">
       <c r="A816" s="12" t="s">
         <v>1621</v>
       </c>
@@ -47171,7 +47182,7 @@
       </c>
       <c r="R816"/>
     </row>
-    <row r="817" spans="1:18" ht="15.75">
+    <row r="817" spans="1:18" ht="16">
       <c r="A817" s="12" t="s">
         <v>1622</v>
       </c>
@@ -47205,7 +47216,7 @@
       </c>
       <c r="R817"/>
     </row>
-    <row r="818" spans="1:18" ht="15.75">
+    <row r="818" spans="1:18" ht="16">
       <c r="A818" s="12" t="s">
         <v>1623</v>
       </c>
@@ -47239,7 +47250,7 @@
       </c>
       <c r="R818"/>
     </row>
-    <row r="819" spans="1:18" ht="15.75">
+    <row r="819" spans="1:18" ht="16">
       <c r="A819" s="12" t="s">
         <v>1624</v>
       </c>
@@ -47273,7 +47284,7 @@
       </c>
       <c r="R819"/>
     </row>
-    <row r="820" spans="1:18" ht="15.75">
+    <row r="820" spans="1:18" ht="16">
       <c r="A820" s="12" t="s">
         <v>1625</v>
       </c>
@@ -47307,7 +47318,7 @@
       </c>
       <c r="R820"/>
     </row>
-    <row r="821" spans="1:18" ht="15.75">
+    <row r="821" spans="1:18" ht="16">
       <c r="A821" s="12" t="s">
         <v>1626</v>
       </c>
@@ -47341,7 +47352,7 @@
       </c>
       <c r="R821"/>
     </row>
-    <row r="822" spans="1:18" ht="15.75">
+    <row r="822" spans="1:18" ht="16">
       <c r="A822" s="12" t="s">
         <v>1627</v>
       </c>
@@ -47375,7 +47386,7 @@
       </c>
       <c r="R822"/>
     </row>
-    <row r="823" spans="1:18" ht="15.75">
+    <row r="823" spans="1:18" ht="16">
       <c r="A823" s="12" t="s">
         <v>1628</v>
       </c>
@@ -47409,7 +47420,7 @@
       </c>
       <c r="R823"/>
     </row>
-    <row r="824" spans="1:18" ht="15.75">
+    <row r="824" spans="1:18" ht="16">
       <c r="A824" s="12" t="s">
         <v>1629</v>
       </c>
@@ -47443,7 +47454,7 @@
       </c>
       <c r="R824"/>
     </row>
-    <row r="825" spans="1:18" ht="15.75">
+    <row r="825" spans="1:18" ht="16">
       <c r="A825" s="12" t="s">
         <v>1630</v>
       </c>
@@ -47477,7 +47488,7 @@
       </c>
       <c r="R825"/>
     </row>
-    <row r="826" spans="1:18" ht="15.75">
+    <row r="826" spans="1:18" ht="16">
       <c r="A826" s="12" t="s">
         <v>1631</v>
       </c>
@@ -47511,7 +47522,7 @@
       </c>
       <c r="R826"/>
     </row>
-    <row r="827" spans="1:18" ht="15.75">
+    <row r="827" spans="1:18" ht="16">
       <c r="A827" s="12" t="s">
         <v>1632</v>
       </c>
@@ -47545,7 +47556,7 @@
       </c>
       <c r="R827"/>
     </row>
-    <row r="828" spans="1:18" ht="15.75">
+    <row r="828" spans="1:18" ht="16">
       <c r="A828" s="12" t="s">
         <v>1633</v>
       </c>
@@ -47944,7 +47955,7 @@
       <selection activeCell="D526" sqref="D526"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -56902,7 +56913,7 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
   </cols>
@@ -56970,7 +56981,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1513ED37-EB72-B744-9684-071A80D675D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC7CA3-4EEE-1F4B-B398-9F70888ED2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="460" windowWidth="38640" windowHeight="20540" activeTab="1" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="-140" yWindow="460" windowWidth="38640" windowHeight="20540" activeTab="2" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
     <sheet name="Queue Info" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Filter Work Around" sheetId="4" r:id="rId4"/>
+    <sheet name="Auditor Filter" sheetId="4" r:id="rId3"/>
+    <sheet name="Team Filter Errors" sheetId="9" r:id="rId4"/>
     <sheet name="Validation 8-1" sheetId="5" r:id="rId5"/>
     <sheet name="SRT User IDS" sheetId="6" r:id="rId6"/>
     <sheet name="TC Queue ARTs" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Queue Info'!$A$1:$C$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reps Info'!$A$1:$G$245</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reps Info'!$A$1:$G$274</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Validation 8-1'!$A$1:$M$842</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13262" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13677" uniqueCount="1814">
   <si>
     <t>Name</t>
   </si>
@@ -5335,6 +5336,159 @@
   </si>
   <si>
     <t>[FAWG] UFAC Holdout Stratified Experiment</t>
+  </si>
+  <si>
+    <t>[FAWG]ATOMIZATION TEST: FAMOUS</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO,</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE,</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: GROUP SUMA</t>
+  </si>
+  <si>
+    <t>[[FAWG] ATOMIZATION TEST: 4P_SCRIPTED</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: GROUP TAGGED</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: IMPOSTER</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: TERRORISM</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: SELF_HARM</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: SCALED ABUSE</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: IDENTITY_INFO</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: LOANS</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: SEX_SOLICITING</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: SEX_MONEY</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: TREND</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: NON_PERSONAL</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: STRONG_SHIELDED_APPS</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: GROUP OBPS</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: WEAK_SHARES</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: DOMAIN</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: MAJOR_NAME_CHANGE</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: STRONG_POST_CONVERSATION,</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: WEAK_VARIED_COMMENTS</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: REPEATED_ACTIVITY</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: REPETITIVE_SPAM</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: DIRECTING_OFFSITE</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: BOOSTING</t>
+  </si>
+  <si>
+    <t>[FAWG] ATOMIZATION TEST: BAD_LIKES</t>
+  </si>
+  <si>
+    <t>100023384089661</t>
+  </si>
+  <si>
+    <t>100025276176243</t>
+  </si>
+  <si>
+    <t>100034041589730</t>
+  </si>
+  <si>
+    <t>100034089196752</t>
+  </si>
+  <si>
+    <t>100034122914340</t>
+  </si>
+  <si>
+    <t>100034270485164</t>
+  </si>
+  <si>
+    <t>100034335912675</t>
+  </si>
+  <si>
+    <t>100034340262345</t>
+  </si>
+  <si>
+    <t>100034599077859</t>
+  </si>
+  <si>
+    <t>100034620496741</t>
+  </si>
+  <si>
+    <t>100034772256781</t>
+  </si>
+  <si>
+    <t>100028230073847</t>
+  </si>
+  <si>
+    <t>100036619595606</t>
+  </si>
+  <si>
+    <t>100036379041529</t>
+  </si>
+  <si>
+    <t>reviewers</t>
+  </si>
+  <si>
+    <t>&amp;isCorrect[0]=0</t>
   </si>
 </sst>
 </file>
@@ -5344,7 +5498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5409,8 +5563,25 @@
       <name val="Salesforce Sans Web"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5421,6 +5592,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -5458,7 +5647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5503,6 +5692,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6054,8 +6249,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="F229" sqref="F229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6108,9 +6303,9 @@
         <f>SUBSTITUTE(E2,"#","")</f>
         <v>100027123044380</v>
       </c>
-      <c r="G2" t="str">
+      <c r="G2" t="e">
         <f>VLOOKUP(E2,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6133,9 +6328,9 @@
         <f t="shared" ref="F3:F66" si="0">SUBSTITUTE(E3,"#","")</f>
         <v>100027315903411</v>
       </c>
-      <c r="G3" t="str">
+      <c r="G3" t="e">
         <f>VLOOKUP(E3,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -6158,9 +6353,9 @@
         <f t="shared" si="0"/>
         <v>100027339172036</v>
       </c>
-      <c r="G4" t="str">
+      <c r="G4" t="e">
         <f>VLOOKUP(E4,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6183,9 +6378,9 @@
         <f t="shared" si="0"/>
         <v>100027348991477</v>
       </c>
-      <c r="G5" t="str">
+      <c r="G5" t="e">
         <f>VLOOKUP(E5,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -6208,9 +6403,9 @@
         <f t="shared" si="0"/>
         <v>100027360240371</v>
       </c>
-      <c r="G6" t="str">
+      <c r="G6" t="e">
         <f>VLOOKUP(E6,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6233,9 +6428,9 @@
         <f t="shared" si="0"/>
         <v>100028101891923</v>
       </c>
-      <c r="G7" t="str">
+      <c r="G7" t="e">
         <f>VLOOKUP(E7,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6258,9 +6453,9 @@
         <f t="shared" si="0"/>
         <v>100028101891923</v>
       </c>
-      <c r="G8" t="str">
+      <c r="G8" t="e">
         <f>VLOOKUP(E8,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -6283,9 +6478,9 @@
         <f t="shared" si="0"/>
         <v>100028195035934</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G9" t="e">
         <f>VLOOKUP(E9,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -6308,9 +6503,9 @@
         <f t="shared" si="0"/>
         <v>100028394493087</v>
       </c>
-      <c r="G10" t="str">
+      <c r="G10" t="e">
         <f>VLOOKUP(E10,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -6333,9 +6528,9 @@
         <f t="shared" si="0"/>
         <v>100028394493087</v>
       </c>
-      <c r="G11" t="str">
+      <c r="G11" t="e">
         <f>VLOOKUP(E11,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6358,9 +6553,9 @@
         <f t="shared" si="0"/>
         <v>100028471778381</v>
       </c>
-      <c r="G12" t="str">
+      <c r="G12" t="e">
         <f>VLOOKUP(E12,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -6383,9 +6578,9 @@
         <f t="shared" si="0"/>
         <v>100028572180104</v>
       </c>
-      <c r="G13" t="str">
+      <c r="G13" t="e">
         <f>VLOOKUP(E13,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -6408,9 +6603,9 @@
         <f t="shared" si="0"/>
         <v>100028572180104</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G14" t="e">
         <f>VLOOKUP(E14,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -6433,9 +6628,9 @@
         <f t="shared" si="0"/>
         <v>100033085972847</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G15" t="e">
         <f>VLOOKUP(E15,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -6458,9 +6653,9 @@
         <f t="shared" si="0"/>
         <v>100019586430126</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16" t="e">
         <f>VLOOKUP(E16,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6483,9 +6678,9 @@
         <f t="shared" si="0"/>
         <v>100021861169979</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G17" t="e">
         <f>VLOOKUP(E17,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6508,9 +6703,9 @@
         <f t="shared" si="0"/>
         <v>100022075143289</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G18" t="e">
         <f>VLOOKUP(E18,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6533,9 +6728,9 @@
         <f t="shared" si="0"/>
         <v>100022258040912</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G19" t="e">
         <f>VLOOKUP(E19,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6558,9 +6753,9 @@
         <f t="shared" si="0"/>
         <v>100022316161292</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G20" t="e">
         <f>VLOOKUP(E20,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6583,9 +6778,9 @@
         <f t="shared" si="0"/>
         <v>100022317343616</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G21" t="e">
         <f>VLOOKUP(E21,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6608,9 +6803,9 @@
         <f t="shared" si="0"/>
         <v>100022401541691</v>
       </c>
-      <c r="G22" t="str">
+      <c r="G22" t="e">
         <f>VLOOKUP(E22,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6633,9 +6828,9 @@
         <f t="shared" si="0"/>
         <v>100022686954228</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G23" t="e">
         <f>VLOOKUP(E23,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6658,9 +6853,9 @@
         <f t="shared" si="0"/>
         <v>100022736928098</v>
       </c>
-      <c r="G24" t="str">
+      <c r="G24" t="e">
         <f>VLOOKUP(E24,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6683,9 +6878,9 @@
         <f t="shared" si="0"/>
         <v>100022740377783</v>
       </c>
-      <c r="G25" t="str">
+      <c r="G25" t="e">
         <f>VLOOKUP(E25,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6708,9 +6903,9 @@
         <f t="shared" si="0"/>
         <v>100022767134137</v>
       </c>
-      <c r="G26" t="str">
+      <c r="G26" t="e">
         <f>VLOOKUP(E26,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6733,9 +6928,9 @@
         <f t="shared" si="0"/>
         <v>100023247082458</v>
       </c>
-      <c r="G27" t="str">
+      <c r="G27" t="e">
         <f>VLOOKUP(E27,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6755,9 +6950,9 @@
         <f t="shared" si="0"/>
         <v>100023289375957</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G28" t="e">
         <f>VLOOKUP(E28,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6780,9 +6975,9 @@
         <f t="shared" si="0"/>
         <v>100023315833289</v>
       </c>
-      <c r="G29" t="str">
+      <c r="G29" t="e">
         <f>VLOOKUP(E29,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6805,9 +7000,9 @@
         <f t="shared" si="0"/>
         <v>100023364936732</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G30" t="e">
         <f>VLOOKUP(E30,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6830,9 +7025,9 @@
         <f t="shared" si="0"/>
         <v>100023369495894</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G31" t="e">
         <f>VLOOKUP(E31,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6855,9 +7050,9 @@
         <f t="shared" si="0"/>
         <v>100023384089661</v>
       </c>
-      <c r="G32" t="str">
+      <c r="G32" t="e">
         <f>VLOOKUP(E32,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6880,9 +7075,9 @@
         <f t="shared" si="0"/>
         <v>100023405686929</v>
       </c>
-      <c r="G33" t="str">
+      <c r="G33" t="e">
         <f>VLOOKUP(E33,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6905,9 +7100,9 @@
         <f t="shared" si="0"/>
         <v>100023417505322</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G34" t="e">
         <f>VLOOKUP(E34,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6930,9 +7125,9 @@
         <f t="shared" si="0"/>
         <v>100023436803431</v>
       </c>
-      <c r="G35" t="str">
+      <c r="G35" t="e">
         <f>VLOOKUP(E35,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6955,9 +7150,9 @@
         <f t="shared" si="0"/>
         <v>100023444198073</v>
       </c>
-      <c r="G36" t="str">
+      <c r="G36" t="e">
         <f>VLOOKUP(E36,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6980,9 +7175,9 @@
         <f t="shared" si="0"/>
         <v>100023460651662</v>
       </c>
-      <c r="G37" t="str">
+      <c r="G37" t="e">
         <f>VLOOKUP(E37,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -7005,9 +7200,9 @@
         <f t="shared" si="0"/>
         <v>100023461356640</v>
       </c>
-      <c r="G38" t="str">
+      <c r="G38" t="e">
         <f>VLOOKUP(E38,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -7030,9 +7225,9 @@
         <f t="shared" si="0"/>
         <v>100023461731601</v>
       </c>
-      <c r="G39" t="str">
+      <c r="G39" t="e">
         <f>VLOOKUP(E39,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -7055,9 +7250,9 @@
         <f t="shared" si="0"/>
         <v>100023465623092</v>
       </c>
-      <c r="G40" t="str">
+      <c r="G40" t="e">
         <f>VLOOKUP(E40,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -7080,9 +7275,9 @@
         <f t="shared" si="0"/>
         <v>100023475156245</v>
       </c>
-      <c r="G41" t="str">
+      <c r="G41" t="e">
         <f>VLOOKUP(E41,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -7105,9 +7300,9 @@
         <f t="shared" si="0"/>
         <v>100023484515724</v>
       </c>
-      <c r="G42" t="str">
+      <c r="G42" t="e">
         <f>VLOOKUP(E42,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7130,9 +7325,9 @@
         <f t="shared" si="0"/>
         <v>100023640420405</v>
       </c>
-      <c r="G43" t="str">
+      <c r="G43" t="e">
         <f>VLOOKUP(E43,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -7155,9 +7350,9 @@
         <f t="shared" si="0"/>
         <v>100024542501674</v>
       </c>
-      <c r="G44" t="str">
+      <c r="G44" t="e">
         <f>VLOOKUP(E44,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -7180,9 +7375,9 @@
         <f t="shared" si="0"/>
         <v>100024550121284</v>
       </c>
-      <c r="G45" t="str">
+      <c r="G45" t="e">
         <f>VLOOKUP(E45,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -7205,9 +7400,9 @@
         <f t="shared" si="0"/>
         <v>100024609513666</v>
       </c>
-      <c r="G46" t="str">
+      <c r="G46" t="e">
         <f>VLOOKUP(E46,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -7230,9 +7425,9 @@
         <f t="shared" si="0"/>
         <v>100024956220670</v>
       </c>
-      <c r="G47" t="str">
+      <c r="G47" t="e">
         <f>VLOOKUP(E47,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -7255,9 +7450,9 @@
         <f t="shared" si="0"/>
         <v>100025163824357</v>
       </c>
-      <c r="G48" t="str">
+      <c r="G48" t="e">
         <f>VLOOKUP(E48,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -7280,9 +7475,9 @@
         <f t="shared" si="0"/>
         <v>100025182332190</v>
       </c>
-      <c r="G49" t="str">
+      <c r="G49" t="e">
         <f>VLOOKUP(E49,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -7305,9 +7500,9 @@
         <f t="shared" si="0"/>
         <v>100025206165269</v>
       </c>
-      <c r="G50" t="str">
+      <c r="G50" t="e">
         <f>VLOOKUP(E50,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -7330,9 +7525,9 @@
         <f t="shared" si="0"/>
         <v>100025276176243</v>
       </c>
-      <c r="G51" t="str">
+      <c r="G51" t="e">
         <f>VLOOKUP(E51,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -7355,9 +7550,9 @@
         <f t="shared" si="0"/>
         <v>100025307827800</v>
       </c>
-      <c r="G52" t="str">
+      <c r="G52" t="e">
         <f>VLOOKUP(E52,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -7380,9 +7575,9 @@
         <f t="shared" si="0"/>
         <v>100025349050741</v>
       </c>
-      <c r="G53" t="str">
+      <c r="G53" t="e">
         <f>VLOOKUP(E53,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -7405,9 +7600,9 @@
         <f t="shared" si="0"/>
         <v>100025787169363</v>
       </c>
-      <c r="G54" t="str">
+      <c r="G54" t="e">
         <f>VLOOKUP(E54,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -7430,9 +7625,9 @@
         <f t="shared" si="0"/>
         <v>100025901910341</v>
       </c>
-      <c r="G55" t="str">
+      <c r="G55" t="e">
         <f>VLOOKUP(E55,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -7455,9 +7650,9 @@
         <f t="shared" si="0"/>
         <v>100026051990258</v>
       </c>
-      <c r="G56" t="str">
+      <c r="G56" t="e">
         <f>VLOOKUP(E56,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -7480,9 +7675,9 @@
         <f t="shared" si="0"/>
         <v>100026174644270</v>
       </c>
-      <c r="G57" t="str">
+      <c r="G57" t="e">
         <f>VLOOKUP(E57,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -7505,9 +7700,9 @@
         <f t="shared" si="0"/>
         <v>100026505078816</v>
       </c>
-      <c r="G58" t="str">
+      <c r="G58" t="e">
         <f>VLOOKUP(E58,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -7530,9 +7725,9 @@
         <f t="shared" si="0"/>
         <v>100026710362039</v>
       </c>
-      <c r="G59" t="str">
+      <c r="G59" t="e">
         <f>VLOOKUP(E59,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -7555,9 +7750,9 @@
         <f t="shared" si="0"/>
         <v>100026719233995</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60" t="e">
         <f>VLOOKUP(E60,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -7580,9 +7775,9 @@
         <f t="shared" si="0"/>
         <v>100026732282947</v>
       </c>
-      <c r="G61" t="str">
+      <c r="G61" t="e">
         <f>VLOOKUP(E61,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -7605,9 +7800,9 @@
         <f t="shared" si="0"/>
         <v>100026746922363</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G62" t="e">
         <f>VLOOKUP(E62,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -7630,9 +7825,9 @@
         <f t="shared" si="0"/>
         <v>100026771828608</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G63" t="e">
         <f>VLOOKUP(E63,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -7655,9 +7850,9 @@
         <f t="shared" si="0"/>
         <v>100027013343630</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G64" t="e">
         <f>VLOOKUP(E64,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7680,9 +7875,9 @@
         <f t="shared" si="0"/>
         <v>100027124453930</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G65" t="e">
         <f>VLOOKUP(E65,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -7705,9 +7900,9 @@
         <f t="shared" si="0"/>
         <v>100027124453930</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G66" t="e">
         <f>VLOOKUP(E66,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -7730,9 +7925,9 @@
         <f t="shared" ref="F67:F130" si="1">SUBSTITUTE(E67,"#","")</f>
         <v>100027133543586</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G67" t="e">
         <f>VLOOKUP(E67,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7755,9 +7950,9 @@
         <f t="shared" si="1"/>
         <v>100027160632435</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G68" t="e">
         <f>VLOOKUP(E68,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -7780,9 +7975,9 @@
         <f t="shared" si="1"/>
         <v>100027181391653</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G69" t="e">
         <f>VLOOKUP(E69,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7805,9 +8000,9 @@
         <f t="shared" si="1"/>
         <v>100027211839679</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G70" t="e">
         <f>VLOOKUP(E70,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7830,9 +8025,9 @@
         <f t="shared" si="1"/>
         <v>100027241688320</v>
       </c>
-      <c r="G71" t="str">
+      <c r="G71" t="e">
         <f>VLOOKUP(E71,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7855,9 +8050,9 @@
         <f t="shared" si="1"/>
         <v>100027315903411</v>
       </c>
-      <c r="G72" t="str">
+      <c r="G72" t="e">
         <f>VLOOKUP(E72,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7880,9 +8075,9 @@
         <f t="shared" si="1"/>
         <v>100027348301436</v>
       </c>
-      <c r="G73" t="str">
+      <c r="G73" t="e">
         <f>VLOOKUP(E73,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7905,9 +8100,9 @@
         <f t="shared" si="1"/>
         <v>100027398177597</v>
       </c>
-      <c r="G74" t="str">
+      <c r="G74" t="e">
         <f>VLOOKUP(E74,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7930,9 +8125,9 @@
         <f t="shared" si="1"/>
         <v>100027398177597</v>
       </c>
-      <c r="G75" t="str">
+      <c r="G75" t="e">
         <f>VLOOKUP(E75,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7955,9 +8150,9 @@
         <f t="shared" si="1"/>
         <v>100027400037542</v>
       </c>
-      <c r="G76" t="str">
+      <c r="G76" t="e">
         <f>VLOOKUP(E76,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7980,9 +8175,9 @@
         <f t="shared" si="1"/>
         <v>100027495968863</v>
       </c>
-      <c r="G77" t="str">
+      <c r="G77" t="e">
         <f>VLOOKUP(E77,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -8005,9 +8200,9 @@
         <f t="shared" si="1"/>
         <v>100027505688206</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G78" t="e">
         <f>VLOOKUP(E78,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -8030,9 +8225,9 @@
         <f t="shared" si="1"/>
         <v>100027532294705</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G79" t="e">
         <f>VLOOKUP(E79,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -8055,9 +8250,9 @@
         <f t="shared" si="1"/>
         <v>100027532294705</v>
       </c>
-      <c r="G80" t="str">
+      <c r="G80" t="e">
         <f>VLOOKUP(E80,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -8080,9 +8275,9 @@
         <f t="shared" si="1"/>
         <v>100027545373973</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G81" t="e">
         <f>VLOOKUP(E81,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -8105,9 +8300,9 @@
         <f t="shared" si="1"/>
         <v>100027549333530</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G82" t="e">
         <f>VLOOKUP(E82,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -8130,9 +8325,9 @@
         <f t="shared" si="1"/>
         <v>100027727040904</v>
       </c>
-      <c r="G83" t="str">
+      <c r="G83" t="e">
         <f>VLOOKUP(E83,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -8155,9 +8350,9 @@
         <f t="shared" si="1"/>
         <v>100027839592559</v>
       </c>
-      <c r="G84" t="str">
+      <c r="G84" t="e">
         <f>VLOOKUP(E84,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -8180,9 +8375,9 @@
         <f t="shared" si="1"/>
         <v>100027882160274</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G85" t="e">
         <f>VLOOKUP(E85,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -8205,9 +8400,9 @@
         <f t="shared" si="1"/>
         <v>100027901958465</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G86" t="e">
         <f>VLOOKUP(E86,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -8230,9 +8425,9 @@
         <f t="shared" si="1"/>
         <v>100027911168269</v>
       </c>
-      <c r="G87" t="str">
+      <c r="G87" t="e">
         <f>VLOOKUP(E87,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -8255,9 +8450,9 @@
         <f t="shared" si="1"/>
         <v>100027928434250</v>
       </c>
-      <c r="G88" t="str">
+      <c r="G88" t="e">
         <f>VLOOKUP(E88,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -8280,9 +8475,9 @@
         <f t="shared" si="1"/>
         <v>100027979713940</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G89" t="e">
         <f>VLOOKUP(E89,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -8305,9 +8500,9 @@
         <f t="shared" si="1"/>
         <v>100028002452986</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G90" t="e">
         <f>VLOOKUP(E90,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -8330,9 +8525,9 @@
         <f t="shared" si="1"/>
         <v>100028008272584</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G91" t="e">
         <f>VLOOKUP(E91,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -8355,9 +8550,9 @@
         <f t="shared" si="1"/>
         <v>100028018651417</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G92" t="e">
         <f>VLOOKUP(E92,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -8380,9 +8575,9 @@
         <f t="shared" si="1"/>
         <v>100028021891363</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G93" t="e">
         <f>VLOOKUP(E93,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -8405,9 +8600,9 @@
         <f t="shared" si="1"/>
         <v>100028044257659</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G94" t="e">
         <f>VLOOKUP(E94,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -8430,9 +8625,9 @@
         <f t="shared" si="1"/>
         <v>100028070235444</v>
       </c>
-      <c r="G95" t="str">
+      <c r="G95" t="e">
         <f>VLOOKUP(E95,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -8455,9 +8650,9 @@
         <f t="shared" si="1"/>
         <v>100028072644100</v>
       </c>
-      <c r="G96" t="str">
+      <c r="G96" t="e">
         <f>VLOOKUP(E96,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -8480,9 +8675,9 @@
         <f t="shared" si="1"/>
         <v>100028089592513</v>
       </c>
-      <c r="G97" t="str">
+      <c r="G97" t="e">
         <f>VLOOKUP(E97,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -8505,9 +8700,9 @@
         <f t="shared" si="1"/>
         <v>100028111341206</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G98" t="e">
         <f>VLOOKUP(E98,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -8530,9 +8725,9 @@
         <f t="shared" si="1"/>
         <v>100028112991025</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G99" t="e">
         <f>VLOOKUP(E99,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -8555,9 +8750,9 @@
         <f t="shared" si="1"/>
         <v>100028123010895</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G100" t="e">
         <f>VLOOKUP(E100,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -8580,9 +8775,9 @@
         <f t="shared" si="1"/>
         <v>100028249354038</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G101" t="e">
         <f>VLOOKUP(E101,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -8605,9 +8800,9 @@
         <f t="shared" si="1"/>
         <v>100028256613567</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G102" t="e">
         <f>VLOOKUP(E102,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -8630,9 +8825,9 @@
         <f t="shared" si="1"/>
         <v>100028352626706</v>
       </c>
-      <c r="G103" t="str">
+      <c r="G103" t="e">
         <f>VLOOKUP(E103,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8655,9 +8850,9 @@
         <f t="shared" si="1"/>
         <v>100028393953184</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G104" t="e">
         <f>VLOOKUP(E104,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8680,9 +8875,9 @@
         <f t="shared" si="1"/>
         <v>100028394493087</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G105" t="e">
         <f>VLOOKUP(E105,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8705,9 +8900,9 @@
         <f t="shared" si="1"/>
         <v>100028396982896</v>
       </c>
-      <c r="G106" t="str">
+      <c r="G106" t="e">
         <f>VLOOKUP(E106,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8730,9 +8925,9 @@
         <f t="shared" si="1"/>
         <v>100028418161665</v>
       </c>
-      <c r="G107" t="str">
+      <c r="G107" t="e">
         <f>VLOOKUP(E107,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8755,9 +8950,9 @@
         <f t="shared" si="1"/>
         <v>100028469738852</v>
       </c>
-      <c r="G108" t="str">
+      <c r="G108" t="e">
         <f>VLOOKUP(E108,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8780,9 +8975,9 @@
         <f t="shared" si="1"/>
         <v>100028507566011</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G109" t="e">
         <f>VLOOKUP(E109,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -8805,9 +9000,9 @@
         <f t="shared" si="1"/>
         <v>100028509126153</v>
       </c>
-      <c r="G110" t="str">
+      <c r="G110" t="e">
         <f>VLOOKUP(E110,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8830,9 +9025,9 @@
         <f t="shared" si="1"/>
         <v>100028535734205</v>
       </c>
-      <c r="G111" t="str">
+      <c r="G111" t="e">
         <f>VLOOKUP(E111,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8855,9 +9050,9 @@
         <f t="shared" si="1"/>
         <v>100028548391068</v>
       </c>
-      <c r="G112" t="str">
+      <c r="G112" t="e">
         <f>VLOOKUP(E112,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8880,9 +9075,9 @@
         <f t="shared" si="1"/>
         <v>100029450925996</v>
       </c>
-      <c r="G113" t="str">
+      <c r="G113" t="e">
         <f>VLOOKUP(E113,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8905,9 +9100,9 @@
         <f t="shared" si="1"/>
         <v>100029478762308</v>
       </c>
-      <c r="G114" t="str">
+      <c r="G114" t="e">
         <f>VLOOKUP(E114,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -8930,9 +9125,9 @@
         <f t="shared" si="1"/>
         <v>100029502401804</v>
       </c>
-      <c r="G115" t="str">
+      <c r="G115" t="e">
         <f>VLOOKUP(E115,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8955,9 +9150,9 @@
         <f t="shared" si="1"/>
         <v>100029513261428</v>
       </c>
-      <c r="G116" t="str">
+      <c r="G116" t="e">
         <f>VLOOKUP(E116,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8980,9 +9175,9 @@
         <f t="shared" si="1"/>
         <v>100029522231336</v>
       </c>
-      <c r="G117" t="str">
+      <c r="G117" t="e">
         <f>VLOOKUP(E117,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -9005,9 +9200,9 @@
         <f t="shared" si="1"/>
         <v>100029522231336</v>
       </c>
-      <c r="G118" t="str">
+      <c r="G118" t="e">
         <f>VLOOKUP(E118,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -9030,9 +9225,9 @@
         <f t="shared" si="1"/>
         <v>100029540049774</v>
       </c>
-      <c r="G119" t="str">
+      <c r="G119" t="e">
         <f>VLOOKUP(E119,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -9055,9 +9250,9 @@
         <f t="shared" si="1"/>
         <v>100029569523696</v>
       </c>
-      <c r="G120" t="str">
+      <c r="G120" t="e">
         <f>VLOOKUP(E120,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -9080,9 +9275,9 @@
         <f t="shared" si="1"/>
         <v>100029575507554</v>
       </c>
-      <c r="G121" t="str">
+      <c r="G121" t="e">
         <f>VLOOKUP(E121,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -9105,9 +9300,9 @@
         <f t="shared" si="1"/>
         <v>100029614190357</v>
       </c>
-      <c r="G122" t="str">
+      <c r="G122" t="e">
         <f>VLOOKUP(E122,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -9130,9 +9325,9 @@
         <f t="shared" si="1"/>
         <v>100029619154853</v>
       </c>
-      <c r="G123" t="str">
+      <c r="G123" t="e">
         <f>VLOOKUP(E123,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -9155,9 +9350,9 @@
         <f t="shared" si="1"/>
         <v>100029628949504</v>
       </c>
-      <c r="G124" t="str">
+      <c r="G124" t="e">
         <f>VLOOKUP(E124,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -9180,9 +9375,9 @@
         <f t="shared" si="1"/>
         <v>100029652153816</v>
       </c>
-      <c r="G125" t="str">
+      <c r="G125" t="e">
         <f>VLOOKUP(E125,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -9205,9 +9400,9 @@
         <f t="shared" si="1"/>
         <v>100029655588956</v>
       </c>
-      <c r="G126" t="str">
+      <c r="G126" t="e">
         <f>VLOOKUP(E126,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -9230,9 +9425,9 @@
         <f t="shared" si="1"/>
         <v>100029656683599</v>
       </c>
-      <c r="G127" t="str">
+      <c r="G127" t="e">
         <f>VLOOKUP(E127,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -9255,9 +9450,9 @@
         <f t="shared" si="1"/>
         <v>100029669372270</v>
       </c>
-      <c r="G128" t="str">
+      <c r="G128" t="e">
         <f>VLOOKUP(E128,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -9280,9 +9475,9 @@
         <f t="shared" si="1"/>
         <v>100029674052184</v>
       </c>
-      <c r="G129" t="str">
+      <c r="G129" t="e">
         <f>VLOOKUP(E129,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -9305,9 +9500,9 @@
         <f t="shared" si="1"/>
         <v>100029690401374</v>
       </c>
-      <c r="G130" t="str">
+      <c r="G130" t="e">
         <f>VLOOKUP(E130,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -9330,9 +9525,9 @@
         <f t="shared" ref="F131:F194" si="2">SUBSTITUTE(E131,"#","")</f>
         <v>100029797101796</v>
       </c>
-      <c r="G131" t="str">
+      <c r="G131" t="e">
         <f>VLOOKUP(E131,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -9355,9 +9550,9 @@
         <f t="shared" si="2"/>
         <v>100029798781830</v>
       </c>
-      <c r="G132" t="str">
+      <c r="G132" t="e">
         <f>VLOOKUP(E132,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -9380,9 +9575,9 @@
         <f t="shared" si="2"/>
         <v>100029813691274</v>
       </c>
-      <c r="G133" t="str">
+      <c r="G133" t="e">
         <f>VLOOKUP(E133,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -9405,9 +9600,9 @@
         <f t="shared" si="2"/>
         <v>100029840660048</v>
       </c>
-      <c r="G134" t="str">
+      <c r="G134" t="e">
         <f>VLOOKUP(E134,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -9430,9 +9625,9 @@
         <f t="shared" si="2"/>
         <v>100029854099720</v>
       </c>
-      <c r="G135" t="str">
+      <c r="G135" t="e">
         <f>VLOOKUP(E135,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -9455,9 +9650,9 @@
         <f t="shared" si="2"/>
         <v>100029862229650</v>
       </c>
-      <c r="G136" t="str">
+      <c r="G136" t="e">
         <f>VLOOKUP(E136,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -9480,9 +9675,9 @@
         <f t="shared" si="2"/>
         <v>100029876898614</v>
       </c>
-      <c r="G137" t="str">
+      <c r="G137" t="e">
         <f>VLOOKUP(E137,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -9505,9 +9700,9 @@
         <f t="shared" si="2"/>
         <v>100029878922557</v>
       </c>
-      <c r="G138" t="str">
+      <c r="G138" t="e">
         <f>VLOOKUP(E138,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -9530,9 +9725,9 @@
         <f t="shared" si="2"/>
         <v>100029885838751</v>
       </c>
-      <c r="G139" t="str">
+      <c r="G139" t="e">
         <f>VLOOKUP(E139,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -9555,9 +9750,9 @@
         <f t="shared" si="2"/>
         <v>100029896711708</v>
       </c>
-      <c r="G140" t="str">
+      <c r="G140" t="e">
         <f>VLOOKUP(E140,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -9580,9 +9775,9 @@
         <f t="shared" si="2"/>
         <v>100029899457656</v>
       </c>
-      <c r="G141" t="str">
+      <c r="G141" t="e">
         <f>VLOOKUP(E141,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -9605,9 +9800,9 @@
         <f t="shared" si="2"/>
         <v>100029911816519</v>
       </c>
-      <c r="G142" t="str">
+      <c r="G142" t="e">
         <f>VLOOKUP(E142,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -9630,9 +9825,9 @@
         <f t="shared" si="2"/>
         <v>100029922886251</v>
       </c>
-      <c r="G143" t="str">
+      <c r="G143" t="e">
         <f>VLOOKUP(E143,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -9655,9 +9850,9 @@
         <f t="shared" si="2"/>
         <v>100029933205561</v>
       </c>
-      <c r="G144" t="str">
+      <c r="G144" t="e">
         <f>VLOOKUP(E144,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -9680,9 +9875,9 @@
         <f t="shared" si="2"/>
         <v>100029962873046</v>
       </c>
-      <c r="G145" t="str">
+      <c r="G145" t="e">
         <f>VLOOKUP(E145,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -9705,9 +9900,9 @@
         <f t="shared" si="2"/>
         <v>100029989121691</v>
       </c>
-      <c r="G146" t="str">
+      <c r="G146" t="e">
         <f>VLOOKUP(E146,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -9730,9 +9925,9 @@
         <f t="shared" si="2"/>
         <v>100030003190279</v>
       </c>
-      <c r="G147" t="str">
+      <c r="G147" t="e">
         <f>VLOOKUP(E147,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9755,9 +9950,9 @@
         <f t="shared" si="2"/>
         <v>100030061056643</v>
       </c>
-      <c r="G148" t="str">
+      <c r="G148" t="e">
         <f>VLOOKUP(E148,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9780,9 +9975,9 @@
         <f t="shared" si="2"/>
         <v>100030121621713</v>
       </c>
-      <c r="G149" t="str">
+      <c r="G149" t="e">
         <f>VLOOKUP(E149,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -9805,9 +10000,9 @@
         <f t="shared" si="2"/>
         <v>100030203093332</v>
       </c>
-      <c r="G150" t="str">
+      <c r="G150" t="e">
         <f>VLOOKUP(E150,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -9830,9 +10025,9 @@
         <f t="shared" si="2"/>
         <v>100030279353439</v>
       </c>
-      <c r="G151" t="str">
+      <c r="G151" t="e">
         <f>VLOOKUP(E151,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9855,9 +10050,9 @@
         <f t="shared" si="2"/>
         <v>100030288532929</v>
       </c>
-      <c r="G152" t="str">
+      <c r="G152" t="e">
         <f>VLOOKUP(E152,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9880,9 +10075,9 @@
         <f t="shared" si="2"/>
         <v>100030395896089</v>
       </c>
-      <c r="G153" t="str">
+      <c r="G153" t="e">
         <f>VLOOKUP(E153,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9905,9 +10100,9 @@
         <f t="shared" si="2"/>
         <v>100030455261406</v>
       </c>
-      <c r="G154" t="str">
+      <c r="G154" t="e">
         <f>VLOOKUP(E154,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9930,9 +10125,9 @@
         <f t="shared" si="2"/>
         <v>100030455291714</v>
       </c>
-      <c r="G155" t="str">
+      <c r="G155" t="e">
         <f>VLOOKUP(E155,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9955,9 +10150,9 @@
         <f t="shared" si="2"/>
         <v>100030465940630</v>
       </c>
-      <c r="G156" t="str">
+      <c r="G156" t="e">
         <f>VLOOKUP(E156,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9980,9 +10175,9 @@
         <f t="shared" si="2"/>
         <v>100030481359834</v>
       </c>
-      <c r="G157" t="str">
+      <c r="G157" t="e">
         <f>VLOOKUP(E157,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -10005,9 +10200,9 @@
         <f t="shared" si="2"/>
         <v>100030481359834</v>
       </c>
-      <c r="G158" t="str">
+      <c r="G158" t="e">
         <f>VLOOKUP(E158,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -10030,9 +10225,9 @@
         <f t="shared" si="2"/>
         <v>100030485589538</v>
       </c>
-      <c r="G159" t="str">
+      <c r="G159" t="e">
         <f>VLOOKUP(E159,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -10055,9 +10250,9 @@
         <f t="shared" si="2"/>
         <v>100030493238905</v>
       </c>
-      <c r="G160" t="str">
+      <c r="G160" t="e">
         <f>VLOOKUP(E160,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -10080,9 +10275,9 @@
         <f t="shared" si="2"/>
         <v>100030504098328</v>
       </c>
-      <c r="G161" t="str">
+      <c r="G161" t="e">
         <f>VLOOKUP(E161,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -10105,9 +10300,9 @@
         <f t="shared" si="2"/>
         <v>100030507916519</v>
       </c>
-      <c r="G162" t="str">
+      <c r="G162" t="e">
         <f>VLOOKUP(E162,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -10130,9 +10325,9 @@
         <f t="shared" si="2"/>
         <v>100030626980271</v>
       </c>
-      <c r="G163" t="str">
+      <c r="G163" t="e">
         <f>VLOOKUP(E163,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -10155,9 +10350,9 @@
         <f t="shared" si="2"/>
         <v>100030899824321</v>
       </c>
-      <c r="G164" t="str">
+      <c r="G164" t="e">
         <f>VLOOKUP(E164,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -10180,9 +10375,9 @@
         <f t="shared" si="2"/>
         <v>100030953402412</v>
       </c>
-      <c r="G165" t="str">
+      <c r="G165" t="e">
         <f>VLOOKUP(E165,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -10205,9 +10400,9 @@
         <f t="shared" si="2"/>
         <v>100031411720442</v>
       </c>
-      <c r="G166" t="str">
+      <c r="G166" t="e">
         <f>VLOOKUP(E166,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -10230,9 +10425,9 @@
         <f t="shared" si="2"/>
         <v>100032347223416</v>
       </c>
-      <c r="G167" t="str">
+      <c r="G167" t="e">
         <f>VLOOKUP(E167,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -10255,9 +10450,9 @@
         <f t="shared" si="2"/>
         <v>100032380489953</v>
       </c>
-      <c r="G168" t="str">
+      <c r="G168" t="e">
         <f>VLOOKUP(E168,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -10280,9 +10475,9 @@
         <f t="shared" si="2"/>
         <v>100032382739506</v>
       </c>
-      <c r="G169" t="str">
+      <c r="G169" t="e">
         <f>VLOOKUP(E169,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -10305,9 +10500,9 @@
         <f t="shared" si="2"/>
         <v>100032384269359</v>
       </c>
-      <c r="G170" t="str">
+      <c r="G170" t="e">
         <f>VLOOKUP(E170,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -10330,9 +10525,9 @@
         <f t="shared" si="2"/>
         <v>100032413396624</v>
       </c>
-      <c r="G171" t="str">
+      <c r="G171" t="e">
         <f>VLOOKUP(E171,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -10355,9 +10550,9 @@
         <f t="shared" si="2"/>
         <v>100032417235972</v>
       </c>
-      <c r="G172" t="str">
+      <c r="G172" t="e">
         <f>VLOOKUP(E172,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -10380,9 +10575,9 @@
         <f t="shared" si="2"/>
         <v>100032429985041</v>
       </c>
-      <c r="G173" t="str">
+      <c r="G173" t="e">
         <f>VLOOKUP(E173,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -10405,9 +10600,9 @@
         <f t="shared" si="2"/>
         <v>100032465171331</v>
       </c>
-      <c r="G174" t="str">
+      <c r="G174" t="e">
         <f>VLOOKUP(E174,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -10430,9 +10625,9 @@
         <f t="shared" si="2"/>
         <v>100032474350409</v>
       </c>
-      <c r="G175" t="str">
+      <c r="G175" t="e">
         <f>VLOOKUP(E175,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -10455,9 +10650,9 @@
         <f t="shared" si="2"/>
         <v>100032477080263</v>
       </c>
-      <c r="G176" t="str">
+      <c r="G176" t="e">
         <f>VLOOKUP(E176,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -10480,9 +10675,9 @@
         <f t="shared" si="2"/>
         <v>100032479090433</v>
       </c>
-      <c r="G177" t="str">
+      <c r="G177" t="e">
         <f>VLOOKUP(E177,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -10505,9 +10700,9 @@
         <f t="shared" si="2"/>
         <v>100032542173708</v>
       </c>
-      <c r="G178" t="str">
+      <c r="G178" t="e">
         <f>VLOOKUP(E178,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -10530,9 +10725,9 @@
         <f t="shared" si="2"/>
         <v>100032566051600</v>
       </c>
-      <c r="G179" t="str">
+      <c r="G179" t="e">
         <f>VLOOKUP(E179,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -10555,9 +10750,9 @@
         <f t="shared" si="2"/>
         <v>100032568721471</v>
       </c>
-      <c r="G180" t="str">
+      <c r="G180" t="e">
         <f>VLOOKUP(E180,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -10580,9 +10775,9 @@
         <f t="shared" si="2"/>
         <v>100032753511109</v>
       </c>
-      <c r="G181" t="str">
+      <c r="G181" t="e">
         <f>VLOOKUP(E181,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -10605,9 +10800,9 @@
         <f t="shared" si="2"/>
         <v>100032857363100</v>
       </c>
-      <c r="G182" t="str">
+      <c r="G182" t="e">
         <f>VLOOKUP(E182,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -10630,9 +10825,9 @@
         <f t="shared" si="2"/>
         <v>100032884781719</v>
       </c>
-      <c r="G183" t="str">
+      <c r="G183" t="e">
         <f>VLOOKUP(E183,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -10655,9 +10850,9 @@
         <f t="shared" si="2"/>
         <v>100032885321811</v>
       </c>
-      <c r="G184" t="str">
+      <c r="G184" t="e">
         <f>VLOOKUP(E184,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -10680,9 +10875,9 @@
         <f t="shared" si="2"/>
         <v>100032913880123</v>
       </c>
-      <c r="G185" t="str">
+      <c r="G185" t="e">
         <f>VLOOKUP(E185,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -10705,9 +10900,9 @@
         <f t="shared" si="2"/>
         <v>100032925219324</v>
       </c>
-      <c r="G186" t="str">
+      <c r="G186" t="e">
         <f>VLOOKUP(E186,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -10730,9 +10925,9 @@
         <f t="shared" si="2"/>
         <v>100032970127052</v>
       </c>
-      <c r="G187" t="str">
+      <c r="G187" t="e">
         <f>VLOOKUP(E187,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -10755,9 +10950,9 @@
         <f t="shared" si="2"/>
         <v>100033053191273</v>
       </c>
-      <c r="G188" t="str">
+      <c r="G188" t="e">
         <f>VLOOKUP(E188,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -10780,9 +10975,9 @@
         <f t="shared" si="2"/>
         <v>100033085972847</v>
       </c>
-      <c r="G189" t="str">
+      <c r="G189" t="e">
         <f>VLOOKUP(E189,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -10805,9 +11000,9 @@
         <f t="shared" si="2"/>
         <v>100033088142439</v>
       </c>
-      <c r="G190" t="str">
+      <c r="G190" t="e">
         <f>VLOOKUP(E190,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -10830,9 +11025,9 @@
         <f t="shared" si="2"/>
         <v>100033162887734</v>
       </c>
-      <c r="G191" t="str">
+      <c r="G191" t="e">
         <f>VLOOKUP(E191,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -10855,9 +11050,9 @@
         <f t="shared" si="2"/>
         <v>100033175456924</v>
       </c>
-      <c r="G192" t="str">
+      <c r="G192" t="e">
         <f>VLOOKUP(E192,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -10880,9 +11075,9 @@
         <f t="shared" si="2"/>
         <v>100033287439830</v>
       </c>
-      <c r="G193" t="str">
+      <c r="G193" t="e">
         <f>VLOOKUP(E193,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -10905,9 +11100,9 @@
         <f t="shared" si="2"/>
         <v>100033298929320</v>
       </c>
-      <c r="G194" t="str">
+      <c r="G194" t="e">
         <f>VLOOKUP(E194,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -10930,9 +11125,9 @@
         <f t="shared" ref="F195:F258" si="3">SUBSTITUTE(E195,"#","")</f>
         <v>100033353345797</v>
       </c>
-      <c r="G195" t="str">
+      <c r="G195" t="e">
         <f>VLOOKUP(E195,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -10955,9 +11150,9 @@
         <f t="shared" si="3"/>
         <v>100033353345797</v>
       </c>
-      <c r="G196" t="str">
+      <c r="G196" t="e">
         <f>VLOOKUP(E196,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -10980,9 +11175,9 @@
         <f t="shared" si="3"/>
         <v>100033390273148</v>
       </c>
-      <c r="G197" t="str">
+      <c r="G197" t="e">
         <f>VLOOKUP(E197,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -11005,9 +11200,9 @@
         <f t="shared" si="3"/>
         <v>100033428670324</v>
       </c>
-      <c r="G198" t="str">
+      <c r="G198" t="e">
         <f>VLOOKUP(E198,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -11030,9 +11225,9 @@
         <f t="shared" si="3"/>
         <v>100033565475775</v>
       </c>
-      <c r="G199" t="str">
+      <c r="G199" t="e">
         <f>VLOOKUP(E199,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -11055,9 +11250,9 @@
         <f t="shared" si="3"/>
         <v>100033604593219</v>
       </c>
-      <c r="G200" t="str">
+      <c r="G200" t="e">
         <f>VLOOKUP(E200,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -11080,9 +11275,9 @@
         <f t="shared" si="3"/>
         <v>100034041589730</v>
       </c>
-      <c r="G201" t="str">
+      <c r="G201" t="e">
         <f>VLOOKUP(E201,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -11105,9 +11300,9 @@
         <f t="shared" si="3"/>
         <v>100034089196752</v>
       </c>
-      <c r="G202" t="str">
+      <c r="G202" t="e">
         <f>VLOOKUP(E202,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -11130,9 +11325,9 @@
         <f t="shared" si="3"/>
         <v>100034122914340</v>
       </c>
-      <c r="G203" t="str">
+      <c r="G203" t="e">
         <f>VLOOKUP(E203,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -11155,9 +11350,9 @@
         <f t="shared" si="3"/>
         <v>100034270485164</v>
       </c>
-      <c r="G204" t="str">
+      <c r="G204" t="e">
         <f>VLOOKUP(E204,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -11180,9 +11375,9 @@
         <f t="shared" si="3"/>
         <v>100034316354190</v>
       </c>
-      <c r="G205" t="str">
+      <c r="G205" t="e">
         <f>VLOOKUP(E205,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -11205,9 +11400,9 @@
         <f t="shared" si="3"/>
         <v>100034335912675</v>
       </c>
-      <c r="G206" t="str">
+      <c r="G206" t="e">
         <f>VLOOKUP(E206,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -11230,9 +11425,9 @@
         <f t="shared" si="3"/>
         <v>100034340262345</v>
       </c>
-      <c r="G207" t="str">
+      <c r="G207" t="e">
         <f>VLOOKUP(E207,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -11255,9 +11450,9 @@
         <f t="shared" si="3"/>
         <v>100034391377071</v>
       </c>
-      <c r="G208" t="str">
+      <c r="G208" t="e">
         <f>VLOOKUP(E208,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -11280,9 +11475,9 @@
         <f t="shared" si="3"/>
         <v>100034530712466</v>
       </c>
-      <c r="G209" t="str">
+      <c r="G209" t="e">
         <f>VLOOKUP(E209,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -11305,9 +11500,9 @@
         <f t="shared" si="3"/>
         <v>100034533172484</v>
       </c>
-      <c r="G210" t="str">
+      <c r="G210" t="e">
         <f>VLOOKUP(E210,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -11330,9 +11525,9 @@
         <f t="shared" si="3"/>
         <v>100034599077859</v>
       </c>
-      <c r="G211" t="str">
+      <c r="G211" t="e">
         <f>VLOOKUP(E211,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -11355,9 +11550,9 @@
         <f t="shared" si="3"/>
         <v>100034620496741</v>
       </c>
-      <c r="G212" t="str">
+      <c r="G212" t="e">
         <f>VLOOKUP(E212,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -11380,9 +11575,9 @@
         <f t="shared" si="3"/>
         <v>100034772256781</v>
       </c>
-      <c r="G213" t="str">
+      <c r="G213" t="e">
         <f>VLOOKUP(E213,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -11405,9 +11600,9 @@
         <f t="shared" si="3"/>
         <v>100034944605234</v>
       </c>
-      <c r="G214" t="str">
+      <c r="G214" t="e">
         <f>VLOOKUP(E214,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -11430,9 +11625,9 @@
         <f t="shared" si="3"/>
         <v>100035008742727</v>
       </c>
-      <c r="G215" t="str">
+      <c r="G215" t="e">
         <f>VLOOKUP(E215,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -11455,9 +11650,9 @@
         <f t="shared" si="3"/>
         <v>100035325473847</v>
       </c>
-      <c r="G216" t="str">
+      <c r="G216" t="e">
         <f>VLOOKUP(E216,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -11480,9 +11675,9 @@
         <f t="shared" si="3"/>
         <v>100035347222824</v>
       </c>
-      <c r="G217" t="str">
+      <c r="G217" t="e">
         <f>VLOOKUP(E217,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -11505,9 +11700,9 @@
         <f t="shared" si="3"/>
         <v>100035355202461</v>
       </c>
-      <c r="G218" t="str">
+      <c r="G218" t="e">
         <f>VLOOKUP(E218,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -11530,9 +11725,9 @@
         <f t="shared" si="3"/>
         <v>100035387300756</v>
       </c>
-      <c r="G219" t="str">
+      <c r="G219" t="e">
         <f>VLOOKUP(E219,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -11555,9 +11750,9 @@
         <f t="shared" si="3"/>
         <v>100035445255490</v>
       </c>
-      <c r="G220" t="str">
+      <c r="G220" t="e">
         <f>VLOOKUP(E220,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -11580,9 +11775,9 @@
         <f t="shared" si="3"/>
         <v>100035461574695</v>
       </c>
-      <c r="G221" t="str">
+      <c r="G221" t="e">
         <f>VLOOKUP(E221,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -11605,9 +11800,9 @@
         <f t="shared" si="3"/>
         <v>100035464604816</v>
       </c>
-      <c r="G222" t="str">
+      <c r="G222" t="e">
         <f>VLOOKUP(E222,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -11630,9 +11825,9 @@
         <f t="shared" si="3"/>
         <v>100035599776372</v>
       </c>
-      <c r="G223" t="str">
+      <c r="G223" t="e">
         <f>VLOOKUP(E223,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -11655,9 +11850,9 @@
         <f t="shared" si="3"/>
         <v>100035695244972</v>
       </c>
-      <c r="G224" t="str">
+      <c r="G224" t="e">
         <f>VLOOKUP(E224,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -11680,9 +11875,9 @@
         <f t="shared" si="3"/>
         <v>100035709403988</v>
       </c>
-      <c r="G225" t="str">
+      <c r="G225" t="e">
         <f>VLOOKUP(E225,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -11702,9 +11897,9 @@
         <f t="shared" si="3"/>
         <v>100035811697060</v>
       </c>
-      <c r="G226" t="str">
+      <c r="G226" t="e">
         <f>VLOOKUP(E226,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -11727,9 +11922,9 @@
         <f t="shared" si="3"/>
         <v>100035961612555</v>
       </c>
-      <c r="G227" t="str">
+      <c r="G227" t="e">
         <f>VLOOKUP(E227,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -11752,9 +11947,9 @@
         <f t="shared" si="3"/>
         <v>100035979881423</v>
       </c>
-      <c r="G228" t="str">
+      <c r="G228" t="e">
         <f>VLOOKUP(E228,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -11777,9 +11972,9 @@
         <f t="shared" si="3"/>
         <v>100036379041529</v>
       </c>
-      <c r="G229" t="str">
+      <c r="G229" t="e">
         <f>VLOOKUP(E229,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -11802,9 +11997,9 @@
         <f t="shared" si="3"/>
         <v>100036503321827</v>
       </c>
-      <c r="G230" t="str">
+      <c r="G230" t="e">
         <f>VLOOKUP(E230,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -11827,9 +12022,9 @@
         <f t="shared" si="3"/>
         <v>100036560919268</v>
       </c>
-      <c r="G231" t="str">
+      <c r="G231" t="e">
         <f>VLOOKUP(E231,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -11852,9 +12047,9 @@
         <f t="shared" si="3"/>
         <v>100036597876875</v>
       </c>
-      <c r="G232" t="str">
+      <c r="G232" t="e">
         <f>VLOOKUP(E232,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -11877,9 +12072,9 @@
         <f t="shared" si="3"/>
         <v>100036619595606</v>
       </c>
-      <c r="G233" t="str">
+      <c r="G233" t="e">
         <f>VLOOKUP(E233,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -11902,9 +12097,9 @@
         <f t="shared" si="3"/>
         <v>100036620015533</v>
       </c>
-      <c r="G234" t="str">
+      <c r="G234" t="e">
         <f>VLOOKUP(E234,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -11927,9 +12122,9 @@
         <f t="shared" si="3"/>
         <v>100036669981315</v>
       </c>
-      <c r="G235" t="str">
+      <c r="G235" t="e">
         <f>VLOOKUP(E235,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -11952,9 +12147,9 @@
         <f t="shared" si="3"/>
         <v>100036780643878</v>
       </c>
-      <c r="G236" t="str">
+      <c r="G236" t="e">
         <f>VLOOKUP(E236,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -11977,9 +12172,9 @@
         <f t="shared" si="3"/>
         <v>100036873488043</v>
       </c>
-      <c r="G237" t="str">
+      <c r="G237" t="e">
         <f>VLOOKUP(E237,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -12122,9 +12317,9 @@
         <f t="shared" si="3"/>
         <v>100033394652935</v>
       </c>
-      <c r="G243" t="str">
+      <c r="G243" t="e">
         <f>VLOOKUP(E243,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -12339,9 +12534,9 @@
         <f t="shared" si="3"/>
         <v>100028195035934</v>
       </c>
-      <c r="G252" t="str">
+      <c r="G252" t="e">
         <f>VLOOKUP(E252,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -12355,9 +12550,9 @@
         <f t="shared" si="3"/>
         <v>100019498924660</v>
       </c>
-      <c r="G253" t="str">
+      <c r="G253" t="e">
         <f>VLOOKUP(E253,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -12371,9 +12566,9 @@
         <f t="shared" si="3"/>
         <v>100028515473323</v>
       </c>
-      <c r="G254" t="str">
+      <c r="G254" t="e">
         <f>VLOOKUP(E254,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>SPAM PILOT</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -12387,9 +12582,9 @@
         <f t="shared" si="3"/>
         <v>100014035669404</v>
       </c>
-      <c r="G255" t="str">
+      <c r="G255" t="e">
         <f>VLOOKUP(E255,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -12403,9 +12598,9 @@
         <f t="shared" si="3"/>
         <v>100028471778381</v>
       </c>
-      <c r="G256" t="str">
+      <c r="G256" t="e">
         <f>VLOOKUP(E256,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -12419,9 +12614,9 @@
         <f t="shared" si="3"/>
         <v>100035709403988</v>
       </c>
-      <c r="G257" t="str">
+      <c r="G257" t="e">
         <f>VLOOKUP(E257,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -12435,9 +12630,9 @@
         <f t="shared" si="3"/>
         <v>100029450925996</v>
       </c>
-      <c r="G258" t="str">
+      <c r="G258" t="e">
         <f>VLOOKUP(E258,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -12451,9 +12646,9 @@
         <f t="shared" ref="F259:F274" si="4">SUBSTITUTE(E259,"#","")</f>
         <v>100036379041529</v>
       </c>
-      <c r="G259" t="str">
+      <c r="G259" t="e">
         <f>VLOOKUP(E259,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>MVW</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -12467,9 +12662,9 @@
         <f t="shared" si="4"/>
         <v>100028230073847</v>
       </c>
-      <c r="G260" t="str">
+      <c r="G260" t="e">
         <f>VLOOKUP(E260,[1]Sheet1!$D:$F,3,FALSE)</f>
-        <v>SPAM PILOT</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -12769,8 +12964,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12778,61 +12973,41 @@
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="85">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>517</v>
       </c>
       <c r="B1" t="s">
         <v>518</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1748</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="68">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>519</v>
       </c>
       <c r="B2" t="s">
         <v>525</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C33" si="0">COUNTIF(A:A,A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>1749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="85">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5" t="s">
         <v>520</v>
       </c>
       <c r="B3" t="s">
         <v>525</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="119">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>521</v>
       </c>
       <c r="B4" t="s">
         <v>525</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>1751</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
@@ -12841,10 +13016,6 @@
       <c r="B5" t="s">
         <v>525</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
@@ -12853,10 +13024,6 @@
       <c r="B6" t="s">
         <v>525</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
@@ -12865,10 +13032,6 @@
       <c r="B7" t="s">
         <v>525</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
@@ -12877,10 +13040,6 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
@@ -12889,10 +13048,6 @@
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
@@ -12901,10 +13056,6 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
@@ -12913,10 +13064,6 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
@@ -12925,10 +13072,6 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
@@ -12937,10 +13080,6 @@
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
@@ -12949,10 +13088,6 @@
       <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
@@ -12961,10 +13096,6 @@
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
@@ -12973,672 +13104,448 @@
       <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
         <v>535</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
         <v>536</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
         <v>537</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
         <v>538</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
         <v>539</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
         <v>541</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
         <v>542</v>
       </c>
       <c r="B23" t="s">
         <v>544</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
         <v>543</v>
       </c>
       <c r="B24" t="s">
         <v>544</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
         <v>545</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
         <v>546</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
         <v>547</v>
       </c>
       <c r="B27" t="s">
         <v>552</v>
       </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
         <v>548</v>
       </c>
       <c r="B28" t="s">
         <v>552</v>
       </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
         <v>549</v>
       </c>
       <c r="B29" t="s">
         <v>552</v>
       </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
         <v>550</v>
       </c>
       <c r="B30" t="s">
         <v>552</v>
       </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
         <v>551</v>
       </c>
       <c r="B31" t="s">
         <v>552</v>
       </c>
-      <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="7" t="s">
         <v>553</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
-      <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="7" t="s">
         <v>554</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="8" t="s">
         <v>556</v>
       </c>
       <c r="B34" t="s">
         <v>573</v>
       </c>
-      <c r="C34">
-        <f t="shared" ref="C34:C65" si="1">COUNTIF(A:A,A34)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="8" t="s">
         <v>557</v>
       </c>
       <c r="B35" t="s">
         <v>573</v>
       </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="8" t="s">
         <v>558</v>
       </c>
       <c r="B36" t="s">
         <v>573</v>
       </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="8" t="s">
         <v>559</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="8" t="s">
         <v>560</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
       </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="8" t="s">
         <v>561</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="8" t="s">
         <v>562</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
       </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="8" t="s">
         <v>563</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
       </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="8" t="s">
         <v>564</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
       </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
         <v>565</v>
       </c>
       <c r="B43" t="s">
         <v>1755</v>
       </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="8" t="s">
         <v>566</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
       </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="8" t="s">
         <v>567</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
       </c>
-      <c r="C45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="8" t="s">
         <v>568</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
       </c>
-      <c r="C46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="8" t="s">
         <v>569</v>
       </c>
       <c r="B47" t="s">
         <v>1755</v>
       </c>
-      <c r="C47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
         <v>555</v>
       </c>
       <c r="B48" t="s">
         <v>573</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
         <v>570</v>
       </c>
       <c r="B49" t="s">
         <v>573</v>
       </c>
-      <c r="C49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
         <v>571</v>
       </c>
       <c r="B50" t="s">
         <v>573</v>
       </c>
-      <c r="C50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="9" t="s">
         <v>572</v>
       </c>
       <c r="B51" t="s">
         <v>573</v>
       </c>
-      <c r="C51">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>540</v>
       </c>
       <c r="B52" t="s">
         <v>525</v>
       </c>
-      <c r="C52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>574</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
       </c>
-      <c r="C53">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>575</v>
       </c>
       <c r="B54" t="s">
         <v>525</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>576</v>
       </c>
       <c r="B55" t="s">
         <v>525</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>577</v>
       </c>
       <c r="B56" t="s">
         <v>582</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>578</v>
       </c>
       <c r="B57" t="s">
         <v>582</v>
       </c>
-      <c r="C57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>579</v>
       </c>
       <c r="B58" t="s">
         <v>582</v>
       </c>
-      <c r="C58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>580</v>
       </c>
       <c r="B59" t="s">
         <v>582</v>
       </c>
-      <c r="C59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>581</v>
       </c>
       <c r="B60" t="s">
         <v>582</v>
       </c>
-      <c r="C60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17">
+    </row>
+    <row r="61" spans="1:2" ht="17">
       <c r="A61" s="1" t="s">
         <v>1746</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
-      <c r="C61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="17">
+    </row>
+    <row r="62" spans="1:2" ht="17">
       <c r="A62" s="1" t="s">
         <v>1747</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
       </c>
-      <c r="C62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="17">
+    </row>
+    <row r="63" spans="1:2" ht="17">
       <c r="A63" s="1" t="s">
         <v>1748</v>
       </c>
       <c r="B63" t="s">
         <v>582</v>
       </c>
-      <c r="C63">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="17">
+    </row>
+    <row r="64" spans="1:2" ht="17">
       <c r="A64" s="1" t="s">
         <v>1749</v>
       </c>
       <c r="B64" t="s">
         <v>582</v>
       </c>
-      <c r="C64">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="17">
+    </row>
+    <row r="65" spans="1:2" ht="17">
       <c r="A65" s="1" t="s">
         <v>1750</v>
       </c>
       <c r="B65" t="s">
         <v>582</v>
       </c>
-      <c r="C65">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="17">
+    </row>
+    <row r="66" spans="1:2" ht="17">
       <c r="A66" s="1" t="s">
         <v>1751</v>
       </c>
       <c r="B66" t="s">
         <v>582</v>
       </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C71" si="2">COUNTIF(A:A,A66)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="34">
+    </row>
+    <row r="67" spans="1:2" ht="34">
       <c r="A67" s="1" t="s">
         <v>1752</v>
       </c>
       <c r="B67" t="s">
         <v>1755</v>
       </c>
-      <c r="C67">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>1753</v>
       </c>
       <c r="B68" t="s">
         <v>1755</v>
       </c>
-      <c r="C68">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>1754</v>
       </c>
       <c r="B69" t="s">
         <v>1755</v>
       </c>
-      <c r="C69">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="34">
+    </row>
+    <row r="70" spans="1:2" ht="34">
       <c r="A70" s="1" t="s">
         <v>1760</v>
       </c>
       <c r="B70" t="s">
         <v>582</v>
       </c>
-      <c r="C70">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="17">
+    </row>
+    <row r="71" spans="1:2" ht="17">
       <c r="A71" s="1" t="s">
         <v>1761</v>
       </c>
       <c r="B71" t="s">
         <v>1755</v>
       </c>
-      <c r="C71">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="17">
+    </row>
+    <row r="72" spans="1:2" ht="17">
       <c r="A72" s="1" t="s">
         <v>1762</v>
       </c>
@@ -13653,103 +13560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C6FBE5-B699-C54E-8B8C-3FBC64E2A548}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>574</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>575</v>
-      </c>
-      <c r="B3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B5" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>578</v>
-      </c>
-      <c r="B6" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>579</v>
-      </c>
-      <c r="B7" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>580</v>
-      </c>
-      <c r="B8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>581</v>
-      </c>
-      <c r="B9" t="s">
-        <v>582</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0722FB6E-5A58-3149-BCCA-FA7A6EF37296}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -13757,7 +13573,7 @@
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
     <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -15102,6 +14918,1791 @@
       <c r="J40" t="str">
         <f t="shared" si="0"/>
         <v>auditors[38]=100026739272710&amp;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C283688-2A29-1045-BEDB-F8887F6EE5BB}">
+  <dimension ref="A1:O54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="H1" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H2">
+        <f>VLOOKUP(A2,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100037060753665</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(C2:I2)</f>
+        <v>auditors[0]=100037060753665&amp;</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H3">
+        <f>VLOOKUP(A3,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019580490470</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J54" si="0">_xlfn.CONCAT(C3:I3)</f>
+        <v>auditors[1]=100019580490470&amp;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H4">
+        <f>VLOOKUP(A4,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100012860717713</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[2]=100012860717713&amp;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H5">
+        <f>VLOOKUP(A5,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100010900335273</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[3]=100010900335273&amp;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6">
+        <f>VLOOKUP(A6,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100024022182176</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[4]=100024022182176&amp;</v>
+      </c>
+      <c r="N6" t="str">
+        <f>_xlfn.CONCAT(M1,J:J,M2)</f>
+        <v>https://review.intern.facebook.com/intern/review/my_accuracy/?auditors[0]=100037060753665&amp;auditors[1]=100019580490470&amp;auditors[2]=100012860717713&amp;auditors[3]=100010900335273&amp;auditors[4]=100024022182176&amp;auditors[5]=100021954187560&amp;auditors[6]=100019536843799&amp;auditors[7]=100019512215542&amp;auditors[8]=100023926644130&amp;auditors[9]=100019568881410&amp;auditors[10]=100023267239592&amp;auditors[11]=100022863481721&amp;auditors[12]=100021905744489&amp;auditors[13]=100022693703940&amp;auditors[14]=100033007894037&amp;auditors[15]=100022490587169&amp;auditors[16]=100023547343073&amp;auditors[17]=100019421742864&amp;auditors[18]=100022396412047&amp;auditors[19]=100022847433608&amp;auditors[20]=100023412840738&amp;auditors[21]=100025158471401&amp;auditors[22]=100019343629024&amp;auditors[23]=100019470608921&amp;auditors[24]=100025147731960&amp;auditors[25]=100024953956231&amp;auditors[26]=100027332032429&amp;auditors[27]=100027578131539&amp;auditors[28]=100025263937120&amp;auditors[29]=100019500756569&amp;auditors[30]=100028824242673&amp;auditors[31]=100018406777602&amp;auditors[32]=100018081605433&amp;auditors[33]=100021905744489&amp;auditors[34]=100025158471401&amp;auditors[35]=100026774828862&amp;auditors[36]=100025349050741&amp;auditors[37]=100023289375957&amp;auditors[38]=100026739272710&amp;reviewers[39]=100023384089661&amp;reviewers[40]=100025276176243&amp;reviewers[41]=100034041589730&amp;reviewers[42]=100034089196752&amp;reviewers[43]=100034122914340&amp;reviewers[44]=100034270485164&amp;reviewers[45]=100034335912675&amp;reviewers[46]=100034340262345&amp;reviewers[47]=100034599077859&amp;reviewers[48]=100034620496741&amp;reviewers[49]=100034772256781&amp;reviewers[50]=100028230073847&amp;reviewers[51]=100036619595606&amp;reviewers[52]=100036379041529&amp;&amp;isCorrect[0]=0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H7">
+        <f>VLOOKUP(A7,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100021954187560</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[5]=100021954187560&amp;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H8">
+        <f>VLOOKUP(A8,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019536843799</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[6]=100019536843799&amp;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H9">
+        <f>VLOOKUP(A9,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019512215542</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[7]=100019512215542&amp;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H10">
+        <f>VLOOKUP(A10,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100023926644130</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[8]=100023926644130&amp;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H11">
+        <f>VLOOKUP(A11,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019568881410</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[9]=100019568881410&amp;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H12">
+        <f>VLOOKUP(A12,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100023267239592</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[10]=100023267239592&amp;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H13">
+        <f>VLOOKUP(A13,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100022863481721</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[11]=100022863481721&amp;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H14">
+        <f>VLOOKUP(A14,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100021905744489</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[12]=100021905744489&amp;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H15">
+        <f>VLOOKUP(A15,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100022693703940</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[13]=100022693703940&amp;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H16">
+        <f>VLOOKUP(A16,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100033007894037</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[14]=100033007894037&amp;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H17">
+        <f>VLOOKUP(A17,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100022490587169</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[15]=100022490587169&amp;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H18">
+        <f>VLOOKUP(A18,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100023547343073</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[16]=100023547343073&amp;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H19">
+        <f>VLOOKUP(A19,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019421742864</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[17]=100019421742864&amp;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H20">
+        <f>VLOOKUP(A20,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100022396412047</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[18]=100022396412047&amp;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H21">
+        <f>VLOOKUP(A21,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100022847433608</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[19]=100022847433608&amp;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H22">
+        <f>VLOOKUP(A22,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100023412840738</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[20]=100023412840738&amp;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H23">
+        <f>VLOOKUP(A23,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100025158471401</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[21]=100025158471401&amp;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H24">
+        <f>VLOOKUP(A24,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019343629024</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[22]=100019343629024&amp;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H25">
+        <f>VLOOKUP(A25,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019470608921</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[23]=100019470608921&amp;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H26">
+        <f>VLOOKUP(A26,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100025147731960</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[24]=100025147731960&amp;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H27">
+        <f>VLOOKUP(A27,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100024953956231</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[25]=100024953956231&amp;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H28">
+        <f>VLOOKUP(A28,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100027332032429</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[26]=100027332032429&amp;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H29">
+        <f>VLOOKUP(A29,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100027578131539</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[27]=100027578131539&amp;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H30">
+        <f>VLOOKUP(A30,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100025263937120</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[28]=100025263937120&amp;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H31">
+        <f>VLOOKUP(A31,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100019500756569</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[29]=100019500756569&amp;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H32">
+        <f>VLOOKUP(A32,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100028824242673</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[30]=100028824242673&amp;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>606</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H33">
+        <f>VLOOKUP(A33,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100018406777602</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[31]=100018406777602&amp;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>607</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H34">
+        <f>VLOOKUP(A34,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100018081605433</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[32]=100018081605433&amp;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H35">
+        <f>VLOOKUP(A35,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100021905744489</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[33]=100021905744489&amp;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>596</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H36">
+        <f>VLOOKUP(A36,'SRT User IDS'!A:B,2,FALSE)</f>
+        <v>100025158471401</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[34]=100025158471401&amp;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" t="s">
+        <v>608</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H37" s="19">
+        <v>100026774828862</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[35]=100026774828862&amp;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H38">
+        <v>100025349050741</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[36]=100025349050741&amp;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H39">
+        <v>100023289375957</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[37]=100023289375957&amp;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H40">
+        <v>100026739272710</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>auditors[38]=100026739272710&amp;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1798</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[39]=100023384089661&amp;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1799</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[40]=100025276176243&amp;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>408</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1800</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[41]=100034041589730&amp;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>411</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1801</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[42]=100034089196752&amp;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1802</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[43]=100034122914340&amp;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>415</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1803</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[44]=100034270485164&amp;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>419</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[45]=100034335912675&amp;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>421</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1805</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[46]=100034340262345&amp;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>429</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1806</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[47]=100034599077859&amp;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[48]=100034620496741&amp;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>433</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1808</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[49]=100034772256781&amp;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1809</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[50]=100028230073847&amp;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>474</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1810</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[51]=100036619595606&amp;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>465</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1811</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="0"/>
+        <v>reviewers[52]=100036379041529&amp;</v>
       </c>
     </row>
   </sheetData>
@@ -56907,10 +58508,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0898F59B-444E-D148-9E60-B06AB84DEE91}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A7" sqref="A7:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -56964,6 +58565,342 @@
       </c>
       <c r="B6">
         <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B8">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="22" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B11">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="20" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B12">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="20" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B14">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="20" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B17">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="23" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B18">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="23" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="20" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="25" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B22">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="25" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B23">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="20" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B24">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="25" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B25">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="20" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="20" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B27">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="20" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B28">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="20" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="20" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="20" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B31">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="20" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="20" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="20" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="20" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="25" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="22" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="25" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="20" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="20" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="20" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B42">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="20" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="20" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="20" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B45">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="20" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="20" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B47">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="20" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -56985,4 +58922,95 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C6FBE5-B699-C54E-8B8C-3FBC64E2A548}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>576</v>
+      </c>
+      <c r="B4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>578</v>
+      </c>
+      <c r="B6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>581</v>
+      </c>
+      <c r="B9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBC7CA3-4EEE-1F4B-B398-9F70888ED2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD2A86-DDA6-D345-9607-D652B9470475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="460" windowWidth="38640" windowHeight="20540" activeTab="2" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
@@ -13564,8 +13564,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -14927,15 +14927,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C283688-2A29-1045-BEDB-F8887F6EE5BB}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -58511,7 +58513,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B48"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>

--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FD2A86-DDA6-D345-9607-D652B9470475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B23D48-FBF0-7B44-A3B8-9319735CD492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13677" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13670" uniqueCount="1814">
   <si>
     <t>Name</t>
   </si>
@@ -14930,7 +14930,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H41" sqref="H41:H55"/>
     </sheetView>
   </sheetViews>
@@ -58510,15 +58510,15 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0898F59B-444E-D148-9E60-B06AB84DEE91}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -58642,40 +58642,40 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="23" t="s">
-        <v>1770</v>
+      <c r="A16" s="24" t="s">
+        <v>1772</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
-        <v>1770</v>
+      <c r="A17" s="20" t="s">
+        <v>1773</v>
       </c>
       <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="25" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B18">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="20" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B19">
         <v>11.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="23" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B18">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="24" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-    </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="23" t="s">
-        <v>1772</v>
+      <c r="A20" s="20" t="s">
+        <v>1776</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -58683,47 +58683,47 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="20" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="B21">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="20" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B22">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="20" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B23">
         <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="25" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B22">
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="25" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B23">
-        <v>18.5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="20" t="s">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="B24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="20" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B25">
         <v>11.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="25" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B25">
-        <v>18.5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="20" t="s">
-        <v>1776</v>
+        <v>1782</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -58731,182 +58731,126 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="20" t="s">
-        <v>1777</v>
+        <v>1783</v>
       </c>
       <c r="B27">
-        <v>8.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="20" t="s">
-        <v>1778</v>
+        <v>1784</v>
       </c>
       <c r="B28">
-        <v>11.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="20" t="s">
-        <v>1779</v>
+        <v>1785</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="20" t="s">
-        <v>1780</v>
+      <c r="A30" s="25" t="s">
+        <v>1786</v>
       </c>
       <c r="B30">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="20" t="s">
-        <v>1781</v>
+      <c r="A31" s="22" t="s">
+        <v>1787</v>
       </c>
       <c r="B31">
-        <v>11.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="20" t="s">
-        <v>1782</v>
+        <v>1788</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="20" t="s">
-        <v>1783</v>
+        <v>1789</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="20" t="s">
-        <v>1784</v>
+        <v>1790</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="20" t="s">
-        <v>1785</v>
+        <v>1791</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="25" t="s">
-        <v>1786</v>
+      <c r="A36" s="20" t="s">
+        <v>1792</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="22" t="s">
-        <v>1787</v>
+      <c r="A37" s="20" t="s">
+        <v>1793</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="25" t="s">
-        <v>1786</v>
+      <c r="A38" s="20" t="s">
+        <v>1794</v>
       </c>
       <c r="B38">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="20" t="s">
-        <v>1788</v>
+        <v>1795</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="20" t="s">
-        <v>1789</v>
+        <v>1796</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="20" t="s">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="B41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="20" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B42">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="20" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="20" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B44">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="20" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B45">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="20" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="20" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B47">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="20" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B48">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A29">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B23D48-FBF0-7B44-A3B8-9319735CD492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131ADD1C-B2A4-9D43-B39E-A8A19CDFA4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="6" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
     <sheet name="Queue Info" sheetId="2" r:id="rId2"/>
     <sheet name="Auditor Filter" sheetId="4" r:id="rId3"/>
-    <sheet name="Team Filter Errors" sheetId="9" r:id="rId4"/>
+    <sheet name="Old Breakdown" sheetId="9" r:id="rId4"/>
     <sheet name="Validation 8-1" sheetId="5" r:id="rId5"/>
     <sheet name="SRT User IDS" sheetId="6" r:id="rId6"/>
     <sheet name="TC Queue ARTs" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="TC Rep Info" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Queue Info'!$A$1:$C$71</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13670" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13691" uniqueCount="1814">
   <si>
     <t>Name</t>
   </si>
@@ -5647,7 +5649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -5698,6 +5700,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5944,6 +5947,4040 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="table-Thu, 19 Sep 2019 18_36_53"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Actor Name</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Queue Name</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Hits</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Samples</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>ART</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>Actor Id Int</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Martha Ventura</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D2">
+            <v>6192</v>
+          </cell>
+          <cell r="E2">
+            <v>6192</v>
+          </cell>
+          <cell r="F2">
+            <v>37.045283430232999</v>
+          </cell>
+          <cell r="G2">
+            <v>100033050461433</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP SUMA</v>
+          </cell>
+          <cell r="D3">
+            <v>6132</v>
+          </cell>
+          <cell r="E3">
+            <v>6132</v>
+          </cell>
+          <cell r="F3">
+            <v>5.0536506849315002</v>
+          </cell>
+          <cell r="G3">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Brandon Poe</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D4">
+            <v>4868</v>
+          </cell>
+          <cell r="E4">
+            <v>4868</v>
+          </cell>
+          <cell r="F4">
+            <v>34.283714256368</v>
+          </cell>
+          <cell r="G4">
+            <v>100025712179708</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Jacob Gil</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D5">
+            <v>4363</v>
+          </cell>
+          <cell r="E5">
+            <v>4363</v>
+          </cell>
+          <cell r="F5">
+            <v>40.114700893879998</v>
+          </cell>
+          <cell r="G5">
+            <v>100023277947982</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>[FAWG] ATOMIZATION TEST: FAMOUS</v>
+          </cell>
+          <cell r="D6">
+            <v>4113</v>
+          </cell>
+          <cell r="E6">
+            <v>4113</v>
+          </cell>
+          <cell r="F6">
+            <v>1.3474692438608999</v>
+          </cell>
+          <cell r="G6">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D7">
+            <v>3964</v>
+          </cell>
+          <cell r="E7">
+            <v>3964</v>
+          </cell>
+          <cell r="F7">
+            <v>4.4612883451060004</v>
+          </cell>
+          <cell r="G7">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Deepthi Chennareddy</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D8">
+            <v>3947</v>
+          </cell>
+          <cell r="E8">
+            <v>3947</v>
+          </cell>
+          <cell r="F8">
+            <v>49.372117050924999</v>
+          </cell>
+          <cell r="G8">
+            <v>100029640304191</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Kevin Kim</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D9">
+            <v>3859</v>
+          </cell>
+          <cell r="E9">
+            <v>3859</v>
+          </cell>
+          <cell r="F9">
+            <v>46.973321845038001</v>
+          </cell>
+          <cell r="G9">
+            <v>100021950239647</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D10">
+            <v>3612</v>
+          </cell>
+          <cell r="E10">
+            <v>3612</v>
+          </cell>
+          <cell r="F10">
+            <v>5.2699579180509</v>
+          </cell>
+          <cell r="G10">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</v>
+          </cell>
+          <cell r="D11">
+            <v>3418</v>
+          </cell>
+          <cell r="E11">
+            <v>3418</v>
+          </cell>
+          <cell r="F11">
+            <v>3.7955877706261001</v>
+          </cell>
+          <cell r="G11">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IDENTITY_INFO</v>
+          </cell>
+          <cell r="D12">
+            <v>3336</v>
+          </cell>
+          <cell r="E12">
+            <v>3336</v>
+          </cell>
+          <cell r="F12">
+            <v>7.5525497601918001</v>
+          </cell>
+          <cell r="G12">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Priyanka Sinala</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D13">
+            <v>3332</v>
+          </cell>
+          <cell r="E13">
+            <v>3332</v>
+          </cell>
+          <cell r="F13">
+            <v>80.698710684274005</v>
+          </cell>
+          <cell r="G13">
+            <v>100029851203818</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_MONEY</v>
+          </cell>
+          <cell r="D14">
+            <v>3315</v>
+          </cell>
+          <cell r="E14">
+            <v>3315</v>
+          </cell>
+          <cell r="F14">
+            <v>7.2324310708899002</v>
+          </cell>
+          <cell r="G14">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP OBPS</v>
+          </cell>
+          <cell r="D15">
+            <v>3273</v>
+          </cell>
+          <cell r="E15">
+            <v>3273</v>
+          </cell>
+          <cell r="F15">
+            <v>12.622555453712</v>
+          </cell>
+          <cell r="G15">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D16">
+            <v>3239</v>
+          </cell>
+          <cell r="E16">
+            <v>3239</v>
+          </cell>
+          <cell r="F16">
+            <v>11.962481012657999</v>
+          </cell>
+          <cell r="G16">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</v>
+          </cell>
+          <cell r="D17">
+            <v>3106</v>
+          </cell>
+          <cell r="E17">
+            <v>3106</v>
+          </cell>
+          <cell r="F17">
+            <v>2.1922395363812002</v>
+          </cell>
+          <cell r="G17">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</v>
+          </cell>
+          <cell r="D18">
+            <v>3044</v>
+          </cell>
+          <cell r="E18">
+            <v>3044</v>
+          </cell>
+          <cell r="F18">
+            <v>8.2965571616293996</v>
+          </cell>
+          <cell r="G18">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_SOLICITING</v>
+          </cell>
+          <cell r="D19">
+            <v>3042</v>
+          </cell>
+          <cell r="E19">
+            <v>3042</v>
+          </cell>
+          <cell r="F19">
+            <v>4.5549812623274004</v>
+          </cell>
+          <cell r="G19">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D20">
+            <v>2853</v>
+          </cell>
+          <cell r="E20">
+            <v>2853</v>
+          </cell>
+          <cell r="F20">
+            <v>12.215698212408</v>
+          </cell>
+          <cell r="G20">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TERRORISM</v>
+          </cell>
+          <cell r="D21">
+            <v>2785</v>
+          </cell>
+          <cell r="E21">
+            <v>2785</v>
+          </cell>
+          <cell r="F21">
+            <v>4.584844524237</v>
+          </cell>
+          <cell r="G21">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</v>
+          </cell>
+          <cell r="D22">
+            <v>2722</v>
+          </cell>
+          <cell r="E22">
+            <v>2722</v>
+          </cell>
+          <cell r="F22">
+            <v>1.8052068332108999</v>
+          </cell>
+          <cell r="G22">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D23">
+            <v>2720</v>
+          </cell>
+          <cell r="E23">
+            <v>2720</v>
+          </cell>
+          <cell r="F23">
+            <v>21.690774632353001</v>
+          </cell>
+          <cell r="G23">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>[FAWG] ATOMIZATION TEST: NON_PERSONAL</v>
+          </cell>
+          <cell r="D24">
+            <v>2616</v>
+          </cell>
+          <cell r="E24">
+            <v>2616</v>
+          </cell>
+          <cell r="F24">
+            <v>5.4274518348624001</v>
+          </cell>
+          <cell r="G24">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D25">
+            <v>2502</v>
+          </cell>
+          <cell r="E25">
+            <v>2502</v>
+          </cell>
+          <cell r="F25">
+            <v>1.6814708233413</v>
+          </cell>
+          <cell r="G25">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D26">
+            <v>2425</v>
+          </cell>
+          <cell r="E26">
+            <v>2425</v>
+          </cell>
+          <cell r="F26">
+            <v>5.1643678350515003</v>
+          </cell>
+          <cell r="G26">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IMPOSTER</v>
+          </cell>
+          <cell r="D27">
+            <v>2276</v>
+          </cell>
+          <cell r="E27">
+            <v>2276</v>
+          </cell>
+          <cell r="F27">
+            <v>6.8943646748681999</v>
+          </cell>
+          <cell r="G27">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IDENTITY_INFO</v>
+          </cell>
+          <cell r="D28">
+            <v>2224</v>
+          </cell>
+          <cell r="E28">
+            <v>2224</v>
+          </cell>
+          <cell r="F28">
+            <v>5.4947122302158</v>
+          </cell>
+          <cell r="G28">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D29">
+            <v>2192</v>
+          </cell>
+          <cell r="E29">
+            <v>2192</v>
+          </cell>
+          <cell r="F29">
+            <v>4.4895031934306999</v>
+          </cell>
+          <cell r="G29">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 4P_SCRIPTED</v>
+          </cell>
+          <cell r="D30">
+            <v>2135</v>
+          </cell>
+          <cell r="E30">
+            <v>2135</v>
+          </cell>
+          <cell r="F30">
+            <v>6.0850580796253002</v>
+          </cell>
+          <cell r="G30">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SCALED ABUSE</v>
+          </cell>
+          <cell r="D31">
+            <v>2085</v>
+          </cell>
+          <cell r="E31">
+            <v>2085</v>
+          </cell>
+          <cell r="F31">
+            <v>11.723705995204</v>
+          </cell>
+          <cell r="G31">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_SHIELDED_APPS</v>
+          </cell>
+          <cell r="D32">
+            <v>2062</v>
+          </cell>
+          <cell r="E32">
+            <v>2062</v>
+          </cell>
+          <cell r="F32">
+            <v>10.189657129001001</v>
+          </cell>
+          <cell r="G32">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>[FAWG] ATOMIZATION TEST: FAMOUS</v>
+          </cell>
+          <cell r="D33">
+            <v>2048</v>
+          </cell>
+          <cell r="E33">
+            <v>2048</v>
+          </cell>
+          <cell r="F33">
+            <v>6.8203266601563</v>
+          </cell>
+          <cell r="G33">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DIRECTING_OFFSITE</v>
+          </cell>
+          <cell r="D34">
+            <v>1971</v>
+          </cell>
+          <cell r="E34">
+            <v>1971</v>
+          </cell>
+          <cell r="F34">
+            <v>7.0721653982749997</v>
+          </cell>
+          <cell r="G34">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D35">
+            <v>1939</v>
+          </cell>
+          <cell r="E35">
+            <v>1939</v>
+          </cell>
+          <cell r="F35">
+            <v>2.8756064981948999</v>
+          </cell>
+          <cell r="G35">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D36">
+            <v>1911</v>
+          </cell>
+          <cell r="E36">
+            <v>1911</v>
+          </cell>
+          <cell r="F36">
+            <v>25.344138670852999</v>
+          </cell>
+          <cell r="G36">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_MONEY</v>
+          </cell>
+          <cell r="D37">
+            <v>1879</v>
+          </cell>
+          <cell r="E37">
+            <v>1879</v>
+          </cell>
+          <cell r="F37">
+            <v>4.4243778605640998</v>
+          </cell>
+          <cell r="G37">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TREND</v>
+          </cell>
+          <cell r="D38">
+            <v>1875</v>
+          </cell>
+          <cell r="E38">
+            <v>1875</v>
+          </cell>
+          <cell r="F38">
+            <v>5.4591114666667</v>
+          </cell>
+          <cell r="G38">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_SHARES</v>
+          </cell>
+          <cell r="D39">
+            <v>1820</v>
+          </cell>
+          <cell r="E39">
+            <v>1820</v>
+          </cell>
+          <cell r="F39">
+            <v>14.820778571429001</v>
+          </cell>
+          <cell r="G39">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D40">
+            <v>1791</v>
+          </cell>
+          <cell r="E40">
+            <v>1791</v>
+          </cell>
+          <cell r="F40">
+            <v>32.677384142937001</v>
+          </cell>
+          <cell r="G40">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOANS</v>
+          </cell>
+          <cell r="D41">
+            <v>1754</v>
+          </cell>
+          <cell r="E41">
+            <v>1754</v>
+          </cell>
+          <cell r="F41">
+            <v>9.6163386545040002</v>
+          </cell>
+          <cell r="G41">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D42">
+            <v>1730</v>
+          </cell>
+          <cell r="E42">
+            <v>1730</v>
+          </cell>
+          <cell r="F42">
+            <v>12.128204624277</v>
+          </cell>
+          <cell r="G42">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</v>
+          </cell>
+          <cell r="D43">
+            <v>1724</v>
+          </cell>
+          <cell r="E43">
+            <v>1724</v>
+          </cell>
+          <cell r="F43">
+            <v>13.838716357309</v>
+          </cell>
+          <cell r="G43">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_POST_CONVERSATION</v>
+          </cell>
+          <cell r="D44">
+            <v>1648</v>
+          </cell>
+          <cell r="E44">
+            <v>1648</v>
+          </cell>
+          <cell r="F44">
+            <v>7.2712063106795997</v>
+          </cell>
+          <cell r="G44">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</v>
+          </cell>
+          <cell r="D45">
+            <v>1641</v>
+          </cell>
+          <cell r="E45">
+            <v>1641</v>
+          </cell>
+          <cell r="F45">
+            <v>10.481429006702999</v>
+          </cell>
+          <cell r="G45">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SCALED ABUSE</v>
+          </cell>
+          <cell r="D46">
+            <v>1608</v>
+          </cell>
+          <cell r="E46">
+            <v>1608</v>
+          </cell>
+          <cell r="F46">
+            <v>4.9529197761194004</v>
+          </cell>
+          <cell r="G46">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP TAGGED</v>
+          </cell>
+          <cell r="D47">
+            <v>1589</v>
+          </cell>
+          <cell r="E47">
+            <v>1589</v>
+          </cell>
+          <cell r="F47">
+            <v>5.9294354940213996</v>
+          </cell>
+          <cell r="G47">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_SHIELDED_APPS</v>
+          </cell>
+          <cell r="D48">
+            <v>1584</v>
+          </cell>
+          <cell r="E48">
+            <v>1584</v>
+          </cell>
+          <cell r="F48">
+            <v>14.860257575758</v>
+          </cell>
+          <cell r="G48">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D49">
+            <v>1537</v>
+          </cell>
+          <cell r="E49">
+            <v>1537</v>
+          </cell>
+          <cell r="F49">
+            <v>2.8407644762523998</v>
+          </cell>
+          <cell r="G49">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</v>
+          </cell>
+          <cell r="D50">
+            <v>1491</v>
+          </cell>
+          <cell r="E50">
+            <v>1491</v>
+          </cell>
+          <cell r="F50">
+            <v>17.620529175049999</v>
+          </cell>
+          <cell r="G50">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D51">
+            <v>1450</v>
+          </cell>
+          <cell r="E51">
+            <v>1450</v>
+          </cell>
+          <cell r="F51">
+            <v>5.3807468965516998</v>
+          </cell>
+          <cell r="G51">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</v>
+          </cell>
+          <cell r="D52">
+            <v>1445</v>
+          </cell>
+          <cell r="E52">
+            <v>1445</v>
+          </cell>
+          <cell r="F52">
+            <v>6.7688013840829999</v>
+          </cell>
+          <cell r="G52">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D53">
+            <v>1431</v>
+          </cell>
+          <cell r="E53">
+            <v>1431</v>
+          </cell>
+          <cell r="F53">
+            <v>5.8035331935708996</v>
+          </cell>
+          <cell r="G53">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D54">
+            <v>1406</v>
+          </cell>
+          <cell r="E54">
+            <v>1406</v>
+          </cell>
+          <cell r="F54">
+            <v>5.7937688477952003</v>
+          </cell>
+          <cell r="G54">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D55">
+            <v>1392</v>
+          </cell>
+          <cell r="E55">
+            <v>1392</v>
+          </cell>
+          <cell r="F55">
+            <v>39.908259339079997</v>
+          </cell>
+          <cell r="G55">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</v>
+          </cell>
+          <cell r="D56">
+            <v>1385</v>
+          </cell>
+          <cell r="E56">
+            <v>1385</v>
+          </cell>
+          <cell r="F56">
+            <v>7.4538332129963996</v>
+          </cell>
+          <cell r="G56">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</v>
+          </cell>
+          <cell r="D57">
+            <v>1375</v>
+          </cell>
+          <cell r="E57">
+            <v>1375</v>
+          </cell>
+          <cell r="F57">
+            <v>13.697286545455</v>
+          </cell>
+          <cell r="G57">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D58">
+            <v>1370</v>
+          </cell>
+          <cell r="E58">
+            <v>1370</v>
+          </cell>
+          <cell r="F58">
+            <v>49.398930656933999</v>
+          </cell>
+          <cell r="G58">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D59">
+            <v>1343</v>
+          </cell>
+          <cell r="E59">
+            <v>1343</v>
+          </cell>
+          <cell r="F59">
+            <v>58.330662695458003</v>
+          </cell>
+          <cell r="G59">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D60">
+            <v>1290</v>
+          </cell>
+          <cell r="E60">
+            <v>1290</v>
+          </cell>
+          <cell r="F60">
+            <v>45.698880620155002</v>
+          </cell>
+          <cell r="G60">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D61">
+            <v>1266</v>
+          </cell>
+          <cell r="E61">
+            <v>1266</v>
+          </cell>
+          <cell r="F61">
+            <v>2.5523033175354999</v>
+          </cell>
+          <cell r="G61">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D62">
+            <v>1221</v>
+          </cell>
+          <cell r="E62">
+            <v>1221</v>
+          </cell>
+          <cell r="F62">
+            <v>11.201927108927</v>
+          </cell>
+          <cell r="G62">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D63">
+            <v>1191</v>
+          </cell>
+          <cell r="E63">
+            <v>1191</v>
+          </cell>
+          <cell r="F63">
+            <v>65.188859781695996</v>
+          </cell>
+          <cell r="G63">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOANS</v>
+          </cell>
+          <cell r="D64">
+            <v>1181</v>
+          </cell>
+          <cell r="E64">
+            <v>1181</v>
+          </cell>
+          <cell r="F64">
+            <v>19.568350550380998</v>
+          </cell>
+          <cell r="G64">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOANS</v>
+          </cell>
+          <cell r="D65">
+            <v>1148</v>
+          </cell>
+          <cell r="E65">
+            <v>1148</v>
+          </cell>
+          <cell r="F65">
+            <v>10.561837979093999</v>
+          </cell>
+          <cell r="G65">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>[FAWG] ATOMIZATION TEST: REPETITIVE_SPAM</v>
+          </cell>
+          <cell r="D66">
+            <v>1143</v>
+          </cell>
+          <cell r="E66">
+            <v>1143</v>
+          </cell>
+          <cell r="F66">
+            <v>7.3478407699038</v>
+          </cell>
+          <cell r="G66">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IMPOSTER</v>
+          </cell>
+          <cell r="D67">
+            <v>1102</v>
+          </cell>
+          <cell r="E67">
+            <v>1102</v>
+          </cell>
+          <cell r="F67">
+            <v>20.663813067151001</v>
+          </cell>
+          <cell r="G67">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D68">
+            <v>1101</v>
+          </cell>
+          <cell r="E68">
+            <v>1101</v>
+          </cell>
+          <cell r="F68">
+            <v>66.815732970027</v>
+          </cell>
+          <cell r="G68">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP SUMA</v>
+          </cell>
+          <cell r="D69">
+            <v>1095</v>
+          </cell>
+          <cell r="E69">
+            <v>1095</v>
+          </cell>
+          <cell r="F69">
+            <v>3.7595041095889998</v>
+          </cell>
+          <cell r="G69">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TERRORISM</v>
+          </cell>
+          <cell r="D70">
+            <v>1092</v>
+          </cell>
+          <cell r="E70">
+            <v>1092</v>
+          </cell>
+          <cell r="F70">
+            <v>8.1645989010989002</v>
+          </cell>
+          <cell r="G70">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_SOLICITING</v>
+          </cell>
+          <cell r="D71">
+            <v>1090</v>
+          </cell>
+          <cell r="E71">
+            <v>1090</v>
+          </cell>
+          <cell r="F71">
+            <v>5.3611733944953999</v>
+          </cell>
+          <cell r="G71">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D72">
+            <v>1088</v>
+          </cell>
+          <cell r="E72">
+            <v>1088</v>
+          </cell>
+          <cell r="F72">
+            <v>45.917675551471</v>
+          </cell>
+          <cell r="G72">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_POST_CONVERSATION</v>
+          </cell>
+          <cell r="D73">
+            <v>1086</v>
+          </cell>
+          <cell r="E73">
+            <v>1086</v>
+          </cell>
+          <cell r="F73">
+            <v>8.6502081031307991</v>
+          </cell>
+          <cell r="G73">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_SOLICITING</v>
+          </cell>
+          <cell r="D74">
+            <v>1081</v>
+          </cell>
+          <cell r="E74">
+            <v>1081</v>
+          </cell>
+          <cell r="F74">
+            <v>14.453392229417</v>
+          </cell>
+          <cell r="G74">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D75">
+            <v>1080</v>
+          </cell>
+          <cell r="E75">
+            <v>1080</v>
+          </cell>
+          <cell r="F75">
+            <v>5.7810657407406998</v>
+          </cell>
+          <cell r="G75">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>[FAWG] ATOMIZATION TEST: FAMOUS</v>
+          </cell>
+          <cell r="D76">
+            <v>1061</v>
+          </cell>
+          <cell r="E76">
+            <v>1061</v>
+          </cell>
+          <cell r="F76">
+            <v>7.1685344015080004</v>
+          </cell>
+          <cell r="G76">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SELF_HARM</v>
+          </cell>
+          <cell r="D77">
+            <v>1044</v>
+          </cell>
+          <cell r="E77">
+            <v>1044</v>
+          </cell>
+          <cell r="F77">
+            <v>6.3939281609194998</v>
+          </cell>
+          <cell r="G77">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D78">
+            <v>1040</v>
+          </cell>
+          <cell r="E78">
+            <v>1040</v>
+          </cell>
+          <cell r="F78">
+            <v>4.0909269230768999</v>
+          </cell>
+          <cell r="G78">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SELF_HARM</v>
+          </cell>
+          <cell r="D79">
+            <v>1034</v>
+          </cell>
+          <cell r="E79">
+            <v>1034</v>
+          </cell>
+          <cell r="F79">
+            <v>13.599376208897</v>
+          </cell>
+          <cell r="G79">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>[FAWG] TC - Non-Messaging - 2</v>
+          </cell>
+          <cell r="D80">
+            <v>1007</v>
+          </cell>
+          <cell r="E80">
+            <v>1007</v>
+          </cell>
+          <cell r="F80">
+            <v>49.557134061569002</v>
+          </cell>
+          <cell r="G80">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MAJOR_NAME_CHANGE</v>
+          </cell>
+          <cell r="D81">
+            <v>993</v>
+          </cell>
+          <cell r="E81">
+            <v>993</v>
+          </cell>
+          <cell r="F81">
+            <v>1.4333615307150001</v>
+          </cell>
+          <cell r="G81">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>[FAWG] TC - Messaging - 1</v>
+          </cell>
+          <cell r="D82">
+            <v>985</v>
+          </cell>
+          <cell r="E82">
+            <v>985</v>
+          </cell>
+          <cell r="F82">
+            <v>55.633304568527997</v>
+          </cell>
+          <cell r="G82">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TREND</v>
+          </cell>
+          <cell r="D83">
+            <v>975</v>
+          </cell>
+          <cell r="E83">
+            <v>975</v>
+          </cell>
+          <cell r="F83">
+            <v>8.7826266666666992</v>
+          </cell>
+          <cell r="G83">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>[FAWG] ATOMIZATION TEST: FAMOUS</v>
+          </cell>
+          <cell r="D84">
+            <v>948</v>
+          </cell>
+          <cell r="E84">
+            <v>948</v>
+          </cell>
+          <cell r="F84">
+            <v>3.2292067510549001</v>
+          </cell>
+          <cell r="G84">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D85">
+            <v>940</v>
+          </cell>
+          <cell r="E85">
+            <v>940</v>
+          </cell>
+          <cell r="F85">
+            <v>4.7870063829787002</v>
+          </cell>
+          <cell r="G85">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_VARIED_COMMENTS</v>
+          </cell>
+          <cell r="D86">
+            <v>931</v>
+          </cell>
+          <cell r="E86">
+            <v>931</v>
+          </cell>
+          <cell r="F86">
+            <v>4.9154618689580998</v>
+          </cell>
+          <cell r="G86">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SELF_HARM</v>
+          </cell>
+          <cell r="D87">
+            <v>908</v>
+          </cell>
+          <cell r="E87">
+            <v>908</v>
+          </cell>
+          <cell r="F87">
+            <v>14.172563876651999</v>
+          </cell>
+          <cell r="G87">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D88">
+            <v>906</v>
+          </cell>
+          <cell r="E88">
+            <v>906</v>
+          </cell>
+          <cell r="F88">
+            <v>46.187636865342</v>
+          </cell>
+          <cell r="G88">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BOOSTING</v>
+          </cell>
+          <cell r="D89">
+            <v>901</v>
+          </cell>
+          <cell r="E89">
+            <v>901</v>
+          </cell>
+          <cell r="F89">
+            <v>13.201679245283</v>
+          </cell>
+          <cell r="G89">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D90">
+            <v>877</v>
+          </cell>
+          <cell r="E90">
+            <v>877</v>
+          </cell>
+          <cell r="F90">
+            <v>40.855305587228997</v>
+          </cell>
+          <cell r="G90">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C91" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP OBPS</v>
+          </cell>
+          <cell r="D91">
+            <v>867</v>
+          </cell>
+          <cell r="E91">
+            <v>867</v>
+          </cell>
+          <cell r="F91">
+            <v>14.759534025375</v>
+          </cell>
+          <cell r="G91">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP TAGGED</v>
+          </cell>
+          <cell r="D92">
+            <v>849</v>
+          </cell>
+          <cell r="E92">
+            <v>849</v>
+          </cell>
+          <cell r="F92">
+            <v>14.373925795052999</v>
+          </cell>
+          <cell r="G92">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D93">
+            <v>824</v>
+          </cell>
+          <cell r="E93">
+            <v>824</v>
+          </cell>
+          <cell r="F93">
+            <v>13.131826456311</v>
+          </cell>
+          <cell r="G93">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C94" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_SHARES</v>
+          </cell>
+          <cell r="D94">
+            <v>786</v>
+          </cell>
+          <cell r="E94">
+            <v>786</v>
+          </cell>
+          <cell r="F94">
+            <v>12.136141221374</v>
+          </cell>
+          <cell r="G94">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</v>
+          </cell>
+          <cell r="D95">
+            <v>773</v>
+          </cell>
+          <cell r="E95">
+            <v>773</v>
+          </cell>
+          <cell r="F95">
+            <v>10.60519534282</v>
+          </cell>
+          <cell r="G95">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D96">
+            <v>758</v>
+          </cell>
+          <cell r="E96">
+            <v>758</v>
+          </cell>
+          <cell r="F96">
+            <v>5.0053878627968</v>
+          </cell>
+          <cell r="G96">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D97">
+            <v>756</v>
+          </cell>
+          <cell r="E97">
+            <v>756</v>
+          </cell>
+          <cell r="F97">
+            <v>14.23869047619</v>
+          </cell>
+          <cell r="G97">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 4P_SCRIPTED</v>
+          </cell>
+          <cell r="D98">
+            <v>750</v>
+          </cell>
+          <cell r="E98">
+            <v>750</v>
+          </cell>
+          <cell r="F98">
+            <v>20.706702666666999</v>
+          </cell>
+          <cell r="G98">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>Sonia Fazel</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D99">
+            <v>746</v>
+          </cell>
+          <cell r="E99">
+            <v>746</v>
+          </cell>
+          <cell r="F99">
+            <v>3.9002171581769001</v>
+          </cell>
+          <cell r="G99">
+            <v>100019581540458</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D100">
+            <v>719</v>
+          </cell>
+          <cell r="E100">
+            <v>719</v>
+          </cell>
+          <cell r="F100">
+            <v>2.2549833101529999</v>
+          </cell>
+          <cell r="G100">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>[FAWG] ATOMIZATION TEST: REPEATED_ACTIVITY</v>
+          </cell>
+          <cell r="D101">
+            <v>702</v>
+          </cell>
+          <cell r="E101">
+            <v>702</v>
+          </cell>
+          <cell r="F101">
+            <v>8.9446524216523997</v>
+          </cell>
+          <cell r="G101">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D102">
+            <v>652</v>
+          </cell>
+          <cell r="E102">
+            <v>652</v>
+          </cell>
+          <cell r="F102">
+            <v>5.9230061349692997</v>
+          </cell>
+          <cell r="G102">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</v>
+          </cell>
+          <cell r="D103">
+            <v>651</v>
+          </cell>
+          <cell r="E103">
+            <v>651</v>
+          </cell>
+          <cell r="F103">
+            <v>5.3093410138249002</v>
+          </cell>
+          <cell r="G103">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_SHARES</v>
+          </cell>
+          <cell r="D104">
+            <v>650</v>
+          </cell>
+          <cell r="E104">
+            <v>650</v>
+          </cell>
+          <cell r="F104">
+            <v>15.890493846154</v>
+          </cell>
+          <cell r="G104">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_SHIELDED_APPS</v>
+          </cell>
+          <cell r="D105">
+            <v>647</v>
+          </cell>
+          <cell r="E105">
+            <v>647</v>
+          </cell>
+          <cell r="F105">
+            <v>7.3130741885625996</v>
+          </cell>
+          <cell r="G105">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D106">
+            <v>631</v>
+          </cell>
+          <cell r="E106">
+            <v>631</v>
+          </cell>
+          <cell r="F106">
+            <v>18.229652931854002</v>
+          </cell>
+          <cell r="G106">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</v>
+          </cell>
+          <cell r="D107">
+            <v>620</v>
+          </cell>
+          <cell r="E107">
+            <v>620</v>
+          </cell>
+          <cell r="F107">
+            <v>2.9171629032258002</v>
+          </cell>
+          <cell r="G107">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D108">
+            <v>616</v>
+          </cell>
+          <cell r="E108">
+            <v>616</v>
+          </cell>
+          <cell r="F108">
+            <v>9.0387711038960994</v>
+          </cell>
+          <cell r="G108">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_SHARES</v>
+          </cell>
+          <cell r="D109">
+            <v>612</v>
+          </cell>
+          <cell r="E109">
+            <v>612</v>
+          </cell>
+          <cell r="F109">
+            <v>15.335866013072</v>
+          </cell>
+          <cell r="G109">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOANS</v>
+          </cell>
+          <cell r="D110">
+            <v>610</v>
+          </cell>
+          <cell r="E110">
+            <v>610</v>
+          </cell>
+          <cell r="F110">
+            <v>4.2252737704917998</v>
+          </cell>
+          <cell r="G110">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IMPOSTER</v>
+          </cell>
+          <cell r="D111">
+            <v>604</v>
+          </cell>
+          <cell r="E111">
+            <v>604</v>
+          </cell>
+          <cell r="F111">
+            <v>13.837122516556001</v>
+          </cell>
+          <cell r="G111">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D112">
+            <v>590</v>
+          </cell>
+          <cell r="E112">
+            <v>590</v>
+          </cell>
+          <cell r="F112">
+            <v>4.7659745762711996</v>
+          </cell>
+          <cell r="G112">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D113">
+            <v>572</v>
+          </cell>
+          <cell r="E113">
+            <v>572</v>
+          </cell>
+          <cell r="F113">
+            <v>45.506498251747999</v>
+          </cell>
+          <cell r="G113">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D114">
+            <v>570</v>
+          </cell>
+          <cell r="E114">
+            <v>570</v>
+          </cell>
+          <cell r="F114">
+            <v>4.4168298245614004</v>
+          </cell>
+          <cell r="G114">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TERRORISM</v>
+          </cell>
+          <cell r="D115">
+            <v>568</v>
+          </cell>
+          <cell r="E115">
+            <v>568</v>
+          </cell>
+          <cell r="F115">
+            <v>12.218639084507</v>
+          </cell>
+          <cell r="G115">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D116">
+            <v>553</v>
+          </cell>
+          <cell r="E116">
+            <v>553</v>
+          </cell>
+          <cell r="F116">
+            <v>5.4530542495479004</v>
+          </cell>
+          <cell r="G116">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SELF_HARM</v>
+          </cell>
+          <cell r="D117">
+            <v>544</v>
+          </cell>
+          <cell r="E117">
+            <v>544</v>
+          </cell>
+          <cell r="F117">
+            <v>8.4581397058824006</v>
+          </cell>
+          <cell r="G117">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IDENTITY_INFO</v>
+          </cell>
+          <cell r="D118">
+            <v>535</v>
+          </cell>
+          <cell r="E118">
+            <v>535</v>
+          </cell>
+          <cell r="F118">
+            <v>6.9712093457944002</v>
+          </cell>
+          <cell r="G118">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</v>
+          </cell>
+          <cell r="D119">
+            <v>532</v>
+          </cell>
+          <cell r="E119">
+            <v>532</v>
+          </cell>
+          <cell r="F119">
+            <v>10.988342105262999</v>
+          </cell>
+          <cell r="G119">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D120">
+            <v>527</v>
+          </cell>
+          <cell r="E120">
+            <v>527</v>
+          </cell>
+          <cell r="F120">
+            <v>11.345861480076</v>
+          </cell>
+          <cell r="G120">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D121">
+            <v>525</v>
+          </cell>
+          <cell r="E121">
+            <v>525</v>
+          </cell>
+          <cell r="F121">
+            <v>8.2735885714286006</v>
+          </cell>
+          <cell r="G121">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D122">
+            <v>522</v>
+          </cell>
+          <cell r="E122">
+            <v>522</v>
+          </cell>
+          <cell r="F122">
+            <v>13.232204980842999</v>
+          </cell>
+          <cell r="G122">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 4P_SCRIPTED</v>
+          </cell>
+          <cell r="D123">
+            <v>508</v>
+          </cell>
+          <cell r="E123">
+            <v>508</v>
+          </cell>
+          <cell r="F123">
+            <v>14.897238188976001</v>
+          </cell>
+          <cell r="G123">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D124">
+            <v>508</v>
+          </cell>
+          <cell r="E124">
+            <v>508</v>
+          </cell>
+          <cell r="F124">
+            <v>3.6849291338582999</v>
+          </cell>
+          <cell r="G124">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</v>
+          </cell>
+          <cell r="D125">
+            <v>501</v>
+          </cell>
+          <cell r="E125">
+            <v>501</v>
+          </cell>
+          <cell r="F125">
+            <v>14.081562874251</v>
+          </cell>
+          <cell r="G125">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D126">
+            <v>498</v>
+          </cell>
+          <cell r="E126">
+            <v>498</v>
+          </cell>
+          <cell r="F126">
+            <v>5.8896907630522</v>
+          </cell>
+          <cell r="G126">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DIRECTING_OFFSITE</v>
+          </cell>
+          <cell r="D127">
+            <v>498</v>
+          </cell>
+          <cell r="E127">
+            <v>498</v>
+          </cell>
+          <cell r="F127">
+            <v>17.351698795181001</v>
+          </cell>
+          <cell r="G127">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DIRECTING_OFFSITE</v>
+          </cell>
+          <cell r="D128">
+            <v>496</v>
+          </cell>
+          <cell r="E128">
+            <v>496</v>
+          </cell>
+          <cell r="F128">
+            <v>18.860080645160998</v>
+          </cell>
+          <cell r="G128">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D129">
+            <v>488</v>
+          </cell>
+          <cell r="E129">
+            <v>488</v>
+          </cell>
+          <cell r="F129">
+            <v>4.5529405737705</v>
+          </cell>
+          <cell r="G129">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</v>
+          </cell>
+          <cell r="D130">
+            <v>485</v>
+          </cell>
+          <cell r="E130">
+            <v>485</v>
+          </cell>
+          <cell r="F130">
+            <v>31.166775257731999</v>
+          </cell>
+          <cell r="G130">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D131">
+            <v>479</v>
+          </cell>
+          <cell r="E131">
+            <v>479</v>
+          </cell>
+          <cell r="F131">
+            <v>4.4898413361168998</v>
+          </cell>
+          <cell r="G131">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP OBPS</v>
+          </cell>
+          <cell r="D132">
+            <v>478</v>
+          </cell>
+          <cell r="E132">
+            <v>478</v>
+          </cell>
+          <cell r="F132">
+            <v>19.683738493724</v>
+          </cell>
+          <cell r="G132">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</v>
+          </cell>
+          <cell r="D133">
+            <v>472</v>
+          </cell>
+          <cell r="E133">
+            <v>472</v>
+          </cell>
+          <cell r="F133">
+            <v>6.7664999999999997</v>
+          </cell>
+          <cell r="G133">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP OBPS</v>
+          </cell>
+          <cell r="D134">
+            <v>468</v>
+          </cell>
+          <cell r="E134">
+            <v>468</v>
+          </cell>
+          <cell r="F134">
+            <v>16.030786324786</v>
+          </cell>
+          <cell r="G134">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BOOSTING</v>
+          </cell>
+          <cell r="D135">
+            <v>468</v>
+          </cell>
+          <cell r="E135">
+            <v>468</v>
+          </cell>
+          <cell r="F135">
+            <v>18.420999999999999</v>
+          </cell>
+          <cell r="G135">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</v>
+          </cell>
+          <cell r="D136">
+            <v>467</v>
+          </cell>
+          <cell r="E136">
+            <v>467</v>
+          </cell>
+          <cell r="F136">
+            <v>6.3515289079228996</v>
+          </cell>
+          <cell r="G136">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D137">
+            <v>457</v>
+          </cell>
+          <cell r="E137">
+            <v>457</v>
+          </cell>
+          <cell r="F137">
+            <v>7.0220000000000002</v>
+          </cell>
+          <cell r="G137">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D138">
+            <v>451</v>
+          </cell>
+          <cell r="E138">
+            <v>451</v>
+          </cell>
+          <cell r="F138">
+            <v>6.3086252771618998</v>
+          </cell>
+          <cell r="G138">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D139">
+            <v>445</v>
+          </cell>
+          <cell r="E139">
+            <v>445</v>
+          </cell>
+          <cell r="F139">
+            <v>17.525874157303001</v>
+          </cell>
+          <cell r="G139">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</v>
+          </cell>
+          <cell r="D140">
+            <v>445</v>
+          </cell>
+          <cell r="E140">
+            <v>445</v>
+          </cell>
+          <cell r="F140">
+            <v>8.2241011235954993</v>
+          </cell>
+          <cell r="G140">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</v>
+          </cell>
+          <cell r="D141">
+            <v>444</v>
+          </cell>
+          <cell r="E141">
+            <v>444</v>
+          </cell>
+          <cell r="F141">
+            <v>5.5853040540540997</v>
+          </cell>
+          <cell r="G141">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D142">
+            <v>443</v>
+          </cell>
+          <cell r="E142">
+            <v>443</v>
+          </cell>
+          <cell r="F142">
+            <v>5.9785914221218999</v>
+          </cell>
+          <cell r="G142">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D143">
+            <v>441</v>
+          </cell>
+          <cell r="E143">
+            <v>441</v>
+          </cell>
+          <cell r="F143">
+            <v>12.872244897959</v>
+          </cell>
+          <cell r="G143">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BOOSTING</v>
+          </cell>
+          <cell r="D144">
+            <v>437</v>
+          </cell>
+          <cell r="E144">
+            <v>437</v>
+          </cell>
+          <cell r="F144">
+            <v>7.6595148741418999</v>
+          </cell>
+          <cell r="G144">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_SHARES</v>
+          </cell>
+          <cell r="D145">
+            <v>427</v>
+          </cell>
+          <cell r="E145">
+            <v>427</v>
+          </cell>
+          <cell r="F145">
+            <v>18.049185011710001</v>
+          </cell>
+          <cell r="G145">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TREND</v>
+          </cell>
+          <cell r="D146">
+            <v>425</v>
+          </cell>
+          <cell r="E146">
+            <v>425</v>
+          </cell>
+          <cell r="F146">
+            <v>5.7117223529411998</v>
+          </cell>
+          <cell r="G146">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>[FAWG] ATOMIZATION TEST: NON_PERSONAL</v>
+          </cell>
+          <cell r="D147">
+            <v>420</v>
+          </cell>
+          <cell r="E147">
+            <v>420</v>
+          </cell>
+          <cell r="F147">
+            <v>9.1319666666667008</v>
+          </cell>
+          <cell r="G147">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</v>
+          </cell>
+          <cell r="D148">
+            <v>411</v>
+          </cell>
+          <cell r="E148">
+            <v>411</v>
+          </cell>
+          <cell r="F148">
+            <v>11.771284671533</v>
+          </cell>
+          <cell r="G148">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149" t="str">
+            <v>Sonia Fazel</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D149">
+            <v>392</v>
+          </cell>
+          <cell r="E149">
+            <v>392</v>
+          </cell>
+          <cell r="F149">
+            <v>8.1788137755101999</v>
+          </cell>
+          <cell r="G149">
+            <v>100019581540458</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</v>
+          </cell>
+          <cell r="D150">
+            <v>377</v>
+          </cell>
+          <cell r="E150">
+            <v>377</v>
+          </cell>
+          <cell r="F150">
+            <v>28.095649867374</v>
+          </cell>
+          <cell r="G150">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151" t="str">
+            <v>Yen Nhu Hoang Mai</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_POST_CONVERSATION</v>
+          </cell>
+          <cell r="D151">
+            <v>372</v>
+          </cell>
+          <cell r="E151">
+            <v>372</v>
+          </cell>
+          <cell r="F151">
+            <v>6.0867661290323003</v>
+          </cell>
+          <cell r="G151">
+            <v>100027583741477</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_POST_CONVERSATION</v>
+          </cell>
+          <cell r="D152">
+            <v>360</v>
+          </cell>
+          <cell r="E152">
+            <v>360</v>
+          </cell>
+          <cell r="F152">
+            <v>12.279986111111</v>
+          </cell>
+          <cell r="G152">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>[FAWG] ATOMIZATION TEST: FAMOUS</v>
+          </cell>
+          <cell r="D153">
+            <v>331</v>
+          </cell>
+          <cell r="E153">
+            <v>331</v>
+          </cell>
+          <cell r="F153">
+            <v>3.6526102719033</v>
+          </cell>
+          <cell r="G153">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_VARIED_COMMENTS</v>
+          </cell>
+          <cell r="D154">
+            <v>323</v>
+          </cell>
+          <cell r="E154">
+            <v>323</v>
+          </cell>
+          <cell r="F154">
+            <v>7.6846099071207004</v>
+          </cell>
+          <cell r="G154">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP OBPS</v>
+          </cell>
+          <cell r="D155">
+            <v>319</v>
+          </cell>
+          <cell r="E155">
+            <v>319</v>
+          </cell>
+          <cell r="F155">
+            <v>27.333300940438999</v>
+          </cell>
+          <cell r="G155">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D156">
+            <v>313</v>
+          </cell>
+          <cell r="E156">
+            <v>313</v>
+          </cell>
+          <cell r="F156">
+            <v>13.323466453674</v>
+          </cell>
+          <cell r="G156">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_SOLICITING</v>
+          </cell>
+          <cell r="D157">
+            <v>311</v>
+          </cell>
+          <cell r="E157">
+            <v>311</v>
+          </cell>
+          <cell r="F157">
+            <v>10.573890675241</v>
+          </cell>
+          <cell r="G157">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP SUMA</v>
+          </cell>
+          <cell r="D158">
+            <v>304</v>
+          </cell>
+          <cell r="E158">
+            <v>304</v>
+          </cell>
+          <cell r="F158">
+            <v>16.929720394737</v>
+          </cell>
+          <cell r="G158">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_SHIELDED_APPS</v>
+          </cell>
+          <cell r="D159">
+            <v>303</v>
+          </cell>
+          <cell r="E159">
+            <v>303</v>
+          </cell>
+          <cell r="F159">
+            <v>18.788145214520998</v>
+          </cell>
+          <cell r="G159">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160" t="str">
+            <v>Reshmarani Powar</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_PHOTO_LOCATION</v>
+          </cell>
+          <cell r="D160">
+            <v>287</v>
+          </cell>
+          <cell r="E160">
+            <v>287</v>
+          </cell>
+          <cell r="F160">
+            <v>2.8083554006968998</v>
+          </cell>
+          <cell r="G160">
+            <v>100027958385098</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D161">
+            <v>285</v>
+          </cell>
+          <cell r="E161">
+            <v>285</v>
+          </cell>
+          <cell r="F161">
+            <v>7.3168385964912002</v>
+          </cell>
+          <cell r="G161">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP TAGGED</v>
+          </cell>
+          <cell r="D162">
+            <v>280</v>
+          </cell>
+          <cell r="E162">
+            <v>280</v>
+          </cell>
+          <cell r="F162">
+            <v>19.206871428570999</v>
+          </cell>
+          <cell r="G162">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>[FAWG] ATOMIZATION TEST: BAD_LIKES</v>
+          </cell>
+          <cell r="D163">
+            <v>274</v>
+          </cell>
+          <cell r="E163">
+            <v>274</v>
+          </cell>
+          <cell r="F163">
+            <v>9.0032554744525992</v>
+          </cell>
+          <cell r="G163">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="B164" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D164">
+            <v>260</v>
+          </cell>
+          <cell r="E164">
+            <v>260</v>
+          </cell>
+          <cell r="F164">
+            <v>5.0454423076922996</v>
+          </cell>
+          <cell r="G164">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="B165" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C165" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DIRECTING_OFFSITE</v>
+          </cell>
+          <cell r="D165">
+            <v>258</v>
+          </cell>
+          <cell r="E165">
+            <v>258</v>
+          </cell>
+          <cell r="F165">
+            <v>12.082972868217</v>
+          </cell>
+          <cell r="G165">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="B166" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C166" t="str">
+            <v>[FAWG] ATOMIZATION TEST: WEAK_VARIED_COMMENTS</v>
+          </cell>
+          <cell r="D166">
+            <v>257</v>
+          </cell>
+          <cell r="E166">
+            <v>257</v>
+          </cell>
+          <cell r="F166">
+            <v>9.1599961089494002</v>
+          </cell>
+          <cell r="G166">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="B167" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C167" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 5P_PERSONAL_PROFILE</v>
+          </cell>
+          <cell r="D167">
+            <v>240</v>
+          </cell>
+          <cell r="E167">
+            <v>240</v>
+          </cell>
+          <cell r="F167">
+            <v>6.8592958333332996</v>
+          </cell>
+          <cell r="G167">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="B168" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C168" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOAN_PHOTOS</v>
+          </cell>
+          <cell r="D168">
+            <v>231</v>
+          </cell>
+          <cell r="E168">
+            <v>231</v>
+          </cell>
+          <cell r="F168">
+            <v>6.1621471861471999</v>
+          </cell>
+          <cell r="G168">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C169" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D169">
+            <v>230</v>
+          </cell>
+          <cell r="E169">
+            <v>230</v>
+          </cell>
+          <cell r="F169">
+            <v>9.1008999999999993</v>
+          </cell>
+          <cell r="G169">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="B170" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C170" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DIRECTING_OFFSITE</v>
+          </cell>
+          <cell r="D170">
+            <v>228</v>
+          </cell>
+          <cell r="E170">
+            <v>228</v>
+          </cell>
+          <cell r="F170">
+            <v>14.245149122807</v>
+          </cell>
+          <cell r="G170">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="B171" t="str">
+            <v>Akhil Puri</v>
+          </cell>
+          <cell r="C171" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</v>
+          </cell>
+          <cell r="D171">
+            <v>227</v>
+          </cell>
+          <cell r="E171">
+            <v>227</v>
+          </cell>
+          <cell r="F171">
+            <v>14.628955947136999</v>
+          </cell>
+          <cell r="G171">
+            <v>100027577681612</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="B172" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C172" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</v>
+          </cell>
+          <cell r="D172">
+            <v>215</v>
+          </cell>
+          <cell r="E172">
+            <v>215</v>
+          </cell>
+          <cell r="F172">
+            <v>20.342930232558</v>
+          </cell>
+          <cell r="G172">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="B173" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C173" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D173">
+            <v>214</v>
+          </cell>
+          <cell r="E173">
+            <v>214</v>
+          </cell>
+          <cell r="F173">
+            <v>5.7012476635514</v>
+          </cell>
+          <cell r="G173">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="B174" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C174" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TERRORISM</v>
+          </cell>
+          <cell r="D174">
+            <v>204</v>
+          </cell>
+          <cell r="E174">
+            <v>204</v>
+          </cell>
+          <cell r="F174">
+            <v>12.834906862744999</v>
+          </cell>
+          <cell r="G174">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="B175" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C175" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP VIOLATING</v>
+          </cell>
+          <cell r="D175">
+            <v>193</v>
+          </cell>
+          <cell r="E175">
+            <v>193</v>
+          </cell>
+          <cell r="F175">
+            <v>33.066253886010003</v>
+          </cell>
+          <cell r="G175">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="B176" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C176" t="str">
+            <v>[FAWG] TC - Atomization - 4</v>
+          </cell>
+          <cell r="D176">
+            <v>191</v>
+          </cell>
+          <cell r="E176">
+            <v>191</v>
+          </cell>
+          <cell r="F176">
+            <v>11.703691099476</v>
+          </cell>
+          <cell r="G176">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="B177" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C177" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SELF_HARM</v>
+          </cell>
+          <cell r="D177">
+            <v>190</v>
+          </cell>
+          <cell r="E177">
+            <v>190</v>
+          </cell>
+          <cell r="F177">
+            <v>13.948468421053001</v>
+          </cell>
+          <cell r="G177">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="B178" t="str">
+            <v>Sonia Fazel</v>
+          </cell>
+          <cell r="C178" t="str">
+            <v>[FAWG] TC - Atomization - 5</v>
+          </cell>
+          <cell r="D178">
+            <v>184</v>
+          </cell>
+          <cell r="E178">
+            <v>184</v>
+          </cell>
+          <cell r="F178">
+            <v>56.372315217390998</v>
+          </cell>
+          <cell r="G178">
+            <v>100019581540458</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="B179" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C179" t="str">
+            <v>[FAWG] ATOMIZATION TEST: LOANS</v>
+          </cell>
+          <cell r="D179">
+            <v>179</v>
+          </cell>
+          <cell r="E179">
+            <v>179</v>
+          </cell>
+          <cell r="F179">
+            <v>15.442240223463999</v>
+          </cell>
+          <cell r="G179">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="B180" t="str">
+            <v>Angelina Alvarez</v>
+          </cell>
+          <cell r="C180" t="str">
+            <v>[FAWG] TC - Atomization - 3</v>
+          </cell>
+          <cell r="D180">
+            <v>174</v>
+          </cell>
+          <cell r="E180">
+            <v>174</v>
+          </cell>
+          <cell r="F180">
+            <v>5.2715747126436998</v>
+          </cell>
+          <cell r="G180">
+            <v>100029807015446</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="B181" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C181" t="str">
+            <v>[FAWG] ATOMIZATION TEST: IDENTITY_INFO</v>
+          </cell>
+          <cell r="D181">
+            <v>172</v>
+          </cell>
+          <cell r="E181">
+            <v>172</v>
+          </cell>
+          <cell r="F181">
+            <v>12.66198255814</v>
+          </cell>
+          <cell r="G181">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="B182" t="str">
+            <v>Alejandro Diaz</v>
+          </cell>
+          <cell r="C182" t="str">
+            <v>[FAWG] ATOMIZATION TEST: DOMAIN</v>
+          </cell>
+          <cell r="D182">
+            <v>170</v>
+          </cell>
+          <cell r="E182">
+            <v>170</v>
+          </cell>
+          <cell r="F182">
+            <v>11.625464705882001</v>
+          </cell>
+          <cell r="G182">
+            <v>100021961656949</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="B183" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C183" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SELF_HARM</v>
+          </cell>
+          <cell r="D183">
+            <v>165</v>
+          </cell>
+          <cell r="E183">
+            <v>165</v>
+          </cell>
+          <cell r="F183">
+            <v>16.564321212121001</v>
+          </cell>
+          <cell r="G183">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="B184" t="str">
+            <v>Edward Balderas</v>
+          </cell>
+          <cell r="C184" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_MONEY</v>
+          </cell>
+          <cell r="D184">
+            <v>165</v>
+          </cell>
+          <cell r="E184">
+            <v>165</v>
+          </cell>
+          <cell r="F184">
+            <v>15.923278787878999</v>
+          </cell>
+          <cell r="G184">
+            <v>100028569720125</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="B185" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C185" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D185">
+            <v>157</v>
+          </cell>
+          <cell r="E185">
+            <v>157</v>
+          </cell>
+          <cell r="F185">
+            <v>20.358847133758001</v>
+          </cell>
+          <cell r="G185">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="B186" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C186" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STOCK_PHOTO</v>
+          </cell>
+          <cell r="D186">
+            <v>154</v>
+          </cell>
+          <cell r="E186">
+            <v>154</v>
+          </cell>
+          <cell r="F186">
+            <v>28.660623376623001</v>
+          </cell>
+          <cell r="G186">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="B187" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C187" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP TAGGED</v>
+          </cell>
+          <cell r="D187">
+            <v>151</v>
+          </cell>
+          <cell r="E187">
+            <v>151</v>
+          </cell>
+          <cell r="F187">
+            <v>41.044655629139001</v>
+          </cell>
+          <cell r="G187">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="B188" t="str">
+            <v>Sunita Chatterjee</v>
+          </cell>
+          <cell r="C188" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SEX_SOLICITING</v>
+          </cell>
+          <cell r="D188">
+            <v>145</v>
+          </cell>
+          <cell r="E188">
+            <v>145</v>
+          </cell>
+          <cell r="F188">
+            <v>26.034620689655</v>
+          </cell>
+          <cell r="G188">
+            <v>100028109931283</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="B189" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C189" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GROUP TAGGED</v>
+          </cell>
+          <cell r="D189">
+            <v>130</v>
+          </cell>
+          <cell r="E189">
+            <v>130</v>
+          </cell>
+          <cell r="F189">
+            <v>25.124500000000001</v>
+          </cell>
+          <cell r="G189">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="B190" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C190" t="str">
+            <v>[FAWG] ATOMIZATION TEST: GIBBERISH_EMAIL</v>
+          </cell>
+          <cell r="D190">
+            <v>130</v>
+          </cell>
+          <cell r="E190">
+            <v>130</v>
+          </cell>
+          <cell r="F190">
+            <v>6.7613230769230999</v>
+          </cell>
+          <cell r="G190">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="B191" t="str">
+            <v>Priya McCluskey</v>
+          </cell>
+          <cell r="C191" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_POST_CONVERSATION</v>
+          </cell>
+          <cell r="D191">
+            <v>127</v>
+          </cell>
+          <cell r="E191">
+            <v>127</v>
+          </cell>
+          <cell r="F191">
+            <v>12.990354330709</v>
+          </cell>
+          <cell r="G191">
+            <v>100022702942358</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="B192" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C192" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:NATIONALITY_NAME_LOCATION</v>
+          </cell>
+          <cell r="D192">
+            <v>125</v>
+          </cell>
+          <cell r="E192">
+            <v>125</v>
+          </cell>
+          <cell r="F192">
+            <v>17.299088000000001</v>
+          </cell>
+          <cell r="G192">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="B193" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C193" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TERRORISM</v>
+          </cell>
+          <cell r="D193">
+            <v>125</v>
+          </cell>
+          <cell r="E193">
+            <v>125</v>
+          </cell>
+          <cell r="F193">
+            <v>11.621248</v>
+          </cell>
+          <cell r="G193">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="B194" t="str">
+            <v>Nidhi Mehta</v>
+          </cell>
+          <cell r="C194" t="str">
+            <v>[FAWG] ATOMIZATION TEST: SCALED ABUSE</v>
+          </cell>
+          <cell r="D194">
+            <v>116</v>
+          </cell>
+          <cell r="E194">
+            <v>116</v>
+          </cell>
+          <cell r="F194">
+            <v>33.964181034482998</v>
+          </cell>
+          <cell r="G194">
+            <v>100023279447676</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="B195" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C195" t="str">
+            <v>[FAWG] ATOMIZATION TEST: STRONG_SHIELDED_APPS</v>
+          </cell>
+          <cell r="D195">
+            <v>115</v>
+          </cell>
+          <cell r="E195">
+            <v>115</v>
+          </cell>
+          <cell r="F195">
+            <v>15.448791304347999</v>
+          </cell>
+          <cell r="G195">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="B196" t="str">
+            <v>Sai Ane</v>
+          </cell>
+          <cell r="C196" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</v>
+          </cell>
+          <cell r="D196">
+            <v>114</v>
+          </cell>
+          <cell r="E196">
+            <v>114</v>
+          </cell>
+          <cell r="F196">
+            <v>21.937307017544001</v>
+          </cell>
+          <cell r="G196">
+            <v>100022818907606</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="B197" t="str">
+            <v>Shela Duong</v>
+          </cell>
+          <cell r="C197" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 4P_SCRIPTED</v>
+          </cell>
+          <cell r="D197">
+            <v>111</v>
+          </cell>
+          <cell r="E197">
+            <v>111</v>
+          </cell>
+          <cell r="F197">
+            <v>18.040882882883</v>
+          </cell>
+          <cell r="G197">
+            <v>100032374370202</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="B198" t="str">
+            <v>Anthony Robles</v>
+          </cell>
+          <cell r="C198" t="str">
+            <v>[FAWG] ATOMIZATION TEST: NON_PERSONAL</v>
+          </cell>
+          <cell r="D198">
+            <v>109</v>
+          </cell>
+          <cell r="E198">
+            <v>109</v>
+          </cell>
+          <cell r="F198">
+            <v>31.362559633027999</v>
+          </cell>
+          <cell r="G198">
+            <v>100022804179449</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="B199" t="str">
+            <v>Patricia Agraz</v>
+          </cell>
+          <cell r="C199" t="str">
+            <v>[FAWG] ATOMIZATION TEST: MISMATCH:GENDER_NAME_PHOTO</v>
+          </cell>
+          <cell r="D199">
+            <v>108</v>
+          </cell>
+          <cell r="E199">
+            <v>108</v>
+          </cell>
+          <cell r="F199">
+            <v>12.122481481481</v>
+          </cell>
+          <cell r="G199">
+            <v>100021844162254</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="B200" t="str">
+            <v>Jaelyn Ordonio</v>
+          </cell>
+          <cell r="C200" t="str">
+            <v>[FAWG] ATOMIZATION TEST: 1_3_HATE_NUTDITY</v>
+          </cell>
+          <cell r="D200">
+            <v>104</v>
+          </cell>
+          <cell r="E200">
+            <v>104</v>
+          </cell>
+          <cell r="F200">
+            <v>18.825932692308001</v>
+          </cell>
+          <cell r="G200">
+            <v>100030294652160</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="B201" t="str">
+            <v>Shehnila Zuberi</v>
+          </cell>
+          <cell r="C201" t="str">
+            <v>[FAWG] ATOMIZATION TEST: TREND</v>
+          </cell>
+          <cell r="D201">
+            <v>99</v>
+          </cell>
+          <cell r="E201">
+            <v>99</v>
+          </cell>
+          <cell r="F201">
+            <v>3.7832121212121002</v>
+          </cell>
+          <cell r="G201">
+            <v>100028044257659</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6249,8 +10286,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G274"/>
   <sheetViews>
-    <sheetView topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="F229" sqref="F229"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -12952,6 +16989,303 @@
       </c>
       <c r="G274" t="s">
         <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5469B145-997D-F340-8AA8-03F12F7C49F6}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B1" s="26">
+        <f>VLOOKUP(A1,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100021961656949</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xlfn.CONCAT(B1,",")</f>
+        <v>100021961656949,</v>
+      </c>
+      <c r="D1" t="str">
+        <f>_xlfn.CONCAT(C:C)</f>
+        <v>100021961656949,100021950239647,100021844162254,100022804179449,100022702942358,100022818907606,100023277947982,100023279447676,100025712179708,100027583741477,100027577681612,100027958385098,100028044257659,100028109931283,100028569720125,100029640304191,100029807015446,100029851203818,100030294652160,100032374370202,100033050461433,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>967</v>
+      </c>
+      <c r="B2" s="26">
+        <f>VLOOKUP(A2,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100021950239647</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C21" si="0">_xlfn.CONCAT(B2,",")</f>
+        <v>100021950239647,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B3" s="26">
+        <f>VLOOKUP(A3,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100021844162254</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>100021844162254,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B4" s="26">
+        <f>VLOOKUP(A4,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100022804179449</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>100022804179449,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B5" s="26">
+        <f>VLOOKUP(A5,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100022702942358</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>100022702942358,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6" s="26">
+        <f>VLOOKUP(A6,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100022818907606</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>100022818907606,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B7" s="26">
+        <f>VLOOKUP(A7,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100023277947982</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>100023277947982,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B8" s="26">
+        <f>VLOOKUP(A8,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100023279447676</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>100023279447676,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B9" s="26">
+        <f>VLOOKUP(A9,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100025712179708</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>100025712179708,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B10" s="26">
+        <f>VLOOKUP(A10,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100027583741477</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>100027583741477,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B11" s="26">
+        <f>VLOOKUP(A11,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100027577681612</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>100027577681612,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B12" s="26">
+        <f>VLOOKUP(A12,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100027958385098</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>100027958385098,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="26">
+        <f>VLOOKUP(A13,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100028044257659</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>100028044257659,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B14" s="26">
+        <f>VLOOKUP(A14,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100028109931283</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>100028109931283,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B15" s="26">
+        <f>VLOOKUP(A15,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100028569720125</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>100028569720125,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B16" s="26">
+        <f>VLOOKUP(A16,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100029640304191</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>100029640304191,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B17" s="26">
+        <f>VLOOKUP(A17,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100029807015446</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>100029807015446,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B18" s="26">
+        <f>VLOOKUP(A18,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100029851203818</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>100029851203818,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B19" s="26">
+        <f>VLOOKUP(A19,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100030294652160</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>100030294652160,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B20" s="26">
+        <f>VLOOKUP(A20,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100032374370202</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>100032374370202,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B21" s="26">
+        <f>VLOOKUP(A21,'[2]table-Thu, 19 Sep 2019 18_36_53'!$B:$G,6,FALSE)</f>
+        <v>100033050461433</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>100033050461433,</v>
       </c>
     </row>
   </sheetData>
@@ -13565,7 +17899,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -14930,8 +19264,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -58512,7 +62846,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131ADD1C-B2A4-9D43-B39E-A8A19CDFA4C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFA926-EBB6-BD44-BC29-8E7F1E55AAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="3" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="4800" yWindow="480" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Queue Info'!$A$1:$C$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Queue Info'!$A$1:$C$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Reps Info'!$A$1:$G$274</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Validation 8-1'!$A$1:$M$842</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13691" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13723" uniqueCount="1833">
   <si>
     <t>Name</t>
   </si>
@@ -5491,6 +5491,63 @@
   </si>
   <si>
     <t>&amp;isCorrect[0]=0</t>
+  </si>
+  <si>
+    <t>Carlos Montalvo</t>
+  </si>
+  <si>
+    <t>Aygun Amirali</t>
+  </si>
+  <si>
+    <t>Jason King</t>
+  </si>
+  <si>
+    <t>Eyobed Mesfun</t>
+  </si>
+  <si>
+    <t>Tatiana Benitez</t>
+  </si>
+  <si>
+    <t>Jeremy Wong</t>
+  </si>
+  <si>
+    <t>#100040916715718</t>
+  </si>
+  <si>
+    <t>#100041106524840</t>
+  </si>
+  <si>
+    <t>#100040775003495</t>
+  </si>
+  <si>
+    <t>#100040769124217</t>
+  </si>
+  <si>
+    <t>#100041049158350</t>
+  </si>
+  <si>
+    <t>#100040900936357</t>
+  </si>
+  <si>
+    <t>[FAWG] Adhoc Deep Dive</t>
+  </si>
+  <si>
+    <t>Mark Adams</t>
+  </si>
+  <si>
+    <t>Olivia Olivares Rivera</t>
+  </si>
+  <si>
+    <t>#100041634916890</t>
+  </si>
+  <si>
+    <t>#100041879973219</t>
+  </si>
+  <si>
+    <t>Naiba Ersan</t>
+  </si>
+  <si>
+    <t>#100041348654441</t>
   </si>
 </sst>
 </file>
@@ -10284,10 +10341,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FCD16A-AA0E-8248-93BE-C922ACA25034}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G274"/>
+  <dimension ref="A1:G284"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="E285" sqref="E285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -16396,12 +16453,11 @@
       <c r="D245" t="s">
         <v>7</v>
       </c>
-      <c r="E245" t="s">
-        <v>495</v>
-      </c>
-      <c r="F245" t="str">
-        <f t="shared" si="3"/>
-        <v>Rolled off</v>
+      <c r="E245" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F245" s="3">
+        <v>100019498924660</v>
       </c>
       <c r="G245" t="s">
         <v>499</v>
@@ -16989,6 +17045,148 @@
       </c>
       <c r="G274" t="s">
         <v>499</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="4" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F275" s="3">
+        <v>100040916715718</v>
+      </c>
+      <c r="G275" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1821</v>
+      </c>
+      <c r="F276" s="3">
+        <v>100041106524840</v>
+      </c>
+      <c r="G276" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="4" t="s">
+        <v>1816</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F277" s="3">
+        <v>100040775003495</v>
+      </c>
+      <c r="G277" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="4" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F278" s="3">
+        <v>100040769124217</v>
+      </c>
+      <c r="G278" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1824</v>
+      </c>
+      <c r="F279" s="3">
+        <v>100041049158350</v>
+      </c>
+      <c r="G279" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="4" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F280" s="3">
+        <v>100040900936357</v>
+      </c>
+      <c r="G280" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F281" s="3">
+        <v>100041634916890</v>
+      </c>
+      <c r="G281" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F282" s="3">
+        <v>100041879973219</v>
+      </c>
+      <c r="G282" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B283" s="4"/>
+      <c r="D283" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="F283" s="3">
+        <v>100041348654441</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B284" s="4"/>
+      <c r="E284" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F284" s="3">
+        <v>100027765617987</v>
       </c>
     </row>
   </sheetData>
@@ -17296,10 +17494,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605F05A7-F235-5040-8890-379E932ADCBF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17732,7 +17930,7 @@
         <v>574</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -17887,8 +18085,16 @@
         <v>7</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1755</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C71" xr:uid="{6D910AF3-B10D-4053-A81D-8BCC1A27BE04}"/>
+  <autoFilter ref="A1:C73" xr:uid="{6D910AF3-B10D-4053-A81D-8BCC1A27BE04}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19264,8 +19470,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/VBA Practice/Master Roster.xlsx
+++ b/VBA Practice/Master Roster.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/svernard/Python_Practice/VBA Practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CFA926-EBB6-BD44-BC29-8E7F1E55AAE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF37197-EFD1-7D4A-8BAE-AA942A872EBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="480" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
+    <workbookView xWindow="4800" yWindow="480" windowWidth="33600" windowHeight="20540" xr2:uid="{18E1EC60-5CBD-7344-9A4E-0520F0284943}"/>
   </bookViews>
   <sheets>
     <sheet name="Reps Info" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13723" uniqueCount="1833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13737" uniqueCount="1844">
   <si>
     <t>Name</t>
   </si>
@@ -5548,6 +5548,39 @@
   </si>
   <si>
     <t>#100041348654441</t>
+  </si>
+  <si>
+    <t>[FAWG] IAM VUMA Endpoint</t>
+  </si>
+  <si>
+    <t>[IG][FAWG]MAP Uniform Prevalence Re-Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Spam-IGProfile] FP Reach Profile Re-Review</t>
+  </si>
+  <si>
+    <t>Rian Paolo Reyes</t>
+  </si>
+  <si>
+    <t>Ashley Barnes-Berrios</t>
+  </si>
+  <si>
+    <t>David Pham</t>
+  </si>
+  <si>
+    <t>Alex Jacobsen</t>
+  </si>
+  <si>
+    <t>#100041583901898</t>
+  </si>
+  <si>
+    <t>#100041298646832</t>
+  </si>
+  <si>
+    <t>#100041392182404</t>
+  </si>
+  <si>
+    <t>#100041288627310</t>
   </si>
 </sst>
 </file>
@@ -10341,10 +10374,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FCD16A-AA0E-8248-93BE-C922ACA25034}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G288"/>
   <sheetViews>
-    <sheetView topLeftCell="A252" workbookViewId="0">
-      <selection activeCell="E285" sqref="E285"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="E289" sqref="E289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -17187,6 +17220,50 @@
       </c>
       <c r="F284" s="3">
         <v>100027765617987</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F285" s="3">
+        <v>100041583901898</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="4" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F286" s="3">
+        <v>100041298646832</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>1842</v>
+      </c>
+      <c r="F287" s="3">
+        <v>100041392182404</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F288" s="3">
+        <v>100041288627310</v>
       </c>
     </row>
   </sheetData>
@@ -17494,10 +17571,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{605F05A7-F235-5040-8890-379E932ADCBF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -18091,6 +18168,30 @@
       </c>
       <c r="B73" t="s">
         <v>1755</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B74" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B75" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B76" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
